--- a/svn/JG16S17P06/trunk/Documentation/ProjectDocumentation/Time_recording.xlsx
+++ b/svn/JG16S17P06/trunk/Documentation/ProjectDocumentation/Time_recording.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1065" windowWidth="33600" windowHeight="19245"/>
+    <workbookView xWindow="0" yWindow="1665" windowWidth="33600" windowHeight="19245" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="7" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1660" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1661" uniqueCount="150">
   <si>
     <t>Nr</t>
   </si>
@@ -485,6 +485,9 @@
   </si>
   <si>
     <t>NPC running correction, Tower shooting,Prepared Presention</t>
+  </si>
+  <si>
+    <t>Tower Placement Evalution</t>
   </si>
 </sst>
 </file>
@@ -1387,100 +1390,116 @@
     <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="1" fontId="12" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="12" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="12" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="12" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="2" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="2" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="2" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="2" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="2" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="14" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="12" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="12" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="14" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="14" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="164" fontId="14" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="9" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="14" fontId="14" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="14" fontId="9" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="20" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="20" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="20" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="2" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="20" fillId="2" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="2" fillId="2" borderId="15" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1488,6 +1507,9 @@
     </xf>
     <xf numFmtId="164" fontId="2" fillId="2" borderId="16" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="19" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1503,9 +1525,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="28" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90"/>
     </xf>
     <xf numFmtId="49" fontId="17" fillId="2" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
@@ -1549,13 +1568,13 @@
     <xf numFmtId="164" fontId="6" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="2" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="1" fontId="2" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="2" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="20" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="20" fillId="2" borderId="12" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1591,90 +1610,83 @@
     <xf numFmtId="49" fontId="2" fillId="2" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="20" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="20" fillId="2" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="16" fillId="2" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="20" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="16" fillId="2" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="16" fillId="2" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="14" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="2" fillId="2" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="12" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="2" fillId="2" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="14" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90"/>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="14" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90"/>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="9" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90"/>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="5" fillId="2" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1682,16 +1694,7 @@
     <xf numFmtId="49" fontId="5" fillId="2" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="49" fontId="5" fillId="2" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1703,8 +1706,8 @@
     <xf numFmtId="49" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -2186,7 +2189,7 @@
   </sheetPr>
   <dimension ref="B2:AG55"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E2" sqref="E2:I2"/>
     </sheetView>
   </sheetViews>
@@ -2205,18 +2208,18 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:33" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="138" t="s">
+      <c r="B2" s="91" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="138"/>
-      <c r="D2" s="138"/>
-      <c r="E2" s="139" t="s">
+      <c r="C2" s="91"/>
+      <c r="D2" s="91"/>
+      <c r="E2" s="92" t="s">
         <v>95</v>
       </c>
-      <c r="F2" s="139"/>
-      <c r="G2" s="139"/>
-      <c r="H2" s="139"/>
-      <c r="I2" s="139"/>
+      <c r="F2" s="92"/>
+      <c r="G2" s="92"/>
+      <c r="H2" s="92"/>
+      <c r="I2" s="92"/>
       <c r="J2" s="17"/>
       <c r="K2" s="6"/>
       <c r="L2" s="6"/>
@@ -2226,18 +2229,18 @@
       <c r="P2" s="6"/>
     </row>
     <row r="3" spans="2:33" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="138" t="s">
+      <c r="B3" s="91" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="138"/>
-      <c r="D3" s="138"/>
-      <c r="E3" s="141">
+      <c r="C3" s="91"/>
+      <c r="D3" s="91"/>
+      <c r="E3" s="94">
         <v>10</v>
       </c>
-      <c r="F3" s="141"/>
-      <c r="G3" s="140"/>
-      <c r="H3" s="140"/>
-      <c r="I3" s="140"/>
+      <c r="F3" s="94"/>
+      <c r="G3" s="93"/>
+      <c r="H3" s="93"/>
+      <c r="I3" s="93"/>
       <c r="J3" s="6"/>
       <c r="K3" s="6"/>
       <c r="L3" s="6"/>
@@ -2250,20 +2253,20 @@
       <c r="B4" s="66" t="s">
         <v>94</v>
       </c>
-      <c r="C4" s="143" t="s">
+      <c r="C4" s="97" t="s">
         <v>88</v>
       </c>
-      <c r="D4" s="144"/>
-      <c r="E4" s="145">
+      <c r="D4" s="98"/>
+      <c r="E4" s="99">
         <f>IF(EXACT($C$4,"PRO-1"),3,IF(EXACT($C$4,"PRO-2"),4,IF(EXACT($C$4,"PRO-3"),4,IF(EXACT($C$4,"PRO-4"),6,IF(EXACT($C$4,"PRO-2-M"),5,IF(EXACT($C$4,"PRO-3-M"),5))))))</f>
         <v>3</v>
       </c>
-      <c r="F4" s="145"/>
-      <c r="G4" s="142" t="s">
+      <c r="F4" s="99"/>
+      <c r="G4" s="96" t="s">
         <v>10</v>
       </c>
-      <c r="H4" s="142"/>
-      <c r="I4" s="142"/>
+      <c r="H4" s="96"/>
+      <c r="I4" s="96"/>
       <c r="J4" s="10"/>
       <c r="K4" s="10"/>
       <c r="L4" s="10"/>
@@ -2273,20 +2276,20 @@
       <c r="P4" s="8"/>
     </row>
     <row r="5" spans="2:33" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="135" t="s">
+      <c r="B5" s="87" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="135"/>
-      <c r="D5" s="135"/>
-      <c r="E5" s="121">
+      <c r="C5" s="87"/>
+      <c r="D5" s="87"/>
+      <c r="E5" s="95">
         <v>12</v>
       </c>
-      <c r="F5" s="121"/>
-      <c r="G5" s="146" t="s">
+      <c r="F5" s="95"/>
+      <c r="G5" s="100" t="s">
         <v>14</v>
       </c>
-      <c r="H5" s="146"/>
-      <c r="I5" s="146"/>
+      <c r="H5" s="100"/>
+      <c r="I5" s="100"/>
       <c r="J5" s="10"/>
       <c r="K5" s="10"/>
       <c r="L5" s="10"/>
@@ -2296,21 +2299,21 @@
       <c r="P5" s="8"/>
     </row>
     <row r="6" spans="2:33" ht="26.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="136" t="s">
+      <c r="B6" s="88" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="136"/>
-      <c r="D6" s="136"/>
-      <c r="E6" s="154">
+      <c r="C6" s="88"/>
+      <c r="D6" s="88"/>
+      <c r="E6" s="76">
         <f>(25*60)*E4</f>
         <v>4500</v>
       </c>
-      <c r="F6" s="155"/>
-      <c r="G6" s="147" t="s">
-        <v>16</v>
-      </c>
-      <c r="H6" s="147"/>
-      <c r="I6" s="147"/>
+      <c r="F6" s="77"/>
+      <c r="G6" s="101" t="s">
+        <v>16</v>
+      </c>
+      <c r="H6" s="101"/>
+      <c r="I6" s="101"/>
       <c r="J6" s="10"/>
       <c r="K6" s="10"/>
       <c r="L6" s="10"/>
@@ -2320,19 +2323,19 @@
       <c r="P6" s="8"/>
     </row>
     <row r="7" spans="2:33" s="4" customFormat="1" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="137"/>
-      <c r="C7" s="137"/>
-      <c r="D7" s="137"/>
-      <c r="E7" s="156">
+      <c r="B7" s="89"/>
+      <c r="C7" s="89"/>
+      <c r="D7" s="89"/>
+      <c r="E7" s="78">
         <f>E6/60</f>
         <v>75</v>
       </c>
-      <c r="F7" s="157"/>
-      <c r="G7" s="142" t="s">
-        <v>17</v>
-      </c>
-      <c r="H7" s="142"/>
-      <c r="I7" s="142"/>
+      <c r="F7" s="79"/>
+      <c r="G7" s="96" t="s">
+        <v>17</v>
+      </c>
+      <c r="H7" s="96"/>
+      <c r="I7" s="96"/>
       <c r="J7" s="10"/>
       <c r="K7" s="10"/>
       <c r="L7" s="10"/>
@@ -2342,9 +2345,9 @@
       <c r="P7" s="8"/>
     </row>
     <row r="8" spans="2:33" s="4" customFormat="1" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="137"/>
-      <c r="C8" s="137"/>
-      <c r="D8" s="137"/>
+      <c r="B8" s="89"/>
+      <c r="C8" s="89"/>
+      <c r="D8" s="89"/>
       <c r="E8" s="27" t="s">
         <v>2</v>
       </c>
@@ -2352,11 +2355,11 @@
         <f>(E6/60)/E5</f>
         <v>6.25</v>
       </c>
-      <c r="G8" s="142" t="s">
+      <c r="G8" s="96" t="s">
         <v>18</v>
       </c>
-      <c r="H8" s="142"/>
-      <c r="I8" s="142"/>
+      <c r="H8" s="96"/>
+      <c r="I8" s="96"/>
       <c r="J8" s="20"/>
       <c r="K8" s="10"/>
       <c r="L8" s="21"/>
@@ -2384,62 +2387,62 @@
       <c r="P9" s="8"/>
     </row>
     <row r="10" spans="2:33" s="4" customFormat="1" ht="32.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="148" t="s">
+      <c r="B10" s="70" t="s">
         <v>19</v>
       </c>
-      <c r="C10" s="149"/>
-      <c r="D10" s="149"/>
-      <c r="E10" s="149"/>
-      <c r="F10" s="149"/>
-      <c r="G10" s="150"/>
+      <c r="C10" s="71"/>
+      <c r="D10" s="71"/>
+      <c r="E10" s="71"/>
+      <c r="F10" s="71"/>
+      <c r="G10" s="72"/>
       <c r="H10" s="35"/>
-      <c r="I10" s="151" t="s">
+      <c r="I10" s="73" t="s">
         <v>20</v>
       </c>
-      <c r="J10" s="152"/>
-      <c r="K10" s="152"/>
-      <c r="L10" s="152"/>
-      <c r="M10" s="152"/>
-      <c r="N10" s="152"/>
-      <c r="O10" s="152"/>
-      <c r="P10" s="152"/>
-      <c r="Q10" s="152"/>
-      <c r="R10" s="152"/>
-      <c r="S10" s="152"/>
-      <c r="T10" s="152"/>
-      <c r="U10" s="152"/>
-      <c r="V10" s="152"/>
-      <c r="W10" s="152"/>
-      <c r="X10" s="152"/>
-      <c r="Y10" s="152"/>
-      <c r="Z10" s="152"/>
-      <c r="AA10" s="152"/>
-      <c r="AB10" s="152"/>
-      <c r="AC10" s="152"/>
-      <c r="AD10" s="152"/>
-      <c r="AE10" s="152"/>
-      <c r="AF10" s="153"/>
+      <c r="J10" s="74"/>
+      <c r="K10" s="74"/>
+      <c r="L10" s="74"/>
+      <c r="M10" s="74"/>
+      <c r="N10" s="74"/>
+      <c r="O10" s="74"/>
+      <c r="P10" s="74"/>
+      <c r="Q10" s="74"/>
+      <c r="R10" s="74"/>
+      <c r="S10" s="74"/>
+      <c r="T10" s="74"/>
+      <c r="U10" s="74"/>
+      <c r="V10" s="74"/>
+      <c r="W10" s="74"/>
+      <c r="X10" s="74"/>
+      <c r="Y10" s="74"/>
+      <c r="Z10" s="74"/>
+      <c r="AA10" s="74"/>
+      <c r="AB10" s="74"/>
+      <c r="AC10" s="74"/>
+      <c r="AD10" s="74"/>
+      <c r="AE10" s="74"/>
+      <c r="AF10" s="75"/>
     </row>
     <row r="11" spans="2:33" s="4" customFormat="1" ht="133.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="107" t="s">
+      <c r="B11" s="111" t="s">
         <v>21</v>
       </c>
       <c r="C11" s="50"/>
-      <c r="D11" s="129">
+      <c r="D11" s="133">
         <f>E3</f>
         <v>10</v>
       </c>
-      <c r="E11" s="106" t="s">
+      <c r="E11" s="90" t="s">
         <v>23</v>
       </c>
-      <c r="F11" s="106" t="s">
+      <c r="F11" s="90" t="s">
         <v>22</v>
       </c>
-      <c r="G11" s="134" t="s">
+      <c r="G11" s="138" t="s">
         <v>24</v>
       </c>
-      <c r="H11" s="69"/>
-      <c r="I11" s="158" t="s">
+      <c r="H11" s="161"/>
+      <c r="I11" s="83" t="s">
         <v>25</v>
       </c>
       <c r="J11" s="49" t="str">
@@ -2522,26 +2525,26 @@
         <f>'dynamic Data'!$B21</f>
         <v>0</v>
       </c>
-      <c r="AD11" s="161" t="s">
+      <c r="AD11" s="86" t="s">
         <v>46</v>
       </c>
-      <c r="AE11" s="160" t="s">
+      <c r="AE11" s="85" t="s">
         <v>47</v>
       </c>
-      <c r="AF11" s="160" t="s">
+      <c r="AF11" s="85" t="s">
         <v>48</v>
       </c>
       <c r="AG11" s="8"/>
     </row>
     <row r="12" spans="2:33" ht="76.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="108"/>
+      <c r="B12" s="112"/>
       <c r="C12" s="51"/>
-      <c r="D12" s="130"/>
-      <c r="E12" s="106"/>
-      <c r="F12" s="106"/>
-      <c r="G12" s="134"/>
-      <c r="H12" s="69"/>
-      <c r="I12" s="159"/>
+      <c r="D12" s="134"/>
+      <c r="E12" s="90"/>
+      <c r="F12" s="90"/>
+      <c r="G12" s="138"/>
+      <c r="H12" s="161"/>
+      <c r="I12" s="84"/>
       <c r="J12" s="36" t="s">
         <v>26</v>
       </c>
@@ -2602,30 +2605,30 @@
       <c r="AC12" s="36" t="s">
         <v>45</v>
       </c>
-      <c r="AD12" s="161"/>
-      <c r="AE12" s="160"/>
-      <c r="AF12" s="160"/>
+      <c r="AD12" s="86"/>
+      <c r="AE12" s="85"/>
+      <c r="AF12" s="85"/>
     </row>
     <row r="13" spans="2:33" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="109" t="str">
+      <c r="B13" s="113" t="str">
         <f>'Std-A'!A3</f>
         <v>GEBAUER Laurenz</v>
       </c>
-      <c r="C13" s="110"/>
-      <c r="D13" s="111"/>
-      <c r="E13" s="118">
+      <c r="C13" s="114"/>
+      <c r="D13" s="115"/>
+      <c r="E13" s="122">
         <f>IF(NOT(EXACT($B13,"----")),SUM($J13,IF($E$3&gt;=2,$K13,0),IF($E$3&gt;=3,$L13,0),IF($E$3&gt;=4,$M13,0),IF($E$3&gt;=5,$N13,0),IF($E$3&gt;=6,$O13,0),IF($E$3&gt;=7,$P13,0),IF($E$3&gt;=8,$Q13,0),IF($E$3&gt;=9,$R13,0),IF($E$3&gt;=10,$S13,0),IF($E$3&gt;=11,$T13,0),IF($E$3&gt;=12,$U13,0),IF($E$3&gt;=13,$V13,0),IF($E$3&gt;=14,$W13,0),IF($E$3&gt;=15,$X13,0),IF($E$3&gt;=16,$Y13,0),IF($E$3&gt;=17,$Z13,0),IF($E$3&gt;=18,$AA13,0),IF($E$3&gt;=19,$AB13,0),IF($E$3&gt;=12,$AC13,0)),0)</f>
-        <v>27</v>
-      </c>
-      <c r="F13" s="121">
+        <v>36</v>
+      </c>
+      <c r="F13" s="95">
         <f>IF(NOT(EXACT($B13,"----")),SUM($J14,IF($E$3&gt;=2,$K14,0),IF($E$3&gt;=3,$L14,0),IF($E$3&gt;=4,$M14,0),IF($E$3&gt;=5,$N14,0),IF($E$3&gt;=6,$O14,0),IF($E$3&gt;=7,$P14,0),IF($E$3&gt;=8,$Q14,0),IF($E$3&gt;=9,$R14,0),IF($E$3&gt;=10,$S14,0),IF($E$3&gt;=11,$T14,0),IF($E$3&gt;=12,$U14,0),IF($E$3&gt;=13,$V14,0),IF($E$3&gt;=14,$W14,0),IF($E$3&gt;=15,$X14,0),IF($E$3&gt;=16,$Y14,0),IF($E$3&gt;=17,$Z14,0),IF($E$3&gt;=18,$AA14,0),IF($E$3&gt;=19,$AB14,0),IF($E$3&gt;=20,$AC14,0)),0)</f>
-        <v>53</v>
-      </c>
-      <c r="G13" s="131">
+        <v>54</v>
+      </c>
+      <c r="G13" s="135">
         <f>F13-E13</f>
-        <v>26</v>
-      </c>
-      <c r="H13" s="67"/>
+        <v>18</v>
+      </c>
+      <c r="H13" s="157"/>
       <c r="I13" s="37" t="s">
         <v>50</v>
       </c>
@@ -2663,7 +2666,7 @@
       </c>
       <c r="R13" s="53">
         <f>'Std-A'!$C$101</f>
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="S13" s="53">
         <f>'Std-A'!$C$112</f>
@@ -2711,25 +2714,25 @@
       </c>
       <c r="AD13" s="56">
         <f t="shared" ref="AD13:AD22" si="0">SUM(J13:AC13)</f>
-        <v>27</v>
-      </c>
-      <c r="AE13" s="74">
+        <v>36</v>
+      </c>
+      <c r="AE13" s="67">
         <f>IF(NOT(EXACT(B13,"----")),$E$7,0)</f>
         <v>75</v>
       </c>
-      <c r="AF13" s="76">
+      <c r="AF13" s="80">
         <f>AD14-AE13</f>
-        <v>-22</v>
+        <v>-21</v>
       </c>
     </row>
     <row r="14" spans="2:33" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="112"/>
-      <c r="C14" s="113"/>
-      <c r="D14" s="114"/>
-      <c r="E14" s="119"/>
-      <c r="F14" s="122"/>
-      <c r="G14" s="132"/>
-      <c r="H14" s="68"/>
+      <c r="B14" s="116"/>
+      <c r="C14" s="117"/>
+      <c r="D14" s="118"/>
+      <c r="E14" s="123"/>
+      <c r="F14" s="125"/>
+      <c r="G14" s="136"/>
+      <c r="H14" s="158"/>
       <c r="I14" s="37" t="s">
         <v>49</v>
       </c>
@@ -2767,7 +2770,7 @@
       </c>
       <c r="R14" s="32">
         <f>'Std-A'!$C$100</f>
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="S14" s="32">
         <f>'Std-A'!$C$111</f>
@@ -2815,19 +2818,19 @@
       </c>
       <c r="AD14" s="33">
         <f t="shared" si="0"/>
-        <v>53</v>
-      </c>
-      <c r="AE14" s="71"/>
-      <c r="AF14" s="73"/>
+        <v>54</v>
+      </c>
+      <c r="AE14" s="68"/>
+      <c r="AF14" s="81"/>
     </row>
     <row r="15" spans="2:33" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="115"/>
-      <c r="C15" s="116"/>
-      <c r="D15" s="117"/>
-      <c r="E15" s="120"/>
-      <c r="F15" s="123"/>
-      <c r="G15" s="133"/>
-      <c r="H15" s="68"/>
+      <c r="B15" s="119"/>
+      <c r="C15" s="120"/>
+      <c r="D15" s="121"/>
+      <c r="E15" s="124"/>
+      <c r="F15" s="126"/>
+      <c r="G15" s="137"/>
+      <c r="H15" s="158"/>
       <c r="I15" s="39" t="s">
         <v>24</v>
       </c>
@@ -2865,7 +2868,7 @@
       </c>
       <c r="R15" s="29">
         <f t="shared" si="1"/>
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="S15" s="29">
         <f t="shared" si="1"/>
@@ -2913,31 +2916,31 @@
       </c>
       <c r="AD15" s="30">
         <f t="shared" si="0"/>
-        <v>26</v>
-      </c>
-      <c r="AE15" s="75"/>
-      <c r="AF15" s="78"/>
+        <v>18</v>
+      </c>
+      <c r="AE15" s="69"/>
+      <c r="AF15" s="82"/>
     </row>
     <row r="16" spans="2:33" ht="12" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="B16" s="79" t="str">
+      <c r="B16" s="105" t="str">
         <f>'Std-B'!A3</f>
         <v>PRANZ Bernhard</v>
       </c>
-      <c r="C16" s="101"/>
-      <c r="D16" s="101"/>
-      <c r="E16" s="85">
+      <c r="C16" s="106"/>
+      <c r="D16" s="106"/>
+      <c r="E16" s="127">
         <f t="shared" ref="E16" si="3">IF(NOT(EXACT($B16,"----")),SUM($J16,IF($E$3&gt;=2,$K16,0),IF($E$3&gt;=3,$L16,0),IF($E$3&gt;=4,$M16,0),IF($E$3&gt;=5,$N16,0),IF($E$3&gt;=6,$O16,0),IF($E$3&gt;=7,$P16,0),IF($E$3&gt;=8,$Q16,0),IF($E$3&gt;=9,$R16,0),IF($E$3&gt;=10,$S16,0),IF($E$3&gt;=11,$T16,0),IF($E$3&gt;=12,$U16,0),IF($E$3&gt;=13,$V16,0),IF($E$3&gt;=14,$W16,0),IF($E$3&gt;=15,$X16,0),IF($E$3&gt;=16,$Y16,0),IF($E$3&gt;=17,$Z16,0),IF($E$3&gt;=18,$AA16,0),IF($E$3&gt;=19,$AB16,0),IF($E$3&gt;=12,$AC16,0)),0)</f>
         <v>30</v>
       </c>
-      <c r="F16" s="126">
+      <c r="F16" s="130">
         <f t="shared" ref="F16" si="4">IF(NOT(EXACT($B16,"----")),SUM($J17,IF($E$3&gt;=2,$K17,0),IF($E$3&gt;=3,$L17,0),IF($E$3&gt;=4,$M17,0),IF($E$3&gt;=5,$N17,0),IF($E$3&gt;=6,$O17,0),IF($E$3&gt;=7,$P17,0),IF($E$3&gt;=8,$Q17,0),IF($E$3&gt;=9,$R17,0),IF($E$3&gt;=10,$S17,0),IF($E$3&gt;=11,$T17,0),IF($E$3&gt;=12,$U17,0),IF($E$3&gt;=13,$V17,0),IF($E$3&gt;=14,$W17,0),IF($E$3&gt;=15,$X17,0),IF($E$3&gt;=16,$Y17,0),IF($E$3&gt;=17,$Z17,0),IF($E$3&gt;=18,$AA17,0),IF($E$3&gt;=19,$AB17,0),IF($E$3&gt;=20,$AC17,0)),0)</f>
         <v>37</v>
       </c>
-      <c r="G16" s="91">
+      <c r="G16" s="102">
         <f t="shared" ref="G16" si="5">F16-E16</f>
         <v>7</v>
       </c>
-      <c r="H16" s="67"/>
+      <c r="H16" s="157"/>
       <c r="I16" s="37" t="s">
         <v>50</v>
       </c>
@@ -3025,23 +3028,23 @@
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="AE16" s="74">
+      <c r="AE16" s="67">
         <f>IF(NOT(EXACT(B16,"----")),$E$7,0)</f>
         <v>75</v>
       </c>
-      <c r="AF16" s="76">
+      <c r="AF16" s="80">
         <f>AD17-AE16</f>
         <v>-38</v>
       </c>
     </row>
     <row r="17" spans="2:32" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B17" s="102"/>
-      <c r="C17" s="103"/>
-      <c r="D17" s="103"/>
-      <c r="E17" s="124"/>
-      <c r="F17" s="127"/>
-      <c r="G17" s="99"/>
-      <c r="H17" s="68"/>
+      <c r="B17" s="107"/>
+      <c r="C17" s="108"/>
+      <c r="D17" s="108"/>
+      <c r="E17" s="128"/>
+      <c r="F17" s="131"/>
+      <c r="G17" s="103"/>
+      <c r="H17" s="158"/>
       <c r="I17" s="38" t="s">
         <v>49</v>
       </c>
@@ -3129,17 +3132,17 @@
         <f t="shared" si="0"/>
         <v>37</v>
       </c>
-      <c r="AE17" s="71"/>
-      <c r="AF17" s="73"/>
+      <c r="AE17" s="68"/>
+      <c r="AF17" s="81"/>
     </row>
     <row r="18" spans="2:32" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="104"/>
-      <c r="C18" s="105"/>
-      <c r="D18" s="105"/>
-      <c r="E18" s="125"/>
-      <c r="F18" s="128"/>
-      <c r="G18" s="100"/>
-      <c r="H18" s="68"/>
+      <c r="B18" s="109"/>
+      <c r="C18" s="110"/>
+      <c r="D18" s="110"/>
+      <c r="E18" s="129"/>
+      <c r="F18" s="132"/>
+      <c r="G18" s="104"/>
+      <c r="H18" s="158"/>
       <c r="I18" s="40" t="s">
         <v>24</v>
       </c>
@@ -3227,29 +3230,29 @@
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="AE18" s="75"/>
-      <c r="AF18" s="77"/>
+      <c r="AE18" s="69"/>
+      <c r="AF18" s="155"/>
     </row>
     <row r="19" spans="2:32" ht="12" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="B19" s="79" t="str">
+      <c r="B19" s="105" t="str">
         <f>'Std-C'!A3</f>
         <v>SCHILLER Markus</v>
       </c>
-      <c r="C19" s="80"/>
-      <c r="D19" s="80"/>
-      <c r="E19" s="85">
+      <c r="C19" s="139"/>
+      <c r="D19" s="139"/>
+      <c r="E19" s="127">
         <f t="shared" ref="E19" si="8">IF(NOT(EXACT($B19,"----")),SUM($J19,IF($E$3&gt;=2,$K19,0),IF($E$3&gt;=3,$L19,0),IF($E$3&gt;=4,$M19,0),IF($E$3&gt;=5,$N19,0),IF($E$3&gt;=6,$O19,0),IF($E$3&gt;=7,$P19,0),IF($E$3&gt;=8,$Q19,0),IF($E$3&gt;=9,$R19,0),IF($E$3&gt;=10,$S19,0),IF($E$3&gt;=11,$T19,0),IF($E$3&gt;=12,$U19,0),IF($E$3&gt;=13,$V19,0),IF($E$3&gt;=14,$W19,0),IF($E$3&gt;=15,$X19,0),IF($E$3&gt;=16,$Y19,0),IF($E$3&gt;=17,$Z19,0),IF($E$3&gt;=18,$AA19,0),IF($E$3&gt;=19,$AB19,0),IF($E$3&gt;=12,$AC19,0)),0)</f>
         <v>22</v>
       </c>
-      <c r="F19" s="88">
+      <c r="F19" s="146">
         <f t="shared" ref="F19" si="9">IF(NOT(EXACT($B19,"----")),SUM($J20,IF($E$3&gt;=2,$K20,0),IF($E$3&gt;=3,$L20,0),IF($E$3&gt;=4,$M20,0),IF($E$3&gt;=5,$N20,0),IF($E$3&gt;=6,$O20,0),IF($E$3&gt;=7,$P20,0),IF($E$3&gt;=8,$Q20,0),IF($E$3&gt;=9,$R20,0),IF($E$3&gt;=10,$S20,0),IF($E$3&gt;=11,$T20,0),IF($E$3&gt;=12,$U20,0),IF($E$3&gt;=13,$V20,0),IF($E$3&gt;=14,$W20,0),IF($E$3&gt;=15,$X20,0),IF($E$3&gt;=16,$Y20,0),IF($E$3&gt;=17,$Z20,0),IF($E$3&gt;=18,$AA20,0),IF($E$3&gt;=19,$AB20,0),IF($E$3&gt;=20,$AC20,0)),0)</f>
         <v>32</v>
       </c>
-      <c r="G19" s="91">
+      <c r="G19" s="102">
         <f t="shared" ref="G19" si="10">F19-E19</f>
         <v>10</v>
       </c>
-      <c r="H19" s="67"/>
+      <c r="H19" s="157"/>
       <c r="I19" s="41" t="s">
         <v>50</v>
       </c>
@@ -3337,23 +3340,23 @@
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="AE19" s="74">
+      <c r="AE19" s="67">
         <f>IF(NOT(EXACT(B19,"----")),$E$7,0)</f>
         <v>75</v>
       </c>
-      <c r="AF19" s="72">
+      <c r="AF19" s="160">
         <f>AD20-AE19</f>
         <v>-43</v>
       </c>
     </row>
     <row r="20" spans="2:32" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B20" s="81"/>
-      <c r="C20" s="82"/>
-      <c r="D20" s="82"/>
-      <c r="E20" s="86"/>
-      <c r="F20" s="89"/>
-      <c r="G20" s="92"/>
-      <c r="H20" s="68"/>
+      <c r="B20" s="140"/>
+      <c r="C20" s="141"/>
+      <c r="D20" s="141"/>
+      <c r="E20" s="144"/>
+      <c r="F20" s="147"/>
+      <c r="G20" s="149"/>
+      <c r="H20" s="158"/>
       <c r="I20" s="38" t="s">
         <v>49</v>
       </c>
@@ -3441,17 +3444,17 @@
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
-      <c r="AE20" s="71"/>
-      <c r="AF20" s="73"/>
+      <c r="AE20" s="68"/>
+      <c r="AF20" s="81"/>
     </row>
     <row r="21" spans="2:32" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="83"/>
-      <c r="C21" s="84"/>
-      <c r="D21" s="84"/>
-      <c r="E21" s="87"/>
-      <c r="F21" s="90"/>
-      <c r="G21" s="93"/>
-      <c r="H21" s="68"/>
+      <c r="B21" s="151"/>
+      <c r="C21" s="152"/>
+      <c r="D21" s="152"/>
+      <c r="E21" s="153"/>
+      <c r="F21" s="154"/>
+      <c r="G21" s="156"/>
+      <c r="H21" s="158"/>
       <c r="I21" s="39" t="s">
         <v>24</v>
       </c>
@@ -3539,29 +3542,29 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="AE21" s="75"/>
-      <c r="AF21" s="78"/>
+      <c r="AE21" s="69"/>
+      <c r="AF21" s="82"/>
     </row>
     <row r="22" spans="2:32" ht="12" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="B22" s="79" t="str">
+      <c r="B22" s="105" t="str">
         <f>'Std-D'!A3</f>
         <v>----</v>
       </c>
-      <c r="C22" s="80"/>
-      <c r="D22" s="80"/>
-      <c r="E22" s="85">
+      <c r="C22" s="139"/>
+      <c r="D22" s="139"/>
+      <c r="E22" s="127">
         <f t="shared" ref="E22" si="13">IF(NOT(EXACT($B22,"----")),SUM($J22,IF($E$3&gt;=2,$K22,0),IF($E$3&gt;=3,$L22,0),IF($E$3&gt;=4,$M22,0),IF($E$3&gt;=5,$N22,0),IF($E$3&gt;=6,$O22,0),IF($E$3&gt;=7,$P22,0),IF($E$3&gt;=8,$Q22,0),IF($E$3&gt;=9,$R22,0),IF($E$3&gt;=10,$S22,0),IF($E$3&gt;=11,$T22,0),IF($E$3&gt;=12,$U22,0),IF($E$3&gt;=13,$V22,0),IF($E$3&gt;=14,$W22,0),IF($E$3&gt;=15,$X22,0),IF($E$3&gt;=16,$Y22,0),IF($E$3&gt;=17,$Z22,0),IF($E$3&gt;=18,$AA22,0),IF($E$3&gt;=19,$AB22,0),IF($E$3&gt;=12,$AC22,0)),0)</f>
         <v>0</v>
       </c>
-      <c r="F22" s="88">
+      <c r="F22" s="146">
         <f t="shared" ref="F22" si="14">IF(NOT(EXACT($B22,"----")),SUM($J23,IF($E$3&gt;=2,$K23,0),IF($E$3&gt;=3,$L23,0),IF($E$3&gt;=4,$M23,0),IF($E$3&gt;=5,$N23,0),IF($E$3&gt;=6,$O23,0),IF($E$3&gt;=7,$P23,0),IF($E$3&gt;=8,$Q23,0),IF($E$3&gt;=9,$R23,0),IF($E$3&gt;=10,$S23,0),IF($E$3&gt;=11,$T23,0),IF($E$3&gt;=12,$U23,0),IF($E$3&gt;=13,$V23,0),IF($E$3&gt;=14,$W23,0),IF($E$3&gt;=15,$X23,0),IF($E$3&gt;=16,$Y23,0),IF($E$3&gt;=17,$Z23,0),IF($E$3&gt;=18,$AA23,0),IF($E$3&gt;=19,$AB23,0),IF($E$3&gt;=20,$AC23,0)),0)</f>
         <v>0</v>
       </c>
-      <c r="G22" s="91">
+      <c r="G22" s="102">
         <f t="shared" ref="G22" si="15">F22-E22</f>
         <v>0</v>
       </c>
-      <c r="H22" s="67"/>
+      <c r="H22" s="157"/>
       <c r="I22" s="37" t="s">
         <v>50</v>
       </c>
@@ -3649,23 +3652,23 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AE22" s="74">
+      <c r="AE22" s="67">
         <f>IF(NOT(EXACT(B22,"----")),$E$7,0)</f>
         <v>0</v>
       </c>
-      <c r="AF22" s="76">
+      <c r="AF22" s="80">
         <f>AD23-AE22</f>
         <v>0</v>
       </c>
     </row>
     <row r="23" spans="2:32" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B23" s="81"/>
-      <c r="C23" s="82"/>
-      <c r="D23" s="82"/>
-      <c r="E23" s="86"/>
-      <c r="F23" s="89"/>
-      <c r="G23" s="92"/>
-      <c r="H23" s="68"/>
+      <c r="B23" s="140"/>
+      <c r="C23" s="141"/>
+      <c r="D23" s="141"/>
+      <c r="E23" s="144"/>
+      <c r="F23" s="147"/>
+      <c r="G23" s="149"/>
+      <c r="H23" s="158"/>
       <c r="I23" s="38" t="s">
         <v>49</v>
       </c>
@@ -3753,17 +3756,17 @@
         <f>SUM(J23:AC23)</f>
         <v>0</v>
       </c>
-      <c r="AE23" s="71"/>
-      <c r="AF23" s="73"/>
+      <c r="AE23" s="68"/>
+      <c r="AF23" s="81"/>
     </row>
     <row r="24" spans="2:32" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="83"/>
-      <c r="C24" s="84"/>
-      <c r="D24" s="84"/>
-      <c r="E24" s="87"/>
-      <c r="F24" s="90"/>
-      <c r="G24" s="93"/>
-      <c r="H24" s="68"/>
+      <c r="B24" s="151"/>
+      <c r="C24" s="152"/>
+      <c r="D24" s="152"/>
+      <c r="E24" s="153"/>
+      <c r="F24" s="154"/>
+      <c r="G24" s="156"/>
+      <c r="H24" s="158"/>
       <c r="I24" s="40" t="s">
         <v>24</v>
       </c>
@@ -3851,29 +3854,29 @@
         <f>SUM(J24:AC24)</f>
         <v>0</v>
       </c>
-      <c r="AE24" s="75"/>
-      <c r="AF24" s="77"/>
+      <c r="AE24" s="69"/>
+      <c r="AF24" s="155"/>
     </row>
     <row r="25" spans="2:32" ht="12" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="B25" s="79" t="str">
+      <c r="B25" s="105" t="str">
         <f>'Std-E'!A3</f>
         <v>----</v>
       </c>
-      <c r="C25" s="80"/>
-      <c r="D25" s="80"/>
-      <c r="E25" s="85">
+      <c r="C25" s="139"/>
+      <c r="D25" s="139"/>
+      <c r="E25" s="127">
         <f t="shared" ref="E25" si="18">IF(NOT(EXACT($B25,"----")),SUM($J25,IF($E$3&gt;=2,$K25,0),IF($E$3&gt;=3,$L25,0),IF($E$3&gt;=4,$M25,0),IF($E$3&gt;=5,$N25,0),IF($E$3&gt;=6,$O25,0),IF($E$3&gt;=7,$P25,0),IF($E$3&gt;=8,$Q25,0),IF($E$3&gt;=9,$R25,0),IF($E$3&gt;=10,$S25,0),IF($E$3&gt;=11,$T25,0),IF($E$3&gt;=12,$U25,0),IF($E$3&gt;=13,$V25,0),IF($E$3&gt;=14,$W25,0),IF($E$3&gt;=15,$X25,0),IF($E$3&gt;=16,$Y25,0),IF($E$3&gt;=17,$Z25,0),IF($E$3&gt;=18,$AA25,0),IF($E$3&gt;=19,$AB25,0),IF($E$3&gt;=12,$AC25,0)),0)</f>
         <v>0</v>
       </c>
-      <c r="F25" s="88">
+      <c r="F25" s="146">
         <f t="shared" ref="F25" si="19">IF(NOT(EXACT($B25,"----")),SUM($J26,IF($E$3&gt;=2,$K26,0),IF($E$3&gt;=3,$L26,0),IF($E$3&gt;=4,$M26,0),IF($E$3&gt;=5,$N26,0),IF($E$3&gt;=6,$O26,0),IF($E$3&gt;=7,$P26,0),IF($E$3&gt;=8,$Q26,0),IF($E$3&gt;=9,$R26,0),IF($E$3&gt;=10,$S26,0),IF($E$3&gt;=11,$T26,0),IF($E$3&gt;=12,$U26,0),IF($E$3&gt;=13,$V26,0),IF($E$3&gt;=14,$W26,0),IF($E$3&gt;=15,$X26,0),IF($E$3&gt;=16,$Y26,0),IF($E$3&gt;=17,$Z26,0),IF($E$3&gt;=18,$AA26,0),IF($E$3&gt;=19,$AB26,0),IF($E$3&gt;=20,$AC26,0)),0)</f>
         <v>0</v>
       </c>
-      <c r="G25" s="91">
+      <c r="G25" s="102">
         <f t="shared" ref="G25" si="20">F25-E25</f>
         <v>0</v>
       </c>
-      <c r="H25" s="67"/>
+      <c r="H25" s="157"/>
       <c r="I25" s="41" t="s">
         <v>50</v>
       </c>
@@ -3961,23 +3964,23 @@
         <f>SUM(J25:AC25)</f>
         <v>0</v>
       </c>
-      <c r="AE25" s="70">
+      <c r="AE25" s="159">
         <f>IF(NOT(EXACT(B25,"----")),$E$7,0)</f>
         <v>0</v>
       </c>
-      <c r="AF25" s="72">
+      <c r="AF25" s="160">
         <f>AD26-AE25</f>
         <v>0</v>
       </c>
     </row>
     <row r="26" spans="2:32" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B26" s="81"/>
-      <c r="C26" s="82"/>
-      <c r="D26" s="82"/>
-      <c r="E26" s="86"/>
-      <c r="F26" s="89"/>
-      <c r="G26" s="92"/>
-      <c r="H26" s="68"/>
+      <c r="B26" s="140"/>
+      <c r="C26" s="141"/>
+      <c r="D26" s="141"/>
+      <c r="E26" s="144"/>
+      <c r="F26" s="147"/>
+      <c r="G26" s="149"/>
+      <c r="H26" s="158"/>
       <c r="I26" s="38" t="s">
         <v>49</v>
       </c>
@@ -4065,17 +4068,17 @@
         <f>SUM(J26:AC26)</f>
         <v>0</v>
       </c>
-      <c r="AE26" s="71"/>
-      <c r="AF26" s="73"/>
+      <c r="AE26" s="68"/>
+      <c r="AF26" s="81"/>
     </row>
     <row r="27" spans="2:32" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="94"/>
-      <c r="C27" s="95"/>
-      <c r="D27" s="95"/>
-      <c r="E27" s="96"/>
-      <c r="F27" s="97"/>
-      <c r="G27" s="98"/>
-      <c r="H27" s="68"/>
+      <c r="B27" s="142"/>
+      <c r="C27" s="143"/>
+      <c r="D27" s="143"/>
+      <c r="E27" s="145"/>
+      <c r="F27" s="148"/>
+      <c r="G27" s="150"/>
+      <c r="H27" s="158"/>
       <c r="I27" s="38" t="s">
         <v>24</v>
       </c>
@@ -4163,8 +4166,8 @@
         <f>SUM(J27:AC27)</f>
         <v>0</v>
       </c>
-      <c r="AE27" s="71"/>
-      <c r="AF27" s="73"/>
+      <c r="AE27" s="68"/>
+      <c r="AF27" s="81"/>
     </row>
     <row r="28" spans="2:32" ht="24.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="B28" s="18"/>
@@ -4634,16 +4637,44 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="yOBXUoUIAB/U7w0KPLJupsh9iVk347fisYP5nNpPCiF6b+qHxv5s0s2HYuXPEVrUd4C+wzuLGXdqPy8SQ1cbhA==" saltValue="WFQNdDVdQJ/i07IfTt7UUg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="64">
-    <mergeCell ref="AE13:AE15"/>
-    <mergeCell ref="B10:G10"/>
-    <mergeCell ref="I10:AF10"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="AF13:AF15"/>
-    <mergeCell ref="I11:I12"/>
-    <mergeCell ref="AF11:AF12"/>
-    <mergeCell ref="AE11:AE12"/>
-    <mergeCell ref="AD11:AD12"/>
+    <mergeCell ref="H25:H27"/>
+    <mergeCell ref="H11:H12"/>
+    <mergeCell ref="H13:H15"/>
+    <mergeCell ref="H16:H18"/>
+    <mergeCell ref="H19:H21"/>
+    <mergeCell ref="AE25:AE27"/>
+    <mergeCell ref="AF25:AF27"/>
+    <mergeCell ref="AE16:AE18"/>
+    <mergeCell ref="AF16:AF18"/>
+    <mergeCell ref="AE19:AE21"/>
+    <mergeCell ref="AF19:AF21"/>
+    <mergeCell ref="B19:D21"/>
+    <mergeCell ref="E19:E21"/>
+    <mergeCell ref="F19:F21"/>
+    <mergeCell ref="AE22:AE24"/>
+    <mergeCell ref="AF22:AF24"/>
+    <mergeCell ref="G22:G24"/>
+    <mergeCell ref="H22:H24"/>
+    <mergeCell ref="G19:G21"/>
+    <mergeCell ref="B25:D27"/>
+    <mergeCell ref="E25:E27"/>
+    <mergeCell ref="F25:F27"/>
+    <mergeCell ref="G25:G27"/>
+    <mergeCell ref="B22:D24"/>
+    <mergeCell ref="E22:E24"/>
+    <mergeCell ref="F22:F24"/>
+    <mergeCell ref="G16:G18"/>
+    <mergeCell ref="B16:D18"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="B13:D15"/>
+    <mergeCell ref="E13:E15"/>
+    <mergeCell ref="F13:F15"/>
+    <mergeCell ref="E16:E18"/>
+    <mergeCell ref="F16:F18"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="G13:G15"/>
+    <mergeCell ref="G11:G12"/>
     <mergeCell ref="B5:D5"/>
     <mergeCell ref="B6:D8"/>
     <mergeCell ref="E11:E12"/>
@@ -4660,44 +4691,16 @@
     <mergeCell ref="G4:I4"/>
     <mergeCell ref="G5:I5"/>
     <mergeCell ref="G6:I6"/>
-    <mergeCell ref="G16:G18"/>
-    <mergeCell ref="B16:D18"/>
-    <mergeCell ref="F11:F12"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="B13:D15"/>
-    <mergeCell ref="E13:E15"/>
-    <mergeCell ref="F13:F15"/>
-    <mergeCell ref="E16:E18"/>
-    <mergeCell ref="F16:F18"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="G13:G15"/>
-    <mergeCell ref="G11:G12"/>
-    <mergeCell ref="B25:D27"/>
-    <mergeCell ref="E25:E27"/>
-    <mergeCell ref="F25:F27"/>
-    <mergeCell ref="G25:G27"/>
-    <mergeCell ref="B22:D24"/>
-    <mergeCell ref="E22:E24"/>
-    <mergeCell ref="F22:F24"/>
-    <mergeCell ref="B19:D21"/>
-    <mergeCell ref="E19:E21"/>
-    <mergeCell ref="F19:F21"/>
-    <mergeCell ref="AE22:AE24"/>
-    <mergeCell ref="AF22:AF24"/>
-    <mergeCell ref="G22:G24"/>
-    <mergeCell ref="H22:H24"/>
-    <mergeCell ref="G19:G21"/>
-    <mergeCell ref="AE25:AE27"/>
-    <mergeCell ref="AF25:AF27"/>
-    <mergeCell ref="AE16:AE18"/>
-    <mergeCell ref="AF16:AF18"/>
-    <mergeCell ref="AE19:AE21"/>
-    <mergeCell ref="AF19:AF21"/>
-    <mergeCell ref="H25:H27"/>
-    <mergeCell ref="H11:H12"/>
-    <mergeCell ref="H13:H15"/>
-    <mergeCell ref="H16:H18"/>
-    <mergeCell ref="H19:H21"/>
+    <mergeCell ref="AE13:AE15"/>
+    <mergeCell ref="B10:G10"/>
+    <mergeCell ref="I10:AF10"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="AF13:AF15"/>
+    <mergeCell ref="I11:I12"/>
+    <mergeCell ref="AF11:AF12"/>
+    <mergeCell ref="AE11:AE12"/>
+    <mergeCell ref="AD11:AD12"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="I25:AF27">
@@ -4813,8 +4816,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E223"/>
   <sheetViews>
-    <sheetView topLeftCell="A123" workbookViewId="0">
-      <selection activeCell="B105" sqref="B105"/>
+    <sheetView tabSelected="1" topLeftCell="A42" workbookViewId="0">
+      <selection activeCell="C105" sqref="C105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -4871,10 +4874,10 @@
       <c r="B5" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C5" s="164" t="s">
+      <c r="C5" s="171" t="s">
         <v>83</v>
       </c>
-      <c r="D5" s="164"/>
+      <c r="D5" s="171"/>
       <c r="E5" s="26" t="s">
         <v>86</v>
       </c>
@@ -4954,10 +4957,10 @@
         <f>ROUND((SUM(C6:C11)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D12" s="166" t="s">
-        <v>17</v>
-      </c>
-      <c r="E12" s="167"/>
+      <c r="D12" s="162" t="s">
+        <v>17</v>
+      </c>
+      <c r="E12" s="164"/>
     </row>
     <row r="13" spans="1:5" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="174" t="s">
@@ -4996,10 +4999,10 @@
       <c r="B16" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C16" s="164" t="s">
+      <c r="C16" s="171" t="s">
         <v>83</v>
       </c>
-      <c r="D16" s="164"/>
+      <c r="D16" s="171"/>
       <c r="E16" s="26" t="s">
         <v>86</v>
       </c>
@@ -5071,31 +5074,31 @@
       <c r="E22" s="44"/>
     </row>
     <row r="23" spans="1:5" ht="26.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="166" t="s">
+      <c r="A23" s="162" t="s">
         <v>46</v>
       </c>
-      <c r="B23" s="171"/>
+      <c r="B23" s="163"/>
       <c r="C23" s="25">
         <f>ROUND((SUM(C17:C22)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D23" s="166" t="s">
-        <v>17</v>
-      </c>
-      <c r="E23" s="167"/>
+      <c r="D23" s="162" t="s">
+        <v>17</v>
+      </c>
+      <c r="E23" s="164"/>
     </row>
     <row r="24" spans="1:5" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="162" t="s">
-        <v>1</v>
-      </c>
-      <c r="B24" s="163"/>
+      <c r="A24" s="165" t="s">
+        <v>1</v>
+      </c>
+      <c r="B24" s="166"/>
       <c r="C24" s="62">
         <v>0</v>
       </c>
-      <c r="D24" s="162" t="s">
-        <v>17</v>
-      </c>
-      <c r="E24" s="165"/>
+      <c r="D24" s="165" t="s">
+        <v>17</v>
+      </c>
+      <c r="E24" s="167"/>
     </row>
     <row r="25" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A25" s="168"/>
@@ -5123,10 +5126,10 @@
       <c r="B27" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C27" s="164" t="s">
+      <c r="C27" s="171" t="s">
         <v>83</v>
       </c>
-      <c r="D27" s="164"/>
+      <c r="D27" s="171"/>
       <c r="E27" s="26" t="s">
         <v>86</v>
       </c>
@@ -5206,31 +5209,31 @@
       <c r="E33" s="44"/>
     </row>
     <row r="34" spans="1:5" ht="26.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="166" t="s">
+      <c r="A34" s="162" t="s">
         <v>46</v>
       </c>
-      <c r="B34" s="171"/>
+      <c r="B34" s="163"/>
       <c r="C34" s="25">
         <f>ROUND((SUM(C28:C33)/60),0)</f>
         <v>4</v>
       </c>
-      <c r="D34" s="166" t="s">
-        <v>17</v>
-      </c>
-      <c r="E34" s="167"/>
+      <c r="D34" s="162" t="s">
+        <v>17</v>
+      </c>
+      <c r="E34" s="164"/>
     </row>
     <row r="35" spans="1:5" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="162" t="s">
-        <v>1</v>
-      </c>
-      <c r="B35" s="163"/>
+      <c r="A35" s="165" t="s">
+        <v>1</v>
+      </c>
+      <c r="B35" s="166"/>
       <c r="C35" s="62">
         <v>2</v>
       </c>
-      <c r="D35" s="162" t="s">
-        <v>17</v>
-      </c>
-      <c r="E35" s="165"/>
+      <c r="D35" s="165" t="s">
+        <v>17</v>
+      </c>
+      <c r="E35" s="167"/>
     </row>
     <row r="36" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A36" s="168"/>
@@ -5258,10 +5261,10 @@
       <c r="B38" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C38" s="164" t="s">
+      <c r="C38" s="171" t="s">
         <v>83</v>
       </c>
-      <c r="D38" s="164"/>
+      <c r="D38" s="171"/>
       <c r="E38" s="26" t="s">
         <v>86</v>
       </c>
@@ -5345,31 +5348,31 @@
       <c r="E44" s="44"/>
     </row>
     <row r="45" spans="1:5" ht="26.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="166" t="s">
+      <c r="A45" s="162" t="s">
         <v>46</v>
       </c>
-      <c r="B45" s="171"/>
+      <c r="B45" s="163"/>
       <c r="C45" s="25">
         <f>ROUND((SUM(C39:C44)/60),0)</f>
         <v>5</v>
       </c>
-      <c r="D45" s="166" t="s">
-        <v>17</v>
-      </c>
-      <c r="E45" s="167"/>
+      <c r="D45" s="162" t="s">
+        <v>17</v>
+      </c>
+      <c r="E45" s="164"/>
     </row>
     <row r="46" spans="1:5" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="162" t="s">
-        <v>1</v>
-      </c>
-      <c r="B46" s="163"/>
+      <c r="A46" s="165" t="s">
+        <v>1</v>
+      </c>
+      <c r="B46" s="166"/>
       <c r="C46" s="62">
         <v>3</v>
       </c>
-      <c r="D46" s="162" t="s">
-        <v>17</v>
-      </c>
-      <c r="E46" s="165"/>
+      <c r="D46" s="165" t="s">
+        <v>17</v>
+      </c>
+      <c r="E46" s="167"/>
     </row>
     <row r="47" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A47" s="168"/>
@@ -5397,10 +5400,10 @@
       <c r="B49" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C49" s="164" t="s">
+      <c r="C49" s="171" t="s">
         <v>83</v>
       </c>
-      <c r="D49" s="164"/>
+      <c r="D49" s="171"/>
       <c r="E49" s="26" t="s">
         <v>86</v>
       </c>
@@ -5472,31 +5475,31 @@
       <c r="E55" s="44"/>
     </row>
     <row r="56" spans="1:5" ht="26.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="166" t="s">
+      <c r="A56" s="162" t="s">
         <v>46</v>
       </c>
-      <c r="B56" s="171"/>
+      <c r="B56" s="163"/>
       <c r="C56" s="25">
         <f>ROUND((SUM(C50:C55)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D56" s="166" t="s">
-        <v>17</v>
-      </c>
-      <c r="E56" s="167"/>
+      <c r="D56" s="162" t="s">
+        <v>17</v>
+      </c>
+      <c r="E56" s="164"/>
     </row>
     <row r="57" spans="1:5" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="162" t="s">
-        <v>1</v>
-      </c>
-      <c r="B57" s="163"/>
+      <c r="A57" s="165" t="s">
+        <v>1</v>
+      </c>
+      <c r="B57" s="166"/>
       <c r="C57" s="62">
         <v>0</v>
       </c>
-      <c r="D57" s="162" t="s">
-        <v>17</v>
-      </c>
-      <c r="E57" s="165"/>
+      <c r="D57" s="165" t="s">
+        <v>17</v>
+      </c>
+      <c r="E57" s="167"/>
     </row>
     <row r="58" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A58" s="168"/>
@@ -5524,10 +5527,10 @@
       <c r="B60" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C60" s="164" t="s">
+      <c r="C60" s="171" t="s">
         <v>83</v>
       </c>
-      <c r="D60" s="164"/>
+      <c r="D60" s="171"/>
       <c r="E60" s="26" t="s">
         <v>86</v>
       </c>
@@ -5599,31 +5602,31 @@
       <c r="E66" s="44"/>
     </row>
     <row r="67" spans="1:5" ht="26.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="166" t="s">
+      <c r="A67" s="162" t="s">
         <v>46</v>
       </c>
-      <c r="B67" s="171"/>
+      <c r="B67" s="163"/>
       <c r="C67" s="25">
         <f>ROUND((SUM(C61:C66)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D67" s="166" t="s">
-        <v>17</v>
-      </c>
-      <c r="E67" s="167"/>
+      <c r="D67" s="162" t="s">
+        <v>17</v>
+      </c>
+      <c r="E67" s="164"/>
     </row>
     <row r="68" spans="1:5" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="162" t="s">
-        <v>1</v>
-      </c>
-      <c r="B68" s="163"/>
+      <c r="A68" s="165" t="s">
+        <v>1</v>
+      </c>
+      <c r="B68" s="166"/>
       <c r="C68" s="62">
         <v>0</v>
       </c>
-      <c r="D68" s="162" t="s">
-        <v>17</v>
-      </c>
-      <c r="E68" s="165"/>
+      <c r="D68" s="165" t="s">
+        <v>17</v>
+      </c>
+      <c r="E68" s="167"/>
     </row>
     <row r="69" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A69" s="168"/>
@@ -5651,10 +5654,10 @@
       <c r="B71" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C71" s="164" t="s">
+      <c r="C71" s="171" t="s">
         <v>83</v>
       </c>
-      <c r="D71" s="164"/>
+      <c r="D71" s="171"/>
       <c r="E71" s="26" t="s">
         <v>86</v>
       </c>
@@ -5730,31 +5733,31 @@
       <c r="E77" s="44"/>
     </row>
     <row r="78" spans="1:5" ht="26.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A78" s="166" t="s">
+      <c r="A78" s="162" t="s">
         <v>46</v>
       </c>
-      <c r="B78" s="171"/>
+      <c r="B78" s="163"/>
       <c r="C78" s="25">
         <f>ROUND((SUM(C72:C77)/60),0)</f>
         <v>5</v>
       </c>
-      <c r="D78" s="166" t="s">
-        <v>17</v>
-      </c>
-      <c r="E78" s="167"/>
+      <c r="D78" s="162" t="s">
+        <v>17</v>
+      </c>
+      <c r="E78" s="164"/>
     </row>
     <row r="79" spans="1:5" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="162" t="s">
-        <v>1</v>
-      </c>
-      <c r="B79" s="163"/>
+      <c r="A79" s="165" t="s">
+        <v>1</v>
+      </c>
+      <c r="B79" s="166"/>
       <c r="C79" s="62">
         <v>3</v>
       </c>
-      <c r="D79" s="162" t="s">
-        <v>17</v>
-      </c>
-      <c r="E79" s="165"/>
+      <c r="D79" s="165" t="s">
+        <v>17</v>
+      </c>
+      <c r="E79" s="167"/>
     </row>
     <row r="80" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A80" s="168"/>
@@ -5782,10 +5785,10 @@
       <c r="B82" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C82" s="164" t="s">
+      <c r="C82" s="171" t="s">
         <v>83</v>
       </c>
-      <c r="D82" s="164"/>
+      <c r="D82" s="171"/>
       <c r="E82" s="26" t="s">
         <v>86</v>
       </c>
@@ -5883,31 +5886,31 @@
       <c r="E88" s="44"/>
     </row>
     <row r="89" spans="1:5" ht="26.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A89" s="166" t="s">
+      <c r="A89" s="162" t="s">
         <v>46</v>
       </c>
-      <c r="B89" s="171"/>
+      <c r="B89" s="163"/>
       <c r="C89" s="25">
         <f>ROUND((SUM(C83:C88)/60),0)</f>
         <v>9</v>
       </c>
-      <c r="D89" s="166" t="s">
-        <v>17</v>
-      </c>
-      <c r="E89" s="167"/>
+      <c r="D89" s="162" t="s">
+        <v>17</v>
+      </c>
+      <c r="E89" s="164"/>
     </row>
     <row r="90" spans="1:5" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="162" t="s">
-        <v>1</v>
-      </c>
-      <c r="B90" s="163"/>
+      <c r="A90" s="165" t="s">
+        <v>1</v>
+      </c>
+      <c r="B90" s="166"/>
       <c r="C90" s="62">
         <v>3</v>
       </c>
-      <c r="D90" s="162" t="s">
-        <v>17</v>
-      </c>
-      <c r="E90" s="165"/>
+      <c r="D90" s="165" t="s">
+        <v>17</v>
+      </c>
+      <c r="E90" s="167"/>
     </row>
     <row r="91" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A91" s="168"/>
@@ -5935,10 +5938,10 @@
       <c r="B93" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C93" s="164" t="s">
+      <c r="C93" s="171" t="s">
         <v>83</v>
       </c>
-      <c r="D93" s="164"/>
+      <c r="D93" s="171"/>
       <c r="E93" s="26" t="s">
         <v>86</v>
       </c>
@@ -5947,8 +5950,12 @@
       <c r="A94" s="46">
         <v>1</v>
       </c>
-      <c r="B94" s="42"/>
-      <c r="C94" s="43"/>
+      <c r="B94" s="42" t="s">
+        <v>149</v>
+      </c>
+      <c r="C94" s="43">
+        <v>60</v>
+      </c>
       <c r="D94" s="46" t="s">
         <v>16</v>
       </c>
@@ -6030,31 +6037,31 @@
       <c r="E99" s="44"/>
     </row>
     <row r="100" spans="1:5" ht="26.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A100" s="166" t="s">
+      <c r="A100" s="162" t="s">
         <v>46</v>
       </c>
-      <c r="B100" s="171"/>
+      <c r="B100" s="163"/>
       <c r="C100" s="25">
         <f>ROUND((SUM(C94:C99)/60),0)</f>
-        <v>22</v>
-      </c>
-      <c r="D100" s="166" t="s">
-        <v>17</v>
-      </c>
-      <c r="E100" s="167"/>
+        <v>23</v>
+      </c>
+      <c r="D100" s="162" t="s">
+        <v>17</v>
+      </c>
+      <c r="E100" s="164"/>
     </row>
     <row r="101" spans="1:5" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A101" s="162" t="s">
-        <v>1</v>
-      </c>
-      <c r="B101" s="163"/>
+      <c r="A101" s="165" t="s">
+        <v>1</v>
+      </c>
+      <c r="B101" s="166"/>
       <c r="C101" s="62">
-        <v>6</v>
-      </c>
-      <c r="D101" s="162" t="s">
-        <v>17</v>
-      </c>
-      <c r="E101" s="165"/>
+        <v>15</v>
+      </c>
+      <c r="D101" s="165" t="s">
+        <v>17</v>
+      </c>
+      <c r="E101" s="167"/>
     </row>
     <row r="102" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A102" s="168"/>
@@ -6082,10 +6089,10 @@
       <c r="B104" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C104" s="164" t="s">
+      <c r="C104" s="171" t="s">
         <v>83</v>
       </c>
-      <c r="D104" s="164"/>
+      <c r="D104" s="171"/>
       <c r="E104" s="26" t="s">
         <v>86</v>
       </c>
@@ -6165,31 +6172,31 @@
       <c r="E110" s="44"/>
     </row>
     <row r="111" spans="1:5" ht="26.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A111" s="166" t="s">
+      <c r="A111" s="162" t="s">
         <v>46</v>
       </c>
-      <c r="B111" s="171"/>
+      <c r="B111" s="163"/>
       <c r="C111" s="25">
         <f>ROUND((SUM(C105:C110)/60),0)</f>
         <v>8</v>
       </c>
-      <c r="D111" s="166" t="s">
-        <v>17</v>
-      </c>
-      <c r="E111" s="167"/>
+      <c r="D111" s="162" t="s">
+        <v>17</v>
+      </c>
+      <c r="E111" s="164"/>
     </row>
     <row r="112" spans="1:5" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A112" s="162" t="s">
-        <v>1</v>
-      </c>
-      <c r="B112" s="163"/>
+      <c r="A112" s="165" t="s">
+        <v>1</v>
+      </c>
+      <c r="B112" s="166"/>
       <c r="C112" s="62">
         <v>10</v>
       </c>
-      <c r="D112" s="162" t="s">
-        <v>17</v>
-      </c>
-      <c r="E112" s="165"/>
+      <c r="D112" s="165" t="s">
+        <v>17</v>
+      </c>
+      <c r="E112" s="167"/>
     </row>
     <row r="113" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A113" s="168"/>
@@ -6217,10 +6224,10 @@
       <c r="B115" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C115" s="164" t="s">
+      <c r="C115" s="171" t="s">
         <v>83</v>
       </c>
-      <c r="D115" s="164"/>
+      <c r="D115" s="171"/>
       <c r="E115" s="26" t="s">
         <v>86</v>
       </c>
@@ -6292,31 +6299,31 @@
       <c r="E121" s="44"/>
     </row>
     <row r="122" spans="1:5" ht="26.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A122" s="166" t="s">
+      <c r="A122" s="162" t="s">
         <v>46</v>
       </c>
-      <c r="B122" s="171"/>
+      <c r="B122" s="163"/>
       <c r="C122" s="25">
         <f>ROUND((SUM(C116:C121)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D122" s="166" t="s">
-        <v>17</v>
-      </c>
-      <c r="E122" s="167"/>
+      <c r="D122" s="162" t="s">
+        <v>17</v>
+      </c>
+      <c r="E122" s="164"/>
     </row>
     <row r="123" spans="1:5" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A123" s="162" t="s">
-        <v>1</v>
-      </c>
-      <c r="B123" s="163"/>
+      <c r="A123" s="165" t="s">
+        <v>1</v>
+      </c>
+      <c r="B123" s="166"/>
       <c r="C123" s="62">
         <v>0</v>
       </c>
-      <c r="D123" s="162" t="s">
-        <v>17</v>
-      </c>
-      <c r="E123" s="165"/>
+      <c r="D123" s="165" t="s">
+        <v>17</v>
+      </c>
+      <c r="E123" s="167"/>
     </row>
     <row r="124" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A124" s="168"/>
@@ -6344,10 +6351,10 @@
       <c r="B126" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C126" s="164" t="s">
+      <c r="C126" s="171" t="s">
         <v>83</v>
       </c>
-      <c r="D126" s="164"/>
+      <c r="D126" s="171"/>
       <c r="E126" s="26" t="s">
         <v>86</v>
       </c>
@@ -6419,31 +6426,31 @@
       <c r="E132" s="44"/>
     </row>
     <row r="133" spans="1:5" ht="26.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A133" s="166" t="s">
+      <c r="A133" s="162" t="s">
         <v>46</v>
       </c>
-      <c r="B133" s="171"/>
+      <c r="B133" s="163"/>
       <c r="C133" s="25">
         <f>ROUND((SUM(C127:C132)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D133" s="166" t="s">
-        <v>17</v>
-      </c>
-      <c r="E133" s="167"/>
+      <c r="D133" s="162" t="s">
+        <v>17</v>
+      </c>
+      <c r="E133" s="164"/>
     </row>
     <row r="134" spans="1:5" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A134" s="162" t="s">
-        <v>1</v>
-      </c>
-      <c r="B134" s="163"/>
+      <c r="A134" s="165" t="s">
+        <v>1</v>
+      </c>
+      <c r="B134" s="166"/>
       <c r="C134" s="62">
         <v>0</v>
       </c>
-      <c r="D134" s="162" t="s">
-        <v>17</v>
-      </c>
-      <c r="E134" s="165"/>
+      <c r="D134" s="165" t="s">
+        <v>17</v>
+      </c>
+      <c r="E134" s="167"/>
     </row>
     <row r="135" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A135" s="168"/>
@@ -6471,10 +6478,10 @@
       <c r="B137" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C137" s="164" t="s">
+      <c r="C137" s="171" t="s">
         <v>83</v>
       </c>
-      <c r="D137" s="164"/>
+      <c r="D137" s="171"/>
       <c r="E137" s="26" t="s">
         <v>86</v>
       </c>
@@ -6546,31 +6553,31 @@
       <c r="E143" s="44"/>
     </row>
     <row r="144" spans="1:5" ht="26.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A144" s="166" t="s">
+      <c r="A144" s="162" t="s">
         <v>46</v>
       </c>
-      <c r="B144" s="171"/>
+      <c r="B144" s="163"/>
       <c r="C144" s="25">
         <f>ROUND((SUM(C138:C143)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D144" s="166" t="s">
-        <v>17</v>
-      </c>
-      <c r="E144" s="167"/>
+      <c r="D144" s="162" t="s">
+        <v>17</v>
+      </c>
+      <c r="E144" s="164"/>
     </row>
     <row r="145" spans="1:5" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A145" s="162" t="s">
-        <v>1</v>
-      </c>
-      <c r="B145" s="163"/>
+      <c r="A145" s="165" t="s">
+        <v>1</v>
+      </c>
+      <c r="B145" s="166"/>
       <c r="C145" s="62">
         <v>0</v>
       </c>
-      <c r="D145" s="162" t="s">
-        <v>17</v>
-      </c>
-      <c r="E145" s="165"/>
+      <c r="D145" s="165" t="s">
+        <v>17</v>
+      </c>
+      <c r="E145" s="167"/>
     </row>
     <row r="146" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A146" s="168"/>
@@ -6598,10 +6605,10 @@
       <c r="B148" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C148" s="164" t="s">
+      <c r="C148" s="171" t="s">
         <v>83</v>
       </c>
-      <c r="D148" s="164"/>
+      <c r="D148" s="171"/>
       <c r="E148" s="26" t="s">
         <v>86</v>
       </c>
@@ -6673,31 +6680,31 @@
       <c r="E154" s="44"/>
     </row>
     <row r="155" spans="1:5" ht="26.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A155" s="166" t="s">
+      <c r="A155" s="162" t="s">
         <v>46</v>
       </c>
-      <c r="B155" s="171"/>
+      <c r="B155" s="163"/>
       <c r="C155" s="25">
         <f>ROUND((SUM(C149:C154)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D155" s="166" t="s">
-        <v>17</v>
-      </c>
-      <c r="E155" s="167"/>
+      <c r="D155" s="162" t="s">
+        <v>17</v>
+      </c>
+      <c r="E155" s="164"/>
     </row>
     <row r="156" spans="1:5" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A156" s="162" t="s">
-        <v>1</v>
-      </c>
-      <c r="B156" s="163"/>
+      <c r="A156" s="165" t="s">
+        <v>1</v>
+      </c>
+      <c r="B156" s="166"/>
       <c r="C156" s="62">
         <v>0</v>
       </c>
-      <c r="D156" s="162" t="s">
-        <v>17</v>
-      </c>
-      <c r="E156" s="165"/>
+      <c r="D156" s="165" t="s">
+        <v>17</v>
+      </c>
+      <c r="E156" s="167"/>
     </row>
     <row r="157" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A157" s="168"/>
@@ -6725,10 +6732,10 @@
       <c r="B159" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C159" s="164" t="s">
+      <c r="C159" s="171" t="s">
         <v>83</v>
       </c>
-      <c r="D159" s="164"/>
+      <c r="D159" s="171"/>
       <c r="E159" s="26" t="s">
         <v>86</v>
       </c>
@@ -6800,31 +6807,31 @@
       <c r="E165" s="44"/>
     </row>
     <row r="166" spans="1:5" ht="26.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A166" s="166" t="s">
+      <c r="A166" s="162" t="s">
         <v>46</v>
       </c>
-      <c r="B166" s="171"/>
+      <c r="B166" s="163"/>
       <c r="C166" s="25">
         <f>ROUND((SUM(C160:C165)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D166" s="166" t="s">
-        <v>17</v>
-      </c>
-      <c r="E166" s="167"/>
+      <c r="D166" s="162" t="s">
+        <v>17</v>
+      </c>
+      <c r="E166" s="164"/>
     </row>
     <row r="167" spans="1:5" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A167" s="162" t="s">
-        <v>1</v>
-      </c>
-      <c r="B167" s="163"/>
+      <c r="A167" s="165" t="s">
+        <v>1</v>
+      </c>
+      <c r="B167" s="166"/>
       <c r="C167" s="62">
         <v>0</v>
       </c>
-      <c r="D167" s="162" t="s">
-        <v>17</v>
-      </c>
-      <c r="E167" s="165"/>
+      <c r="D167" s="165" t="s">
+        <v>17</v>
+      </c>
+      <c r="E167" s="167"/>
     </row>
     <row r="168" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A168" s="168"/>
@@ -6852,10 +6859,10 @@
       <c r="B170" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C170" s="164" t="s">
+      <c r="C170" s="171" t="s">
         <v>83</v>
       </c>
-      <c r="D170" s="164"/>
+      <c r="D170" s="171"/>
       <c r="E170" s="26" t="s">
         <v>86</v>
       </c>
@@ -6927,31 +6934,31 @@
       <c r="E176" s="44"/>
     </row>
     <row r="177" spans="1:5" ht="26.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A177" s="166" t="s">
+      <c r="A177" s="162" t="s">
         <v>46</v>
       </c>
-      <c r="B177" s="171"/>
+      <c r="B177" s="163"/>
       <c r="C177" s="25">
         <f>ROUND((SUM(C171:C176)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D177" s="166" t="s">
-        <v>17</v>
-      </c>
-      <c r="E177" s="167"/>
+      <c r="D177" s="162" t="s">
+        <v>17</v>
+      </c>
+      <c r="E177" s="164"/>
     </row>
     <row r="178" spans="1:5" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A178" s="162" t="s">
-        <v>1</v>
-      </c>
-      <c r="B178" s="163"/>
+      <c r="A178" s="165" t="s">
+        <v>1</v>
+      </c>
+      <c r="B178" s="166"/>
       <c r="C178" s="62">
         <v>0</v>
       </c>
-      <c r="D178" s="162" t="s">
-        <v>17</v>
-      </c>
-      <c r="E178" s="165"/>
+      <c r="D178" s="165" t="s">
+        <v>17</v>
+      </c>
+      <c r="E178" s="167"/>
     </row>
     <row r="179" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A179" s="168"/>
@@ -6979,10 +6986,10 @@
       <c r="B181" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C181" s="164" t="s">
+      <c r="C181" s="171" t="s">
         <v>83</v>
       </c>
-      <c r="D181" s="164"/>
+      <c r="D181" s="171"/>
       <c r="E181" s="26" t="s">
         <v>86</v>
       </c>
@@ -7054,31 +7061,31 @@
       <c r="E187" s="44"/>
     </row>
     <row r="188" spans="1:5" ht="26.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A188" s="166" t="s">
+      <c r="A188" s="162" t="s">
         <v>46</v>
       </c>
-      <c r="B188" s="171"/>
+      <c r="B188" s="163"/>
       <c r="C188" s="25">
         <f>ROUND((SUM(C182:C187)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D188" s="166" t="s">
-        <v>17</v>
-      </c>
-      <c r="E188" s="167"/>
+      <c r="D188" s="162" t="s">
+        <v>17</v>
+      </c>
+      <c r="E188" s="164"/>
     </row>
     <row r="189" spans="1:5" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A189" s="162" t="s">
-        <v>1</v>
-      </c>
-      <c r="B189" s="163"/>
+      <c r="A189" s="165" t="s">
+        <v>1</v>
+      </c>
+      <c r="B189" s="166"/>
       <c r="C189" s="62">
         <v>0</v>
       </c>
-      <c r="D189" s="162" t="s">
-        <v>17</v>
-      </c>
-      <c r="E189" s="165"/>
+      <c r="D189" s="165" t="s">
+        <v>17</v>
+      </c>
+      <c r="E189" s="167"/>
     </row>
     <row r="190" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A190" s="168"/>
@@ -7106,10 +7113,10 @@
       <c r="B192" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C192" s="164" t="s">
+      <c r="C192" s="171" t="s">
         <v>83</v>
       </c>
-      <c r="D192" s="164"/>
+      <c r="D192" s="171"/>
       <c r="E192" s="26" t="s">
         <v>86</v>
       </c>
@@ -7181,31 +7188,31 @@
       <c r="E198" s="44"/>
     </row>
     <row r="199" spans="1:5" ht="26.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A199" s="166" t="s">
+      <c r="A199" s="162" t="s">
         <v>46</v>
       </c>
-      <c r="B199" s="171"/>
+      <c r="B199" s="163"/>
       <c r="C199" s="25">
         <f>ROUND((SUM(C193:C198)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D199" s="166" t="s">
-        <v>17</v>
-      </c>
-      <c r="E199" s="167"/>
+      <c r="D199" s="162" t="s">
+        <v>17</v>
+      </c>
+      <c r="E199" s="164"/>
     </row>
     <row r="200" spans="1:5" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A200" s="162" t="s">
-        <v>1</v>
-      </c>
-      <c r="B200" s="163"/>
+      <c r="A200" s="165" t="s">
+        <v>1</v>
+      </c>
+      <c r="B200" s="166"/>
       <c r="C200" s="62">
         <v>0</v>
       </c>
-      <c r="D200" s="162" t="s">
-        <v>17</v>
-      </c>
-      <c r="E200" s="165"/>
+      <c r="D200" s="165" t="s">
+        <v>17</v>
+      </c>
+      <c r="E200" s="167"/>
     </row>
     <row r="201" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A201" s="168"/>
@@ -7233,10 +7240,10 @@
       <c r="B203" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C203" s="164" t="s">
+      <c r="C203" s="171" t="s">
         <v>83</v>
       </c>
-      <c r="D203" s="164"/>
+      <c r="D203" s="171"/>
       <c r="E203" s="26" t="s">
         <v>86</v>
       </c>
@@ -7308,31 +7315,31 @@
       <c r="E209" s="44"/>
     </row>
     <row r="210" spans="1:5" ht="26.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A210" s="166" t="s">
+      <c r="A210" s="162" t="s">
         <v>46</v>
       </c>
-      <c r="B210" s="171"/>
+      <c r="B210" s="163"/>
       <c r="C210" s="25">
         <f>ROUND((SUM(C204:C209)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D210" s="166" t="s">
-        <v>17</v>
-      </c>
-      <c r="E210" s="167"/>
+      <c r="D210" s="162" t="s">
+        <v>17</v>
+      </c>
+      <c r="E210" s="164"/>
     </row>
     <row r="211" spans="1:5" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A211" s="162" t="s">
-        <v>1</v>
-      </c>
-      <c r="B211" s="163"/>
+      <c r="A211" s="165" t="s">
+        <v>1</v>
+      </c>
+      <c r="B211" s="166"/>
       <c r="C211" s="62">
         <v>0</v>
       </c>
-      <c r="D211" s="162" t="s">
-        <v>17</v>
-      </c>
-      <c r="E211" s="165"/>
+      <c r="D211" s="165" t="s">
+        <v>17</v>
+      </c>
+      <c r="E211" s="167"/>
     </row>
     <row r="212" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A212" s="168"/>
@@ -7360,10 +7367,10 @@
       <c r="B214" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C214" s="164" t="s">
+      <c r="C214" s="171" t="s">
         <v>83</v>
       </c>
-      <c r="D214" s="164"/>
+      <c r="D214" s="171"/>
       <c r="E214" s="26" t="s">
         <v>86</v>
       </c>
@@ -7435,87 +7442,102 @@
       <c r="E220" s="44"/>
     </row>
     <row r="221" spans="1:5" ht="26.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A221" s="166" t="s">
+      <c r="A221" s="162" t="s">
         <v>46</v>
       </c>
-      <c r="B221" s="171"/>
+      <c r="B221" s="163"/>
       <c r="C221" s="25">
         <f>ROUND((SUM(C215:C220)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D221" s="166" t="s">
-        <v>17</v>
-      </c>
-      <c r="E221" s="167"/>
+      <c r="D221" s="162" t="s">
+        <v>17</v>
+      </c>
+      <c r="E221" s="164"/>
     </row>
     <row r="222" spans="1:5" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A222" s="162" t="s">
-        <v>1</v>
-      </c>
-      <c r="B222" s="163"/>
+      <c r="A222" s="165" t="s">
+        <v>1</v>
+      </c>
+      <c r="B222" s="166"/>
       <c r="C222" s="62">
         <v>0</v>
       </c>
-      <c r="D222" s="162" t="s">
-        <v>17</v>
-      </c>
-      <c r="E222" s="165"/>
+      <c r="D222" s="165" t="s">
+        <v>17</v>
+      </c>
+      <c r="E222" s="167"/>
     </row>
     <row r="223" spans="1:5" ht="13.5" thickTop="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="3ycMrhIin7k7o5a3QKdDs107o2UR+lTtobmr9pCOYaL7SmGfKeey7eIuIRjOPF9h5ERZ6YTi2HtbTLXSGjzqGQ==" saltValue="gAnMRYEAvr3jQUOD70YZjg==" spinCount="100000" sheet="1" objects="1" scenarios="1" insertRows="0" deleteRows="0" selectLockedCells="1"/>
   <mergeCells count="141">
-    <mergeCell ref="A210:B210"/>
-    <mergeCell ref="D210:E210"/>
-    <mergeCell ref="A211:B211"/>
-    <mergeCell ref="D211:E211"/>
-    <mergeCell ref="A200:B200"/>
-    <mergeCell ref="D200:E200"/>
-    <mergeCell ref="A201:E201"/>
-    <mergeCell ref="A202:D202"/>
-    <mergeCell ref="A222:B222"/>
-    <mergeCell ref="D222:E222"/>
-    <mergeCell ref="A212:E212"/>
-    <mergeCell ref="A213:D213"/>
-    <mergeCell ref="C214:D214"/>
-    <mergeCell ref="A221:B221"/>
-    <mergeCell ref="D221:E221"/>
-    <mergeCell ref="C192:D192"/>
-    <mergeCell ref="A199:B199"/>
-    <mergeCell ref="D199:E199"/>
-    <mergeCell ref="C181:D181"/>
-    <mergeCell ref="A188:B188"/>
-    <mergeCell ref="D188:E188"/>
-    <mergeCell ref="A189:B189"/>
-    <mergeCell ref="D189:E189"/>
-    <mergeCell ref="C203:D203"/>
-    <mergeCell ref="A179:E179"/>
-    <mergeCell ref="A180:D180"/>
-    <mergeCell ref="A168:E168"/>
-    <mergeCell ref="A169:D169"/>
-    <mergeCell ref="C170:D170"/>
-    <mergeCell ref="A177:B177"/>
-    <mergeCell ref="D177:E177"/>
-    <mergeCell ref="A190:E190"/>
-    <mergeCell ref="A191:D191"/>
-    <mergeCell ref="A167:B167"/>
-    <mergeCell ref="D167:E167"/>
-    <mergeCell ref="A157:E157"/>
-    <mergeCell ref="A158:D158"/>
-    <mergeCell ref="C159:D159"/>
-    <mergeCell ref="A166:B166"/>
-    <mergeCell ref="D166:E166"/>
-    <mergeCell ref="A178:B178"/>
-    <mergeCell ref="D178:E178"/>
-    <mergeCell ref="C148:D148"/>
-    <mergeCell ref="A155:B155"/>
-    <mergeCell ref="D155:E155"/>
-    <mergeCell ref="A156:B156"/>
-    <mergeCell ref="D156:E156"/>
-    <mergeCell ref="A145:B145"/>
-    <mergeCell ref="D145:E145"/>
-    <mergeCell ref="A146:E146"/>
-    <mergeCell ref="A147:D147"/>
+    <mergeCell ref="A134:B134"/>
+    <mergeCell ref="C126:D126"/>
+    <mergeCell ref="D134:E134"/>
+    <mergeCell ref="D133:E133"/>
+    <mergeCell ref="A124:E124"/>
+    <mergeCell ref="C115:D115"/>
+    <mergeCell ref="D123:E123"/>
+    <mergeCell ref="D122:E122"/>
+    <mergeCell ref="A125:D125"/>
+    <mergeCell ref="A133:B133"/>
+    <mergeCell ref="A113:E113"/>
+    <mergeCell ref="D112:E112"/>
+    <mergeCell ref="D111:E111"/>
+    <mergeCell ref="A114:D114"/>
+    <mergeCell ref="A122:B122"/>
+    <mergeCell ref="A123:B123"/>
+    <mergeCell ref="A102:E102"/>
+    <mergeCell ref="C104:D104"/>
+    <mergeCell ref="D101:E101"/>
+    <mergeCell ref="A103:D103"/>
+    <mergeCell ref="A111:B111"/>
+    <mergeCell ref="A112:B112"/>
+    <mergeCell ref="A90:B90"/>
+    <mergeCell ref="C82:D82"/>
+    <mergeCell ref="D90:E90"/>
+    <mergeCell ref="A101:B101"/>
+    <mergeCell ref="A91:E91"/>
+    <mergeCell ref="A100:B100"/>
+    <mergeCell ref="C93:D93"/>
+    <mergeCell ref="D100:E100"/>
+    <mergeCell ref="A92:D92"/>
+    <mergeCell ref="D89:E89"/>
+    <mergeCell ref="A89:B89"/>
+    <mergeCell ref="A78:B78"/>
+    <mergeCell ref="A79:B79"/>
+    <mergeCell ref="A80:E80"/>
+    <mergeCell ref="C71:D71"/>
+    <mergeCell ref="D79:E79"/>
+    <mergeCell ref="D78:E78"/>
+    <mergeCell ref="C60:D60"/>
+    <mergeCell ref="D57:E57"/>
+    <mergeCell ref="A81:D81"/>
+    <mergeCell ref="A67:B67"/>
+    <mergeCell ref="A68:B68"/>
+    <mergeCell ref="A69:E69"/>
+    <mergeCell ref="D68:E68"/>
+    <mergeCell ref="D67:E67"/>
+    <mergeCell ref="A70:D70"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="A47:E47"/>
+    <mergeCell ref="A56:B56"/>
+    <mergeCell ref="C49:D49"/>
+    <mergeCell ref="D56:E56"/>
+    <mergeCell ref="A57:B57"/>
+    <mergeCell ref="A58:E58"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="A46:B46"/>
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="D46:E46"/>
+    <mergeCell ref="D45:E45"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="A36:E36"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="D35:E35"/>
+    <mergeCell ref="D34:E34"/>
     <mergeCell ref="A1:E2"/>
     <mergeCell ref="A12:B12"/>
     <mergeCell ref="A13:B13"/>
@@ -7540,72 +7562,57 @@
     <mergeCell ref="D24:E24"/>
     <mergeCell ref="A23:B23"/>
     <mergeCell ref="C16:D16"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="A47:E47"/>
-    <mergeCell ref="A56:B56"/>
-    <mergeCell ref="C49:D49"/>
-    <mergeCell ref="D56:E56"/>
-    <mergeCell ref="A57:B57"/>
-    <mergeCell ref="A58:E58"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="A45:B45"/>
-    <mergeCell ref="A46:B46"/>
-    <mergeCell ref="C38:D38"/>
-    <mergeCell ref="D46:E46"/>
-    <mergeCell ref="D45:E45"/>
-    <mergeCell ref="A35:B35"/>
-    <mergeCell ref="A36:E36"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="D35:E35"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="A78:B78"/>
-    <mergeCell ref="A79:B79"/>
-    <mergeCell ref="A80:E80"/>
-    <mergeCell ref="C71:D71"/>
-    <mergeCell ref="D79:E79"/>
-    <mergeCell ref="D78:E78"/>
-    <mergeCell ref="C60:D60"/>
-    <mergeCell ref="D57:E57"/>
-    <mergeCell ref="A81:D81"/>
-    <mergeCell ref="A67:B67"/>
-    <mergeCell ref="A68:B68"/>
-    <mergeCell ref="A69:E69"/>
-    <mergeCell ref="D68:E68"/>
-    <mergeCell ref="D67:E67"/>
-    <mergeCell ref="A70:D70"/>
-    <mergeCell ref="A90:B90"/>
-    <mergeCell ref="C82:D82"/>
-    <mergeCell ref="D90:E90"/>
-    <mergeCell ref="A101:B101"/>
-    <mergeCell ref="A91:E91"/>
-    <mergeCell ref="A100:B100"/>
-    <mergeCell ref="C93:D93"/>
-    <mergeCell ref="D100:E100"/>
-    <mergeCell ref="A92:D92"/>
-    <mergeCell ref="D89:E89"/>
-    <mergeCell ref="A89:B89"/>
-    <mergeCell ref="A113:E113"/>
-    <mergeCell ref="D112:E112"/>
-    <mergeCell ref="D111:E111"/>
-    <mergeCell ref="A114:D114"/>
-    <mergeCell ref="A122:B122"/>
-    <mergeCell ref="A123:B123"/>
-    <mergeCell ref="A102:E102"/>
-    <mergeCell ref="C104:D104"/>
-    <mergeCell ref="D101:E101"/>
-    <mergeCell ref="A103:D103"/>
-    <mergeCell ref="A111:B111"/>
-    <mergeCell ref="A112:B112"/>
-    <mergeCell ref="A134:B134"/>
-    <mergeCell ref="C126:D126"/>
-    <mergeCell ref="D134:E134"/>
-    <mergeCell ref="D133:E133"/>
-    <mergeCell ref="A124:E124"/>
-    <mergeCell ref="C115:D115"/>
-    <mergeCell ref="D123:E123"/>
-    <mergeCell ref="D122:E122"/>
-    <mergeCell ref="A125:D125"/>
-    <mergeCell ref="A133:B133"/>
+    <mergeCell ref="C148:D148"/>
+    <mergeCell ref="A155:B155"/>
+    <mergeCell ref="D155:E155"/>
+    <mergeCell ref="A156:B156"/>
+    <mergeCell ref="D156:E156"/>
+    <mergeCell ref="A145:B145"/>
+    <mergeCell ref="D145:E145"/>
+    <mergeCell ref="A146:E146"/>
+    <mergeCell ref="A147:D147"/>
+    <mergeCell ref="A167:B167"/>
+    <mergeCell ref="D167:E167"/>
+    <mergeCell ref="A157:E157"/>
+    <mergeCell ref="A158:D158"/>
+    <mergeCell ref="C159:D159"/>
+    <mergeCell ref="A166:B166"/>
+    <mergeCell ref="D166:E166"/>
+    <mergeCell ref="A178:B178"/>
+    <mergeCell ref="D178:E178"/>
+    <mergeCell ref="A179:E179"/>
+    <mergeCell ref="A180:D180"/>
+    <mergeCell ref="A168:E168"/>
+    <mergeCell ref="A169:D169"/>
+    <mergeCell ref="C170:D170"/>
+    <mergeCell ref="A177:B177"/>
+    <mergeCell ref="D177:E177"/>
+    <mergeCell ref="A190:E190"/>
+    <mergeCell ref="A191:D191"/>
+    <mergeCell ref="C192:D192"/>
+    <mergeCell ref="A199:B199"/>
+    <mergeCell ref="D199:E199"/>
+    <mergeCell ref="C181:D181"/>
+    <mergeCell ref="A188:B188"/>
+    <mergeCell ref="D188:E188"/>
+    <mergeCell ref="A189:B189"/>
+    <mergeCell ref="D189:E189"/>
+    <mergeCell ref="C203:D203"/>
+    <mergeCell ref="A210:B210"/>
+    <mergeCell ref="D210:E210"/>
+    <mergeCell ref="A211:B211"/>
+    <mergeCell ref="D211:E211"/>
+    <mergeCell ref="A200:B200"/>
+    <mergeCell ref="D200:E200"/>
+    <mergeCell ref="A201:E201"/>
+    <mergeCell ref="A202:D202"/>
+    <mergeCell ref="A222:B222"/>
+    <mergeCell ref="D222:E222"/>
+    <mergeCell ref="A212:E212"/>
+    <mergeCell ref="A213:D213"/>
+    <mergeCell ref="C214:D214"/>
+    <mergeCell ref="A221:B221"/>
+    <mergeCell ref="D221:E221"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.4921259845" footer="0.4921259845"/>
@@ -7676,10 +7683,10 @@
       <c r="B5" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C5" s="164" t="s">
+      <c r="C5" s="171" t="s">
         <v>83</v>
       </c>
-      <c r="D5" s="164"/>
+      <c r="D5" s="171"/>
       <c r="E5" s="26" t="s">
         <v>86</v>
       </c>
@@ -7759,10 +7766,10 @@
         <f>ROUND((SUM(C6:C11)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D12" s="166" t="s">
-        <v>17</v>
-      </c>
-      <c r="E12" s="167"/>
+      <c r="D12" s="162" t="s">
+        <v>17</v>
+      </c>
+      <c r="E12" s="164"/>
     </row>
     <row r="13" spans="1:5" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="174" t="s">
@@ -7803,10 +7810,10 @@
       <c r="B16" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C16" s="164" t="s">
+      <c r="C16" s="171" t="s">
         <v>83</v>
       </c>
-      <c r="D16" s="164"/>
+      <c r="D16" s="171"/>
       <c r="E16" s="26" t="s">
         <v>86</v>
       </c>
@@ -7878,31 +7885,31 @@
       <c r="E22" s="44"/>
     </row>
     <row r="23" spans="1:5" ht="26.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="166" t="s">
+      <c r="A23" s="162" t="s">
         <v>46</v>
       </c>
-      <c r="B23" s="171"/>
+      <c r="B23" s="163"/>
       <c r="C23" s="25">
         <f>ROUND((SUM(C17:C22)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D23" s="166" t="s">
-        <v>17</v>
-      </c>
-      <c r="E23" s="167"/>
+      <c r="D23" s="162" t="s">
+        <v>17</v>
+      </c>
+      <c r="E23" s="164"/>
     </row>
     <row r="24" spans="1:5" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="162" t="s">
-        <v>1</v>
-      </c>
-      <c r="B24" s="163"/>
+      <c r="A24" s="165" t="s">
+        <v>1</v>
+      </c>
+      <c r="B24" s="166"/>
       <c r="C24" s="62">
         <v>0</v>
       </c>
-      <c r="D24" s="162" t="s">
-        <v>17</v>
-      </c>
-      <c r="E24" s="165"/>
+      <c r="D24" s="165" t="s">
+        <v>17</v>
+      </c>
+      <c r="E24" s="167"/>
     </row>
     <row r="25" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A25" s="168"/>
@@ -7930,10 +7937,10 @@
       <c r="B27" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C27" s="164" t="s">
+      <c r="C27" s="171" t="s">
         <v>83</v>
       </c>
-      <c r="D27" s="164"/>
+      <c r="D27" s="171"/>
       <c r="E27" s="26" t="s">
         <v>86</v>
       </c>
@@ -8005,31 +8012,31 @@
       <c r="E33" s="44"/>
     </row>
     <row r="34" spans="1:5" ht="26.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="166" t="s">
+      <c r="A34" s="162" t="s">
         <v>46</v>
       </c>
-      <c r="B34" s="171"/>
+      <c r="B34" s="163"/>
       <c r="C34" s="25">
         <f>ROUND((SUM(C28:C33)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D34" s="166" t="s">
-        <v>17</v>
-      </c>
-      <c r="E34" s="167"/>
+      <c r="D34" s="162" t="s">
+        <v>17</v>
+      </c>
+      <c r="E34" s="164"/>
     </row>
     <row r="35" spans="1:5" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="162" t="s">
-        <v>1</v>
-      </c>
-      <c r="B35" s="163"/>
+      <c r="A35" s="165" t="s">
+        <v>1</v>
+      </c>
+      <c r="B35" s="166"/>
       <c r="C35" s="62">
         <v>0</v>
       </c>
-      <c r="D35" s="162" t="s">
-        <v>17</v>
-      </c>
-      <c r="E35" s="165"/>
+      <c r="D35" s="165" t="s">
+        <v>17</v>
+      </c>
+      <c r="E35" s="167"/>
     </row>
     <row r="36" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A36" s="168"/>
@@ -8057,10 +8064,10 @@
       <c r="B38" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C38" s="164" t="s">
+      <c r="C38" s="171" t="s">
         <v>83</v>
       </c>
-      <c r="D38" s="164"/>
+      <c r="D38" s="171"/>
       <c r="E38" s="26" t="s">
         <v>86</v>
       </c>
@@ -8132,31 +8139,31 @@
       <c r="E44" s="44"/>
     </row>
     <row r="45" spans="1:5" ht="26.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="166" t="s">
+      <c r="A45" s="162" t="s">
         <v>46</v>
       </c>
-      <c r="B45" s="171"/>
+      <c r="B45" s="163"/>
       <c r="C45" s="25">
         <f>ROUND((SUM(C39:C44)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D45" s="166" t="s">
-        <v>17</v>
-      </c>
-      <c r="E45" s="167"/>
+      <c r="D45" s="162" t="s">
+        <v>17</v>
+      </c>
+      <c r="E45" s="164"/>
     </row>
     <row r="46" spans="1:5" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="162" t="s">
-        <v>1</v>
-      </c>
-      <c r="B46" s="163"/>
+      <c r="A46" s="165" t="s">
+        <v>1</v>
+      </c>
+      <c r="B46" s="166"/>
       <c r="C46" s="62">
         <v>0</v>
       </c>
-      <c r="D46" s="162" t="s">
-        <v>17</v>
-      </c>
-      <c r="E46" s="165"/>
+      <c r="D46" s="165" t="s">
+        <v>17</v>
+      </c>
+      <c r="E46" s="167"/>
     </row>
     <row r="47" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A47" s="168"/>
@@ -8184,10 +8191,10 @@
       <c r="B49" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C49" s="164" t="s">
+      <c r="C49" s="171" t="s">
         <v>83</v>
       </c>
-      <c r="D49" s="164"/>
+      <c r="D49" s="171"/>
       <c r="E49" s="26" t="s">
         <v>86</v>
       </c>
@@ -8259,31 +8266,31 @@
       <c r="E55" s="44"/>
     </row>
     <row r="56" spans="1:5" ht="26.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="166" t="s">
+      <c r="A56" s="162" t="s">
         <v>46</v>
       </c>
-      <c r="B56" s="171"/>
+      <c r="B56" s="163"/>
       <c r="C56" s="25">
         <f>ROUND((SUM(C50:C55)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D56" s="166" t="s">
-        <v>17</v>
-      </c>
-      <c r="E56" s="167"/>
+      <c r="D56" s="162" t="s">
+        <v>17</v>
+      </c>
+      <c r="E56" s="164"/>
     </row>
     <row r="57" spans="1:5" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="162" t="s">
-        <v>1</v>
-      </c>
-      <c r="B57" s="163"/>
+      <c r="A57" s="165" t="s">
+        <v>1</v>
+      </c>
+      <c r="B57" s="166"/>
       <c r="C57" s="62">
         <v>0</v>
       </c>
-      <c r="D57" s="162" t="s">
-        <v>17</v>
-      </c>
-      <c r="E57" s="165"/>
+      <c r="D57" s="165" t="s">
+        <v>17</v>
+      </c>
+      <c r="E57" s="167"/>
     </row>
     <row r="58" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A58" s="168"/>
@@ -8311,10 +8318,10 @@
       <c r="B60" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C60" s="164" t="s">
+      <c r="C60" s="171" t="s">
         <v>83</v>
       </c>
-      <c r="D60" s="164"/>
+      <c r="D60" s="171"/>
       <c r="E60" s="26" t="s">
         <v>86</v>
       </c>
@@ -8386,31 +8393,31 @@
       <c r="E66" s="44"/>
     </row>
     <row r="67" spans="1:5" ht="26.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="166" t="s">
+      <c r="A67" s="162" t="s">
         <v>46</v>
       </c>
-      <c r="B67" s="171"/>
+      <c r="B67" s="163"/>
       <c r="C67" s="25">
         <f>ROUND((SUM(C61:C66)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D67" s="166" t="s">
-        <v>17</v>
-      </c>
-      <c r="E67" s="167"/>
+      <c r="D67" s="162" t="s">
+        <v>17</v>
+      </c>
+      <c r="E67" s="164"/>
     </row>
     <row r="68" spans="1:5" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="162" t="s">
-        <v>1</v>
-      </c>
-      <c r="B68" s="163"/>
+      <c r="A68" s="165" t="s">
+        <v>1</v>
+      </c>
+      <c r="B68" s="166"/>
       <c r="C68" s="62">
         <v>0</v>
       </c>
-      <c r="D68" s="162" t="s">
-        <v>17</v>
-      </c>
-      <c r="E68" s="165"/>
+      <c r="D68" s="165" t="s">
+        <v>17</v>
+      </c>
+      <c r="E68" s="167"/>
     </row>
     <row r="69" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A69" s="168"/>
@@ -8438,10 +8445,10 @@
       <c r="B71" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C71" s="164" t="s">
+      <c r="C71" s="171" t="s">
         <v>83</v>
       </c>
-      <c r="D71" s="164"/>
+      <c r="D71" s="171"/>
       <c r="E71" s="26" t="s">
         <v>86</v>
       </c>
@@ -8521,31 +8528,31 @@
       <c r="E77" s="44"/>
     </row>
     <row r="78" spans="1:5" ht="26.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A78" s="166" t="s">
+      <c r="A78" s="162" t="s">
         <v>46</v>
       </c>
-      <c r="B78" s="171"/>
+      <c r="B78" s="163"/>
       <c r="C78" s="25">
         <f>ROUND((SUM(C72:C77)/60),0)</f>
         <v>6</v>
       </c>
-      <c r="D78" s="166" t="s">
-        <v>17</v>
-      </c>
-      <c r="E78" s="167"/>
+      <c r="D78" s="162" t="s">
+        <v>17</v>
+      </c>
+      <c r="E78" s="164"/>
     </row>
     <row r="79" spans="1:5" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="162" t="s">
-        <v>1</v>
-      </c>
-      <c r="B79" s="163"/>
+      <c r="A79" s="165" t="s">
+        <v>1</v>
+      </c>
+      <c r="B79" s="166"/>
       <c r="C79" s="62">
         <v>10</v>
       </c>
-      <c r="D79" s="162" t="s">
-        <v>17</v>
-      </c>
-      <c r="E79" s="165"/>
+      <c r="D79" s="165" t="s">
+        <v>17</v>
+      </c>
+      <c r="E79" s="167"/>
     </row>
     <row r="80" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A80" s="168"/>
@@ -8573,10 +8580,10 @@
       <c r="B82" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C82" s="164" t="s">
+      <c r="C82" s="171" t="s">
         <v>83</v>
       </c>
-      <c r="D82" s="164"/>
+      <c r="D82" s="171"/>
       <c r="E82" s="26" t="s">
         <v>86</v>
       </c>
@@ -8664,31 +8671,31 @@
       <c r="E88" s="44"/>
     </row>
     <row r="89" spans="1:5" ht="26.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A89" s="166" t="s">
+      <c r="A89" s="162" t="s">
         <v>46</v>
       </c>
-      <c r="B89" s="171"/>
+      <c r="B89" s="163"/>
       <c r="C89" s="25">
         <f>ROUND((SUM(C83:C88)/60),0)</f>
         <v>9</v>
       </c>
-      <c r="D89" s="166" t="s">
-        <v>17</v>
-      </c>
-      <c r="E89" s="167"/>
+      <c r="D89" s="162" t="s">
+        <v>17</v>
+      </c>
+      <c r="E89" s="164"/>
     </row>
     <row r="90" spans="1:5" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="162" t="s">
-        <v>1</v>
-      </c>
-      <c r="B90" s="163"/>
+      <c r="A90" s="165" t="s">
+        <v>1</v>
+      </c>
+      <c r="B90" s="166"/>
       <c r="C90" s="62">
         <v>10</v>
       </c>
-      <c r="D90" s="162" t="s">
-        <v>17</v>
-      </c>
-      <c r="E90" s="165"/>
+      <c r="D90" s="165" t="s">
+        <v>17</v>
+      </c>
+      <c r="E90" s="167"/>
     </row>
     <row r="91" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A91" s="168"/>
@@ -8716,10 +8723,10 @@
       <c r="B93" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C93" s="164" t="s">
+      <c r="C93" s="171" t="s">
         <v>83</v>
       </c>
-      <c r="D93" s="164"/>
+      <c r="D93" s="171"/>
       <c r="E93" s="26" t="s">
         <v>86</v>
       </c>
@@ -8815,31 +8822,31 @@
       <c r="E99" s="44"/>
     </row>
     <row r="100" spans="1:5" ht="26.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A100" s="166" t="s">
+      <c r="A100" s="162" t="s">
         <v>46</v>
       </c>
-      <c r="B100" s="171"/>
+      <c r="B100" s="163"/>
       <c r="C100" s="25">
         <f>ROUND((SUM(C94:C99)/60),0)</f>
         <v>14</v>
       </c>
-      <c r="D100" s="166" t="s">
-        <v>17</v>
-      </c>
-      <c r="E100" s="167"/>
+      <c r="D100" s="162" t="s">
+        <v>17</v>
+      </c>
+      <c r="E100" s="164"/>
     </row>
     <row r="101" spans="1:5" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A101" s="162" t="s">
-        <v>1</v>
-      </c>
-      <c r="B101" s="163"/>
+      <c r="A101" s="165" t="s">
+        <v>1</v>
+      </c>
+      <c r="B101" s="166"/>
       <c r="C101" s="62">
         <v>10</v>
       </c>
-      <c r="D101" s="162" t="s">
-        <v>17</v>
-      </c>
-      <c r="E101" s="165"/>
+      <c r="D101" s="165" t="s">
+        <v>17</v>
+      </c>
+      <c r="E101" s="167"/>
     </row>
     <row r="102" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A102" s="168"/>
@@ -8867,10 +8874,10 @@
       <c r="B104" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C104" s="164" t="s">
+      <c r="C104" s="171" t="s">
         <v>83</v>
       </c>
-      <c r="D104" s="164"/>
+      <c r="D104" s="171"/>
       <c r="E104" s="26" t="s">
         <v>86</v>
       </c>
@@ -8954,31 +8961,31 @@
       <c r="E110" s="44"/>
     </row>
     <row r="111" spans="1:5" ht="26.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A111" s="166" t="s">
+      <c r="A111" s="162" t="s">
         <v>46</v>
       </c>
-      <c r="B111" s="171"/>
+      <c r="B111" s="163"/>
       <c r="C111" s="25">
         <f>ROUND((SUM(C105:C110)/60),0)</f>
         <v>8</v>
       </c>
-      <c r="D111" s="166" t="s">
-        <v>17</v>
-      </c>
-      <c r="E111" s="167"/>
+      <c r="D111" s="162" t="s">
+        <v>17</v>
+      </c>
+      <c r="E111" s="164"/>
     </row>
     <row r="112" spans="1:5" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A112" s="162" t="s">
-        <v>1</v>
-      </c>
-      <c r="B112" s="163"/>
+      <c r="A112" s="165" t="s">
+        <v>1</v>
+      </c>
+      <c r="B112" s="166"/>
       <c r="C112" s="62">
         <v>0</v>
       </c>
-      <c r="D112" s="162" t="s">
-        <v>17</v>
-      </c>
-      <c r="E112" s="165"/>
+      <c r="D112" s="165" t="s">
+        <v>17</v>
+      </c>
+      <c r="E112" s="167"/>
     </row>
     <row r="113" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A113" s="168"/>
@@ -9006,10 +9013,10 @@
       <c r="B115" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C115" s="164" t="s">
+      <c r="C115" s="171" t="s">
         <v>83</v>
       </c>
-      <c r="D115" s="164"/>
+      <c r="D115" s="171"/>
       <c r="E115" s="26" t="s">
         <v>86</v>
       </c>
@@ -9081,31 +9088,31 @@
       <c r="E121" s="44"/>
     </row>
     <row r="122" spans="1:5" ht="26.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A122" s="166" t="s">
+      <c r="A122" s="162" t="s">
         <v>46</v>
       </c>
-      <c r="B122" s="171"/>
+      <c r="B122" s="163"/>
       <c r="C122" s="25">
         <f>ROUND((SUM(C116:C121)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D122" s="166" t="s">
-        <v>17</v>
-      </c>
-      <c r="E122" s="167"/>
+      <c r="D122" s="162" t="s">
+        <v>17</v>
+      </c>
+      <c r="E122" s="164"/>
     </row>
     <row r="123" spans="1:5" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A123" s="162" t="s">
-        <v>1</v>
-      </c>
-      <c r="B123" s="163"/>
+      <c r="A123" s="165" t="s">
+        <v>1</v>
+      </c>
+      <c r="B123" s="166"/>
       <c r="C123" s="62">
         <v>0</v>
       </c>
-      <c r="D123" s="162" t="s">
-        <v>17</v>
-      </c>
-      <c r="E123" s="165"/>
+      <c r="D123" s="165" t="s">
+        <v>17</v>
+      </c>
+      <c r="E123" s="167"/>
     </row>
     <row r="124" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A124" s="168"/>
@@ -9133,10 +9140,10 @@
       <c r="B126" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C126" s="164" t="s">
+      <c r="C126" s="171" t="s">
         <v>83</v>
       </c>
-      <c r="D126" s="164"/>
+      <c r="D126" s="171"/>
       <c r="E126" s="26" t="s">
         <v>86</v>
       </c>
@@ -9208,31 +9215,31 @@
       <c r="E132" s="44"/>
     </row>
     <row r="133" spans="1:5" ht="26.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A133" s="166" t="s">
+      <c r="A133" s="162" t="s">
         <v>46</v>
       </c>
-      <c r="B133" s="171"/>
+      <c r="B133" s="163"/>
       <c r="C133" s="25">
         <f>ROUND((SUM(C127:C132)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D133" s="166" t="s">
-        <v>17</v>
-      </c>
-      <c r="E133" s="167"/>
+      <c r="D133" s="162" t="s">
+        <v>17</v>
+      </c>
+      <c r="E133" s="164"/>
     </row>
     <row r="134" spans="1:5" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A134" s="162" t="s">
-        <v>1</v>
-      </c>
-      <c r="B134" s="163"/>
+      <c r="A134" s="165" t="s">
+        <v>1</v>
+      </c>
+      <c r="B134" s="166"/>
       <c r="C134" s="62">
         <v>0</v>
       </c>
-      <c r="D134" s="162" t="s">
-        <v>17</v>
-      </c>
-      <c r="E134" s="165"/>
+      <c r="D134" s="165" t="s">
+        <v>17</v>
+      </c>
+      <c r="E134" s="167"/>
     </row>
     <row r="135" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A135" s="168"/>
@@ -9260,10 +9267,10 @@
       <c r="B137" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C137" s="164" t="s">
+      <c r="C137" s="171" t="s">
         <v>83</v>
       </c>
-      <c r="D137" s="164"/>
+      <c r="D137" s="171"/>
       <c r="E137" s="26" t="s">
         <v>86</v>
       </c>
@@ -9335,31 +9342,31 @@
       <c r="E143" s="44"/>
     </row>
     <row r="144" spans="1:5" ht="26.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A144" s="166" t="s">
+      <c r="A144" s="162" t="s">
         <v>46</v>
       </c>
-      <c r="B144" s="171"/>
+      <c r="B144" s="163"/>
       <c r="C144" s="25">
         <f>ROUND((SUM(C138:C143)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D144" s="166" t="s">
-        <v>17</v>
-      </c>
-      <c r="E144" s="167"/>
+      <c r="D144" s="162" t="s">
+        <v>17</v>
+      </c>
+      <c r="E144" s="164"/>
     </row>
     <row r="145" spans="1:5" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A145" s="162" t="s">
-        <v>1</v>
-      </c>
-      <c r="B145" s="163"/>
+      <c r="A145" s="165" t="s">
+        <v>1</v>
+      </c>
+      <c r="B145" s="166"/>
       <c r="C145" s="62">
         <v>0</v>
       </c>
-      <c r="D145" s="162" t="s">
-        <v>17</v>
-      </c>
-      <c r="E145" s="165"/>
+      <c r="D145" s="165" t="s">
+        <v>17</v>
+      </c>
+      <c r="E145" s="167"/>
     </row>
     <row r="146" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A146" s="168"/>
@@ -9387,10 +9394,10 @@
       <c r="B148" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C148" s="164" t="s">
+      <c r="C148" s="171" t="s">
         <v>83</v>
       </c>
-      <c r="D148" s="164"/>
+      <c r="D148" s="171"/>
       <c r="E148" s="26" t="s">
         <v>86</v>
       </c>
@@ -9462,31 +9469,31 @@
       <c r="E154" s="44"/>
     </row>
     <row r="155" spans="1:5" ht="26.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A155" s="166" t="s">
+      <c r="A155" s="162" t="s">
         <v>46</v>
       </c>
-      <c r="B155" s="171"/>
+      <c r="B155" s="163"/>
       <c r="C155" s="25">
         <f>ROUND((SUM(C149:C154)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D155" s="166" t="s">
-        <v>17</v>
-      </c>
-      <c r="E155" s="167"/>
+      <c r="D155" s="162" t="s">
+        <v>17</v>
+      </c>
+      <c r="E155" s="164"/>
     </row>
     <row r="156" spans="1:5" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A156" s="162" t="s">
-        <v>1</v>
-      </c>
-      <c r="B156" s="163"/>
+      <c r="A156" s="165" t="s">
+        <v>1</v>
+      </c>
+      <c r="B156" s="166"/>
       <c r="C156" s="62">
         <v>0</v>
       </c>
-      <c r="D156" s="162" t="s">
-        <v>17</v>
-      </c>
-      <c r="E156" s="165"/>
+      <c r="D156" s="165" t="s">
+        <v>17</v>
+      </c>
+      <c r="E156" s="167"/>
     </row>
     <row r="157" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A157" s="168"/>
@@ -9514,10 +9521,10 @@
       <c r="B159" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C159" s="164" t="s">
+      <c r="C159" s="171" t="s">
         <v>83</v>
       </c>
-      <c r="D159" s="164"/>
+      <c r="D159" s="171"/>
       <c r="E159" s="26" t="s">
         <v>86</v>
       </c>
@@ -9589,31 +9596,31 @@
       <c r="E165" s="44"/>
     </row>
     <row r="166" spans="1:5" ht="26.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A166" s="166" t="s">
+      <c r="A166" s="162" t="s">
         <v>46</v>
       </c>
-      <c r="B166" s="171"/>
+      <c r="B166" s="163"/>
       <c r="C166" s="25">
         <f>ROUND((SUM(C160:C165)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D166" s="166" t="s">
-        <v>17</v>
-      </c>
-      <c r="E166" s="167"/>
+      <c r="D166" s="162" t="s">
+        <v>17</v>
+      </c>
+      <c r="E166" s="164"/>
     </row>
     <row r="167" spans="1:5" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A167" s="162" t="s">
-        <v>1</v>
-      </c>
-      <c r="B167" s="163"/>
+      <c r="A167" s="165" t="s">
+        <v>1</v>
+      </c>
+      <c r="B167" s="166"/>
       <c r="C167" s="62">
         <v>0</v>
       </c>
-      <c r="D167" s="162" t="s">
-        <v>17</v>
-      </c>
-      <c r="E167" s="165"/>
+      <c r="D167" s="165" t="s">
+        <v>17</v>
+      </c>
+      <c r="E167" s="167"/>
     </row>
     <row r="168" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A168" s="168"/>
@@ -9641,10 +9648,10 @@
       <c r="B170" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C170" s="164" t="s">
+      <c r="C170" s="171" t="s">
         <v>83</v>
       </c>
-      <c r="D170" s="164"/>
+      <c r="D170" s="171"/>
       <c r="E170" s="26" t="s">
         <v>86</v>
       </c>
@@ -9716,31 +9723,31 @@
       <c r="E176" s="44"/>
     </row>
     <row r="177" spans="1:5" ht="26.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A177" s="166" t="s">
+      <c r="A177" s="162" t="s">
         <v>46</v>
       </c>
-      <c r="B177" s="171"/>
+      <c r="B177" s="163"/>
       <c r="C177" s="25">
         <f>ROUND((SUM(C171:C176)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D177" s="166" t="s">
-        <v>17</v>
-      </c>
-      <c r="E177" s="167"/>
+      <c r="D177" s="162" t="s">
+        <v>17</v>
+      </c>
+      <c r="E177" s="164"/>
     </row>
     <row r="178" spans="1:5" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A178" s="162" t="s">
-        <v>1</v>
-      </c>
-      <c r="B178" s="163"/>
+      <c r="A178" s="165" t="s">
+        <v>1</v>
+      </c>
+      <c r="B178" s="166"/>
       <c r="C178" s="62">
         <v>0</v>
       </c>
-      <c r="D178" s="162" t="s">
-        <v>17</v>
-      </c>
-      <c r="E178" s="165"/>
+      <c r="D178" s="165" t="s">
+        <v>17</v>
+      </c>
+      <c r="E178" s="167"/>
     </row>
     <row r="179" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A179" s="168"/>
@@ -9768,10 +9775,10 @@
       <c r="B181" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C181" s="164" t="s">
+      <c r="C181" s="171" t="s">
         <v>83</v>
       </c>
-      <c r="D181" s="164"/>
+      <c r="D181" s="171"/>
       <c r="E181" s="26" t="s">
         <v>86</v>
       </c>
@@ -9843,31 +9850,31 @@
       <c r="E187" s="44"/>
     </row>
     <row r="188" spans="1:5" ht="26.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A188" s="166" t="s">
+      <c r="A188" s="162" t="s">
         <v>46</v>
       </c>
-      <c r="B188" s="171"/>
+      <c r="B188" s="163"/>
       <c r="C188" s="25">
         <f>ROUND((SUM(C182:C187)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D188" s="166" t="s">
-        <v>17</v>
-      </c>
-      <c r="E188" s="167"/>
+      <c r="D188" s="162" t="s">
+        <v>17</v>
+      </c>
+      <c r="E188" s="164"/>
     </row>
     <row r="189" spans="1:5" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A189" s="162" t="s">
-        <v>1</v>
-      </c>
-      <c r="B189" s="163"/>
+      <c r="A189" s="165" t="s">
+        <v>1</v>
+      </c>
+      <c r="B189" s="166"/>
       <c r="C189" s="62">
         <v>0</v>
       </c>
-      <c r="D189" s="162" t="s">
-        <v>17</v>
-      </c>
-      <c r="E189" s="165"/>
+      <c r="D189" s="165" t="s">
+        <v>17</v>
+      </c>
+      <c r="E189" s="167"/>
     </row>
     <row r="190" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A190" s="168"/>
@@ -9895,10 +9902,10 @@
       <c r="B192" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C192" s="164" t="s">
+      <c r="C192" s="171" t="s">
         <v>83</v>
       </c>
-      <c r="D192" s="164"/>
+      <c r="D192" s="171"/>
       <c r="E192" s="26" t="s">
         <v>86</v>
       </c>
@@ -9970,31 +9977,31 @@
       <c r="E198" s="44"/>
     </row>
     <row r="199" spans="1:5" ht="26.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A199" s="166" t="s">
+      <c r="A199" s="162" t="s">
         <v>46</v>
       </c>
-      <c r="B199" s="171"/>
+      <c r="B199" s="163"/>
       <c r="C199" s="25">
         <f>ROUND((SUM(C193:C198)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D199" s="166" t="s">
-        <v>17</v>
-      </c>
-      <c r="E199" s="167"/>
+      <c r="D199" s="162" t="s">
+        <v>17</v>
+      </c>
+      <c r="E199" s="164"/>
     </row>
     <row r="200" spans="1:5" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A200" s="162" t="s">
-        <v>1</v>
-      </c>
-      <c r="B200" s="163"/>
+      <c r="A200" s="165" t="s">
+        <v>1</v>
+      </c>
+      <c r="B200" s="166"/>
       <c r="C200" s="62">
         <v>0</v>
       </c>
-      <c r="D200" s="162" t="s">
-        <v>17</v>
-      </c>
-      <c r="E200" s="165"/>
+      <c r="D200" s="165" t="s">
+        <v>17</v>
+      </c>
+      <c r="E200" s="167"/>
     </row>
     <row r="201" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A201" s="168"/>
@@ -10022,10 +10029,10 @@
       <c r="B203" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C203" s="164" t="s">
+      <c r="C203" s="171" t="s">
         <v>83</v>
       </c>
-      <c r="D203" s="164"/>
+      <c r="D203" s="171"/>
       <c r="E203" s="26" t="s">
         <v>86</v>
       </c>
@@ -10097,31 +10104,31 @@
       <c r="E209" s="44"/>
     </row>
     <row r="210" spans="1:5" ht="26.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A210" s="166" t="s">
+      <c r="A210" s="162" t="s">
         <v>46</v>
       </c>
-      <c r="B210" s="171"/>
+      <c r="B210" s="163"/>
       <c r="C210" s="25">
         <f>ROUND((SUM(C204:C209)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D210" s="166" t="s">
-        <v>17</v>
-      </c>
-      <c r="E210" s="167"/>
+      <c r="D210" s="162" t="s">
+        <v>17</v>
+      </c>
+      <c r="E210" s="164"/>
     </row>
     <row r="211" spans="1:5" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A211" s="162" t="s">
-        <v>1</v>
-      </c>
-      <c r="B211" s="163"/>
+      <c r="A211" s="165" t="s">
+        <v>1</v>
+      </c>
+      <c r="B211" s="166"/>
       <c r="C211" s="62">
         <v>0</v>
       </c>
-      <c r="D211" s="162" t="s">
-        <v>17</v>
-      </c>
-      <c r="E211" s="165"/>
+      <c r="D211" s="165" t="s">
+        <v>17</v>
+      </c>
+      <c r="E211" s="167"/>
     </row>
     <row r="212" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A212" s="168"/>
@@ -10149,10 +10156,10 @@
       <c r="B214" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C214" s="164" t="s">
+      <c r="C214" s="171" t="s">
         <v>83</v>
       </c>
-      <c r="D214" s="164"/>
+      <c r="D214" s="171"/>
       <c r="E214" s="26" t="s">
         <v>86</v>
       </c>
@@ -10224,115 +10231,74 @@
       <c r="E220" s="44"/>
     </row>
     <row r="221" spans="1:5" ht="26.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A221" s="166" t="s">
+      <c r="A221" s="162" t="s">
         <v>46</v>
       </c>
-      <c r="B221" s="171"/>
+      <c r="B221" s="163"/>
       <c r="C221" s="25">
         <f>ROUND((SUM(C215:C220)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D221" s="166" t="s">
-        <v>17</v>
-      </c>
-      <c r="E221" s="167"/>
+      <c r="D221" s="162" t="s">
+        <v>17</v>
+      </c>
+      <c r="E221" s="164"/>
     </row>
     <row r="222" spans="1:5" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A222" s="162" t="s">
-        <v>1</v>
-      </c>
-      <c r="B222" s="163"/>
+      <c r="A222" s="165" t="s">
+        <v>1</v>
+      </c>
+      <c r="B222" s="166"/>
       <c r="C222" s="62">
         <v>0</v>
       </c>
-      <c r="D222" s="162" t="s">
-        <v>17</v>
-      </c>
-      <c r="E222" s="165"/>
+      <c r="D222" s="165" t="s">
+        <v>17</v>
+      </c>
+      <c r="E222" s="167"/>
     </row>
     <row r="223" spans="1:5" ht="13.5" thickTop="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="VytkJiG/lJCTByI+enmwG/Z3zL7M5wqlA0x0n/m9uVDo5FgtqOBSxE5i7bMQIQihB9Nd42JRTVvsElLpe7QLiQ==" saltValue="HhvqGmFxsxtyix3thOKY0g==" spinCount="100000" sheet="1" objects="1" scenarios="1" insertRows="0" deleteRows="0" selectLockedCells="1"/>
   <mergeCells count="141">
-    <mergeCell ref="A210:B210"/>
-    <mergeCell ref="D210:E210"/>
-    <mergeCell ref="A211:B211"/>
-    <mergeCell ref="D211:E211"/>
-    <mergeCell ref="A200:B200"/>
-    <mergeCell ref="D200:E200"/>
-    <mergeCell ref="A201:E201"/>
-    <mergeCell ref="A202:D202"/>
-    <mergeCell ref="A222:B222"/>
-    <mergeCell ref="D222:E222"/>
-    <mergeCell ref="A212:E212"/>
-    <mergeCell ref="A213:D213"/>
-    <mergeCell ref="C214:D214"/>
-    <mergeCell ref="A221:B221"/>
-    <mergeCell ref="D221:E221"/>
-    <mergeCell ref="C192:D192"/>
-    <mergeCell ref="A199:B199"/>
-    <mergeCell ref="D199:E199"/>
-    <mergeCell ref="C181:D181"/>
-    <mergeCell ref="A188:B188"/>
-    <mergeCell ref="D188:E188"/>
-    <mergeCell ref="A189:B189"/>
-    <mergeCell ref="D189:E189"/>
-    <mergeCell ref="C203:D203"/>
-    <mergeCell ref="A179:E179"/>
-    <mergeCell ref="A180:D180"/>
-    <mergeCell ref="A168:E168"/>
-    <mergeCell ref="A169:D169"/>
-    <mergeCell ref="C170:D170"/>
-    <mergeCell ref="A177:B177"/>
-    <mergeCell ref="D177:E177"/>
-    <mergeCell ref="A190:E190"/>
-    <mergeCell ref="A191:D191"/>
-    <mergeCell ref="A167:B167"/>
-    <mergeCell ref="D167:E167"/>
-    <mergeCell ref="A157:E157"/>
-    <mergeCell ref="A158:D158"/>
-    <mergeCell ref="C159:D159"/>
-    <mergeCell ref="A166:B166"/>
-    <mergeCell ref="D166:E166"/>
-    <mergeCell ref="A178:B178"/>
-    <mergeCell ref="D178:E178"/>
-    <mergeCell ref="C148:D148"/>
-    <mergeCell ref="A155:B155"/>
-    <mergeCell ref="D155:E155"/>
-    <mergeCell ref="A156:B156"/>
-    <mergeCell ref="D156:E156"/>
-    <mergeCell ref="A145:B145"/>
-    <mergeCell ref="D145:E145"/>
-    <mergeCell ref="A146:E146"/>
-    <mergeCell ref="A147:D147"/>
-    <mergeCell ref="A124:E124"/>
-    <mergeCell ref="D122:E122"/>
-    <mergeCell ref="D123:E123"/>
-    <mergeCell ref="C104:D104"/>
-    <mergeCell ref="A135:E135"/>
-    <mergeCell ref="A136:D136"/>
-    <mergeCell ref="C137:D137"/>
-    <mergeCell ref="A144:B144"/>
-    <mergeCell ref="D144:E144"/>
-    <mergeCell ref="A114:D114"/>
-    <mergeCell ref="A125:D125"/>
-    <mergeCell ref="C115:D115"/>
-    <mergeCell ref="A134:B134"/>
-    <mergeCell ref="D134:E134"/>
-    <mergeCell ref="A133:B133"/>
-    <mergeCell ref="D133:E133"/>
-    <mergeCell ref="C126:D126"/>
-    <mergeCell ref="A122:B122"/>
-    <mergeCell ref="A123:B123"/>
-    <mergeCell ref="A79:B79"/>
-    <mergeCell ref="A80:E80"/>
-    <mergeCell ref="D78:E78"/>
-    <mergeCell ref="D79:E79"/>
-    <mergeCell ref="A111:B111"/>
-    <mergeCell ref="A112:B112"/>
-    <mergeCell ref="A113:E113"/>
-    <mergeCell ref="D111:E111"/>
-    <mergeCell ref="D112:E112"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A1:E2"/>
+    <mergeCell ref="A3:E3"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="A14:E14"/>
+    <mergeCell ref="A25:E25"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A26:D26"/>
+    <mergeCell ref="A37:D37"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="A36:E36"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="D35:E35"/>
+    <mergeCell ref="A59:D59"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="A46:B46"/>
+    <mergeCell ref="D45:E45"/>
+    <mergeCell ref="D46:E46"/>
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="A47:E47"/>
+    <mergeCell ref="A56:B56"/>
+    <mergeCell ref="D56:E56"/>
+    <mergeCell ref="C49:D49"/>
+    <mergeCell ref="A57:B57"/>
+    <mergeCell ref="A58:E58"/>
+    <mergeCell ref="D57:E57"/>
+    <mergeCell ref="A48:D48"/>
     <mergeCell ref="C60:D60"/>
     <mergeCell ref="A103:D103"/>
     <mergeCell ref="A89:B89"/>
@@ -10357,44 +10323,85 @@
     <mergeCell ref="D101:E101"/>
     <mergeCell ref="A92:D92"/>
     <mergeCell ref="A78:B78"/>
-    <mergeCell ref="A37:D37"/>
-    <mergeCell ref="A34:B34"/>
-    <mergeCell ref="A35:B35"/>
-    <mergeCell ref="A36:E36"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="D35:E35"/>
-    <mergeCell ref="A59:D59"/>
-    <mergeCell ref="A45:B45"/>
-    <mergeCell ref="A46:B46"/>
-    <mergeCell ref="D45:E45"/>
-    <mergeCell ref="D46:E46"/>
-    <mergeCell ref="C38:D38"/>
-    <mergeCell ref="A47:E47"/>
-    <mergeCell ref="A56:B56"/>
-    <mergeCell ref="D56:E56"/>
-    <mergeCell ref="C49:D49"/>
-    <mergeCell ref="A57:B57"/>
-    <mergeCell ref="A58:E58"/>
-    <mergeCell ref="D57:E57"/>
-    <mergeCell ref="A48:D48"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="A14:E14"/>
-    <mergeCell ref="A25:E25"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="A26:D26"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A1:E2"/>
-    <mergeCell ref="A3:E3"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="A79:B79"/>
+    <mergeCell ref="A80:E80"/>
+    <mergeCell ref="D78:E78"/>
+    <mergeCell ref="D79:E79"/>
+    <mergeCell ref="A111:B111"/>
+    <mergeCell ref="A112:B112"/>
+    <mergeCell ref="A113:E113"/>
+    <mergeCell ref="D111:E111"/>
+    <mergeCell ref="D112:E112"/>
+    <mergeCell ref="A124:E124"/>
+    <mergeCell ref="D122:E122"/>
+    <mergeCell ref="D123:E123"/>
+    <mergeCell ref="C104:D104"/>
+    <mergeCell ref="A135:E135"/>
+    <mergeCell ref="A136:D136"/>
+    <mergeCell ref="C137:D137"/>
+    <mergeCell ref="A144:B144"/>
+    <mergeCell ref="D144:E144"/>
+    <mergeCell ref="A114:D114"/>
+    <mergeCell ref="A125:D125"/>
+    <mergeCell ref="C115:D115"/>
+    <mergeCell ref="A134:B134"/>
+    <mergeCell ref="D134:E134"/>
+    <mergeCell ref="A133:B133"/>
+    <mergeCell ref="D133:E133"/>
+    <mergeCell ref="C126:D126"/>
+    <mergeCell ref="A122:B122"/>
+    <mergeCell ref="A123:B123"/>
+    <mergeCell ref="C148:D148"/>
+    <mergeCell ref="A155:B155"/>
+    <mergeCell ref="D155:E155"/>
+    <mergeCell ref="A156:B156"/>
+    <mergeCell ref="D156:E156"/>
+    <mergeCell ref="A145:B145"/>
+    <mergeCell ref="D145:E145"/>
+    <mergeCell ref="A146:E146"/>
+    <mergeCell ref="A147:D147"/>
+    <mergeCell ref="A167:B167"/>
+    <mergeCell ref="D167:E167"/>
+    <mergeCell ref="A157:E157"/>
+    <mergeCell ref="A158:D158"/>
+    <mergeCell ref="C159:D159"/>
+    <mergeCell ref="A166:B166"/>
+    <mergeCell ref="D166:E166"/>
+    <mergeCell ref="A178:B178"/>
+    <mergeCell ref="D178:E178"/>
+    <mergeCell ref="A179:E179"/>
+    <mergeCell ref="A180:D180"/>
+    <mergeCell ref="A168:E168"/>
+    <mergeCell ref="A169:D169"/>
+    <mergeCell ref="C170:D170"/>
+    <mergeCell ref="A177:B177"/>
+    <mergeCell ref="D177:E177"/>
+    <mergeCell ref="A190:E190"/>
+    <mergeCell ref="A191:D191"/>
+    <mergeCell ref="C192:D192"/>
+    <mergeCell ref="A199:B199"/>
+    <mergeCell ref="D199:E199"/>
+    <mergeCell ref="C181:D181"/>
+    <mergeCell ref="A188:B188"/>
+    <mergeCell ref="D188:E188"/>
+    <mergeCell ref="A189:B189"/>
+    <mergeCell ref="D189:E189"/>
+    <mergeCell ref="C203:D203"/>
+    <mergeCell ref="A210:B210"/>
+    <mergeCell ref="D210:E210"/>
+    <mergeCell ref="A211:B211"/>
+    <mergeCell ref="D211:E211"/>
+    <mergeCell ref="A200:B200"/>
+    <mergeCell ref="D200:E200"/>
+    <mergeCell ref="A201:E201"/>
+    <mergeCell ref="A202:D202"/>
+    <mergeCell ref="A222:B222"/>
+    <mergeCell ref="D222:E222"/>
+    <mergeCell ref="A212:E212"/>
+    <mergeCell ref="A213:D213"/>
+    <mergeCell ref="C214:D214"/>
+    <mergeCell ref="A221:B221"/>
+    <mergeCell ref="D221:E221"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.4921259845" footer="0.4921259845"/>
@@ -10465,10 +10472,10 @@
       <c r="B5" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C5" s="164" t="s">
+      <c r="C5" s="171" t="s">
         <v>83</v>
       </c>
-      <c r="D5" s="164"/>
+      <c r="D5" s="171"/>
       <c r="E5" s="26" t="s">
         <v>86</v>
       </c>
@@ -10548,10 +10555,10 @@
         <f>ROUND((SUM(C6:C11)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D12" s="166" t="s">
-        <v>17</v>
-      </c>
-      <c r="E12" s="167"/>
+      <c r="D12" s="162" t="s">
+        <v>17</v>
+      </c>
+      <c r="E12" s="164"/>
     </row>
     <row r="13" spans="1:5" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="174" t="s">
@@ -10592,10 +10599,10 @@
       <c r="B16" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C16" s="164" t="s">
+      <c r="C16" s="171" t="s">
         <v>83</v>
       </c>
-      <c r="D16" s="164"/>
+      <c r="D16" s="171"/>
       <c r="E16" s="26" t="s">
         <v>86</v>
       </c>
@@ -10667,31 +10674,31 @@
       <c r="E22" s="44"/>
     </row>
     <row r="23" spans="1:5" ht="26.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="166" t="s">
+      <c r="A23" s="162" t="s">
         <v>46</v>
       </c>
-      <c r="B23" s="171"/>
+      <c r="B23" s="163"/>
       <c r="C23" s="25">
         <f>ROUND((SUM(C17:C22)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D23" s="166" t="s">
-        <v>17</v>
-      </c>
-      <c r="E23" s="167"/>
+      <c r="D23" s="162" t="s">
+        <v>17</v>
+      </c>
+      <c r="E23" s="164"/>
     </row>
     <row r="24" spans="1:5" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="162" t="s">
-        <v>1</v>
-      </c>
-      <c r="B24" s="163"/>
+      <c r="A24" s="165" t="s">
+        <v>1</v>
+      </c>
+      <c r="B24" s="166"/>
       <c r="C24" s="62">
         <v>0</v>
       </c>
-      <c r="D24" s="162" t="s">
-        <v>17</v>
-      </c>
-      <c r="E24" s="165"/>
+      <c r="D24" s="165" t="s">
+        <v>17</v>
+      </c>
+      <c r="E24" s="167"/>
     </row>
     <row r="25" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A25" s="168"/>
@@ -10719,10 +10726,10 @@
       <c r="B27" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C27" s="164" t="s">
+      <c r="C27" s="171" t="s">
         <v>83</v>
       </c>
-      <c r="D27" s="164"/>
+      <c r="D27" s="171"/>
       <c r="E27" s="26" t="s">
         <v>86</v>
       </c>
@@ -10794,31 +10801,31 @@
       <c r="E33" s="44"/>
     </row>
     <row r="34" spans="1:5" ht="26.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="166" t="s">
+      <c r="A34" s="162" t="s">
         <v>46</v>
       </c>
-      <c r="B34" s="171"/>
+      <c r="B34" s="163"/>
       <c r="C34" s="25">
         <f>ROUND((SUM(C28:C33)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D34" s="166" t="s">
-        <v>17</v>
-      </c>
-      <c r="E34" s="167"/>
+      <c r="D34" s="162" t="s">
+        <v>17</v>
+      </c>
+      <c r="E34" s="164"/>
     </row>
     <row r="35" spans="1:5" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="162" t="s">
-        <v>1</v>
-      </c>
-      <c r="B35" s="163"/>
+      <c r="A35" s="165" t="s">
+        <v>1</v>
+      </c>
+      <c r="B35" s="166"/>
       <c r="C35" s="62">
         <v>0</v>
       </c>
-      <c r="D35" s="162" t="s">
-        <v>17</v>
-      </c>
-      <c r="E35" s="165"/>
+      <c r="D35" s="165" t="s">
+        <v>17</v>
+      </c>
+      <c r="E35" s="167"/>
     </row>
     <row r="36" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A36" s="168"/>
@@ -10846,10 +10853,10 @@
       <c r="B38" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C38" s="164" t="s">
+      <c r="C38" s="171" t="s">
         <v>83</v>
       </c>
-      <c r="D38" s="164"/>
+      <c r="D38" s="171"/>
       <c r="E38" s="26" t="s">
         <v>86</v>
       </c>
@@ -10925,31 +10932,31 @@
       <c r="E44" s="44"/>
     </row>
     <row r="45" spans="1:5" ht="26.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="166" t="s">
+      <c r="A45" s="162" t="s">
         <v>46</v>
       </c>
-      <c r="B45" s="171"/>
+      <c r="B45" s="163"/>
       <c r="C45" s="25">
         <f>ROUND((SUM(C39:C44)/60),0)</f>
         <v>1</v>
       </c>
-      <c r="D45" s="166" t="s">
-        <v>17</v>
-      </c>
-      <c r="E45" s="167"/>
+      <c r="D45" s="162" t="s">
+        <v>17</v>
+      </c>
+      <c r="E45" s="164"/>
     </row>
     <row r="46" spans="1:5" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="162" t="s">
-        <v>1</v>
-      </c>
-      <c r="B46" s="163"/>
+      <c r="A46" s="165" t="s">
+        <v>1</v>
+      </c>
+      <c r="B46" s="166"/>
       <c r="C46" s="62">
         <v>0</v>
       </c>
-      <c r="D46" s="162" t="s">
-        <v>17</v>
-      </c>
-      <c r="E46" s="165"/>
+      <c r="D46" s="165" t="s">
+        <v>17</v>
+      </c>
+      <c r="E46" s="167"/>
     </row>
     <row r="47" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A47" s="168"/>
@@ -10977,10 +10984,10 @@
       <c r="B49" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C49" s="164" t="s">
+      <c r="C49" s="171" t="s">
         <v>83</v>
       </c>
-      <c r="D49" s="164"/>
+      <c r="D49" s="171"/>
       <c r="E49" s="26" t="s">
         <v>86</v>
       </c>
@@ -11052,31 +11059,31 @@
       <c r="E55" s="44"/>
     </row>
     <row r="56" spans="1:5" ht="26.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="166" t="s">
+      <c r="A56" s="162" t="s">
         <v>46</v>
       </c>
-      <c r="B56" s="171"/>
+      <c r="B56" s="163"/>
       <c r="C56" s="25">
         <f>ROUND((SUM(C50:C55)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D56" s="166" t="s">
-        <v>17</v>
-      </c>
-      <c r="E56" s="167"/>
+      <c r="D56" s="162" t="s">
+        <v>17</v>
+      </c>
+      <c r="E56" s="164"/>
     </row>
     <row r="57" spans="1:5" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="162" t="s">
-        <v>1</v>
-      </c>
-      <c r="B57" s="163"/>
+      <c r="A57" s="165" t="s">
+        <v>1</v>
+      </c>
+      <c r="B57" s="166"/>
       <c r="C57" s="62">
         <v>0</v>
       </c>
-      <c r="D57" s="162" t="s">
-        <v>17</v>
-      </c>
-      <c r="E57" s="165"/>
+      <c r="D57" s="165" t="s">
+        <v>17</v>
+      </c>
+      <c r="E57" s="167"/>
     </row>
     <row r="58" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A58" s="168"/>
@@ -11104,10 +11111,10 @@
       <c r="B60" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C60" s="164" t="s">
+      <c r="C60" s="171" t="s">
         <v>83</v>
       </c>
-      <c r="D60" s="164"/>
+      <c r="D60" s="171"/>
       <c r="E60" s="26" t="s">
         <v>86</v>
       </c>
@@ -11179,31 +11186,31 @@
       <c r="E66" s="44"/>
     </row>
     <row r="67" spans="1:5" ht="26.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="166" t="s">
+      <c r="A67" s="162" t="s">
         <v>46</v>
       </c>
-      <c r="B67" s="171"/>
+      <c r="B67" s="163"/>
       <c r="C67" s="25">
         <f>ROUND((SUM(C61:C66)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D67" s="166" t="s">
-        <v>17</v>
-      </c>
-      <c r="E67" s="167"/>
+      <c r="D67" s="162" t="s">
+        <v>17</v>
+      </c>
+      <c r="E67" s="164"/>
     </row>
     <row r="68" spans="1:5" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="162" t="s">
-        <v>1</v>
-      </c>
-      <c r="B68" s="163"/>
+      <c r="A68" s="165" t="s">
+        <v>1</v>
+      </c>
+      <c r="B68" s="166"/>
       <c r="C68" s="62">
         <v>0</v>
       </c>
-      <c r="D68" s="162" t="s">
-        <v>17</v>
-      </c>
-      <c r="E68" s="165"/>
+      <c r="D68" s="165" t="s">
+        <v>17</v>
+      </c>
+      <c r="E68" s="167"/>
     </row>
     <row r="69" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A69" s="168"/>
@@ -11231,10 +11238,10 @@
       <c r="B71" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C71" s="164" t="s">
+      <c r="C71" s="171" t="s">
         <v>83</v>
       </c>
-      <c r="D71" s="164"/>
+      <c r="D71" s="171"/>
       <c r="E71" s="26" t="s">
         <v>86</v>
       </c>
@@ -11310,31 +11317,31 @@
       <c r="E77" s="44"/>
     </row>
     <row r="78" spans="1:5" ht="26.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A78" s="166" t="s">
+      <c r="A78" s="162" t="s">
         <v>46</v>
       </c>
-      <c r="B78" s="171"/>
+      <c r="B78" s="163"/>
       <c r="C78" s="25">
         <f>ROUND((SUM(C72:C77)/60),0)</f>
         <v>1</v>
       </c>
-      <c r="D78" s="166" t="s">
-        <v>17</v>
-      </c>
-      <c r="E78" s="167"/>
+      <c r="D78" s="162" t="s">
+        <v>17</v>
+      </c>
+      <c r="E78" s="164"/>
     </row>
     <row r="79" spans="1:5" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="162" t="s">
-        <v>1</v>
-      </c>
-      <c r="B79" s="163"/>
+      <c r="A79" s="165" t="s">
+        <v>1</v>
+      </c>
+      <c r="B79" s="166"/>
       <c r="C79" s="62">
         <v>0</v>
       </c>
-      <c r="D79" s="162" t="s">
-        <v>17</v>
-      </c>
-      <c r="E79" s="165"/>
+      <c r="D79" s="165" t="s">
+        <v>17</v>
+      </c>
+      <c r="E79" s="167"/>
     </row>
     <row r="80" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A80" s="168"/>
@@ -11362,10 +11369,10 @@
       <c r="B82" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C82" s="164" t="s">
+      <c r="C82" s="171" t="s">
         <v>83</v>
       </c>
-      <c r="D82" s="164"/>
+      <c r="D82" s="171"/>
       <c r="E82" s="26" t="s">
         <v>86</v>
       </c>
@@ -11437,31 +11444,31 @@
       <c r="E88" s="44"/>
     </row>
     <row r="89" spans="1:5" ht="26.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A89" s="166" t="s">
+      <c r="A89" s="162" t="s">
         <v>46</v>
       </c>
-      <c r="B89" s="171"/>
+      <c r="B89" s="163"/>
       <c r="C89" s="25">
         <f>ROUND((SUM(C83:C88)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D89" s="166" t="s">
-        <v>17</v>
-      </c>
-      <c r="E89" s="167"/>
+      <c r="D89" s="162" t="s">
+        <v>17</v>
+      </c>
+      <c r="E89" s="164"/>
     </row>
     <row r="90" spans="1:5" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="162" t="s">
-        <v>1</v>
-      </c>
-      <c r="B90" s="163"/>
+      <c r="A90" s="165" t="s">
+        <v>1</v>
+      </c>
+      <c r="B90" s="166"/>
       <c r="C90" s="62">
         <v>0</v>
       </c>
-      <c r="D90" s="162" t="s">
-        <v>17</v>
-      </c>
-      <c r="E90" s="165"/>
+      <c r="D90" s="165" t="s">
+        <v>17</v>
+      </c>
+      <c r="E90" s="167"/>
     </row>
     <row r="91" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A91" s="168"/>
@@ -11489,10 +11496,10 @@
       <c r="B93" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C93" s="164" t="s">
+      <c r="C93" s="171" t="s">
         <v>83</v>
       </c>
-      <c r="D93" s="164"/>
+      <c r="D93" s="171"/>
       <c r="E93" s="26" t="s">
         <v>86</v>
       </c>
@@ -11584,31 +11591,31 @@
       <c r="E99" s="44"/>
     </row>
     <row r="100" spans="1:5" ht="26.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A100" s="166" t="s">
+      <c r="A100" s="162" t="s">
         <v>46</v>
       </c>
-      <c r="B100" s="171"/>
+      <c r="B100" s="163"/>
       <c r="C100" s="25">
         <f>ROUND((SUM(C94:C99)/60),0)</f>
         <v>17</v>
       </c>
-      <c r="D100" s="166" t="s">
-        <v>17</v>
-      </c>
-      <c r="E100" s="167"/>
+      <c r="D100" s="162" t="s">
+        <v>17</v>
+      </c>
+      <c r="E100" s="164"/>
     </row>
     <row r="101" spans="1:5" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A101" s="162" t="s">
-        <v>1</v>
-      </c>
-      <c r="B101" s="163"/>
+      <c r="A101" s="165" t="s">
+        <v>1</v>
+      </c>
+      <c r="B101" s="166"/>
       <c r="C101" s="62">
         <v>12</v>
       </c>
-      <c r="D101" s="162" t="s">
-        <v>17</v>
-      </c>
-      <c r="E101" s="165"/>
+      <c r="D101" s="165" t="s">
+        <v>17</v>
+      </c>
+      <c r="E101" s="167"/>
     </row>
     <row r="102" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A102" s="168"/>
@@ -11636,10 +11643,10 @@
       <c r="B104" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C104" s="164" t="s">
+      <c r="C104" s="171" t="s">
         <v>83</v>
       </c>
-      <c r="D104" s="164"/>
+      <c r="D104" s="171"/>
       <c r="E104" s="26" t="s">
         <v>86</v>
       </c>
@@ -11731,31 +11738,31 @@
       <c r="E110" s="44"/>
     </row>
     <row r="111" spans="1:5" ht="26.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A111" s="166" t="s">
+      <c r="A111" s="162" t="s">
         <v>46</v>
       </c>
-      <c r="B111" s="171"/>
+      <c r="B111" s="163"/>
       <c r="C111" s="25">
         <f>ROUND((SUM(C105:C110)/60),0)</f>
         <v>13</v>
       </c>
-      <c r="D111" s="166" t="s">
-        <v>17</v>
-      </c>
-      <c r="E111" s="167"/>
+      <c r="D111" s="162" t="s">
+        <v>17</v>
+      </c>
+      <c r="E111" s="164"/>
     </row>
     <row r="112" spans="1:5" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A112" s="162" t="s">
-        <v>1</v>
-      </c>
-      <c r="B112" s="163"/>
+      <c r="A112" s="165" t="s">
+        <v>1</v>
+      </c>
+      <c r="B112" s="166"/>
       <c r="C112" s="62">
         <v>10</v>
       </c>
-      <c r="D112" s="162" t="s">
-        <v>17</v>
-      </c>
-      <c r="E112" s="165"/>
+      <c r="D112" s="165" t="s">
+        <v>17</v>
+      </c>
+      <c r="E112" s="167"/>
     </row>
     <row r="113" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A113" s="168"/>
@@ -11783,10 +11790,10 @@
       <c r="B115" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C115" s="164" t="s">
+      <c r="C115" s="171" t="s">
         <v>83</v>
       </c>
-      <c r="D115" s="164"/>
+      <c r="D115" s="171"/>
       <c r="E115" s="26" t="s">
         <v>86</v>
       </c>
@@ -11858,31 +11865,31 @@
       <c r="E121" s="44"/>
     </row>
     <row r="122" spans="1:5" ht="26.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A122" s="166" t="s">
+      <c r="A122" s="162" t="s">
         <v>46</v>
       </c>
-      <c r="B122" s="171"/>
+      <c r="B122" s="163"/>
       <c r="C122" s="25">
         <f>ROUND((SUM(C116:C121)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D122" s="166" t="s">
-        <v>17</v>
-      </c>
-      <c r="E122" s="167"/>
+      <c r="D122" s="162" t="s">
+        <v>17</v>
+      </c>
+      <c r="E122" s="164"/>
     </row>
     <row r="123" spans="1:5" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A123" s="162" t="s">
-        <v>1</v>
-      </c>
-      <c r="B123" s="163"/>
+      <c r="A123" s="165" t="s">
+        <v>1</v>
+      </c>
+      <c r="B123" s="166"/>
       <c r="C123" s="62">
         <v>0</v>
       </c>
-      <c r="D123" s="162" t="s">
-        <v>17</v>
-      </c>
-      <c r="E123" s="165"/>
+      <c r="D123" s="165" t="s">
+        <v>17</v>
+      </c>
+      <c r="E123" s="167"/>
     </row>
     <row r="124" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A124" s="168"/>
@@ -11910,10 +11917,10 @@
       <c r="B126" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C126" s="164" t="s">
+      <c r="C126" s="171" t="s">
         <v>83</v>
       </c>
-      <c r="D126" s="164"/>
+      <c r="D126" s="171"/>
       <c r="E126" s="26" t="s">
         <v>86</v>
       </c>
@@ -11985,31 +11992,31 @@
       <c r="E132" s="44"/>
     </row>
     <row r="133" spans="1:5" ht="26.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A133" s="166" t="s">
+      <c r="A133" s="162" t="s">
         <v>46</v>
       </c>
-      <c r="B133" s="171"/>
+      <c r="B133" s="163"/>
       <c r="C133" s="25">
         <f>ROUND((SUM(C127:C132)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D133" s="166" t="s">
-        <v>17</v>
-      </c>
-      <c r="E133" s="167"/>
+      <c r="D133" s="162" t="s">
+        <v>17</v>
+      </c>
+      <c r="E133" s="164"/>
     </row>
     <row r="134" spans="1:5" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A134" s="162" t="s">
-        <v>1</v>
-      </c>
-      <c r="B134" s="163"/>
+      <c r="A134" s="165" t="s">
+        <v>1</v>
+      </c>
+      <c r="B134" s="166"/>
       <c r="C134" s="62">
         <v>0</v>
       </c>
-      <c r="D134" s="162" t="s">
-        <v>17</v>
-      </c>
-      <c r="E134" s="165"/>
+      <c r="D134" s="165" t="s">
+        <v>17</v>
+      </c>
+      <c r="E134" s="167"/>
     </row>
     <row r="135" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A135" s="168"/>
@@ -12037,10 +12044,10 @@
       <c r="B137" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C137" s="164" t="s">
+      <c r="C137" s="171" t="s">
         <v>83</v>
       </c>
-      <c r="D137" s="164"/>
+      <c r="D137" s="171"/>
       <c r="E137" s="26" t="s">
         <v>86</v>
       </c>
@@ -12112,31 +12119,31 @@
       <c r="E143" s="44"/>
     </row>
     <row r="144" spans="1:5" ht="26.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A144" s="166" t="s">
+      <c r="A144" s="162" t="s">
         <v>46</v>
       </c>
-      <c r="B144" s="171"/>
+      <c r="B144" s="163"/>
       <c r="C144" s="25">
         <f>ROUND((SUM(C138:C143)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D144" s="166" t="s">
-        <v>17</v>
-      </c>
-      <c r="E144" s="167"/>
+      <c r="D144" s="162" t="s">
+        <v>17</v>
+      </c>
+      <c r="E144" s="164"/>
     </row>
     <row r="145" spans="1:5" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A145" s="162" t="s">
-        <v>1</v>
-      </c>
-      <c r="B145" s="163"/>
+      <c r="A145" s="165" t="s">
+        <v>1</v>
+      </c>
+      <c r="B145" s="166"/>
       <c r="C145" s="62">
         <v>0</v>
       </c>
-      <c r="D145" s="162" t="s">
-        <v>17</v>
-      </c>
-      <c r="E145" s="165"/>
+      <c r="D145" s="165" t="s">
+        <v>17</v>
+      </c>
+      <c r="E145" s="167"/>
     </row>
     <row r="146" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A146" s="168"/>
@@ -12164,10 +12171,10 @@
       <c r="B148" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C148" s="164" t="s">
+      <c r="C148" s="171" t="s">
         <v>83</v>
       </c>
-      <c r="D148" s="164"/>
+      <c r="D148" s="171"/>
       <c r="E148" s="26" t="s">
         <v>86</v>
       </c>
@@ -12239,31 +12246,31 @@
       <c r="E154" s="44"/>
     </row>
     <row r="155" spans="1:5" ht="26.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A155" s="166" t="s">
+      <c r="A155" s="162" t="s">
         <v>46</v>
       </c>
-      <c r="B155" s="171"/>
+      <c r="B155" s="163"/>
       <c r="C155" s="25">
         <f>ROUND((SUM(C149:C154)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D155" s="166" t="s">
-        <v>17</v>
-      </c>
-      <c r="E155" s="167"/>
+      <c r="D155" s="162" t="s">
+        <v>17</v>
+      </c>
+      <c r="E155" s="164"/>
     </row>
     <row r="156" spans="1:5" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A156" s="162" t="s">
-        <v>1</v>
-      </c>
-      <c r="B156" s="163"/>
+      <c r="A156" s="165" t="s">
+        <v>1</v>
+      </c>
+      <c r="B156" s="166"/>
       <c r="C156" s="62">
         <v>0</v>
       </c>
-      <c r="D156" s="162" t="s">
-        <v>17</v>
-      </c>
-      <c r="E156" s="165"/>
+      <c r="D156" s="165" t="s">
+        <v>17</v>
+      </c>
+      <c r="E156" s="167"/>
     </row>
     <row r="157" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A157" s="168"/>
@@ -12291,10 +12298,10 @@
       <c r="B159" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C159" s="164" t="s">
+      <c r="C159" s="171" t="s">
         <v>83</v>
       </c>
-      <c r="D159" s="164"/>
+      <c r="D159" s="171"/>
       <c r="E159" s="26" t="s">
         <v>86</v>
       </c>
@@ -12366,31 +12373,31 @@
       <c r="E165" s="44"/>
     </row>
     <row r="166" spans="1:5" ht="26.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A166" s="166" t="s">
+      <c r="A166" s="162" t="s">
         <v>46</v>
       </c>
-      <c r="B166" s="171"/>
+      <c r="B166" s="163"/>
       <c r="C166" s="25">
         <f>ROUND((SUM(C160:C165)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D166" s="166" t="s">
-        <v>17</v>
-      </c>
-      <c r="E166" s="167"/>
+      <c r="D166" s="162" t="s">
+        <v>17</v>
+      </c>
+      <c r="E166" s="164"/>
     </row>
     <row r="167" spans="1:5" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A167" s="162" t="s">
-        <v>1</v>
-      </c>
-      <c r="B167" s="163"/>
+      <c r="A167" s="165" t="s">
+        <v>1</v>
+      </c>
+      <c r="B167" s="166"/>
       <c r="C167" s="62">
         <v>0</v>
       </c>
-      <c r="D167" s="162" t="s">
-        <v>17</v>
-      </c>
-      <c r="E167" s="165"/>
+      <c r="D167" s="165" t="s">
+        <v>17</v>
+      </c>
+      <c r="E167" s="167"/>
     </row>
     <row r="168" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A168" s="168"/>
@@ -12418,10 +12425,10 @@
       <c r="B170" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C170" s="164" t="s">
+      <c r="C170" s="171" t="s">
         <v>83</v>
       </c>
-      <c r="D170" s="164"/>
+      <c r="D170" s="171"/>
       <c r="E170" s="26" t="s">
         <v>86</v>
       </c>
@@ -12493,31 +12500,31 @@
       <c r="E176" s="44"/>
     </row>
     <row r="177" spans="1:5" ht="26.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A177" s="166" t="s">
+      <c r="A177" s="162" t="s">
         <v>46</v>
       </c>
-      <c r="B177" s="171"/>
+      <c r="B177" s="163"/>
       <c r="C177" s="25">
         <f>ROUND((SUM(C171:C176)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D177" s="166" t="s">
-        <v>17</v>
-      </c>
-      <c r="E177" s="167"/>
+      <c r="D177" s="162" t="s">
+        <v>17</v>
+      </c>
+      <c r="E177" s="164"/>
     </row>
     <row r="178" spans="1:5" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A178" s="162" t="s">
-        <v>1</v>
-      </c>
-      <c r="B178" s="163"/>
+      <c r="A178" s="165" t="s">
+        <v>1</v>
+      </c>
+      <c r="B178" s="166"/>
       <c r="C178" s="62">
         <v>0</v>
       </c>
-      <c r="D178" s="162" t="s">
-        <v>17</v>
-      </c>
-      <c r="E178" s="165"/>
+      <c r="D178" s="165" t="s">
+        <v>17</v>
+      </c>
+      <c r="E178" s="167"/>
     </row>
     <row r="179" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A179" s="168"/>
@@ -12545,10 +12552,10 @@
       <c r="B181" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C181" s="164" t="s">
+      <c r="C181" s="171" t="s">
         <v>83</v>
       </c>
-      <c r="D181" s="164"/>
+      <c r="D181" s="171"/>
       <c r="E181" s="26" t="s">
         <v>86</v>
       </c>
@@ -12620,31 +12627,31 @@
       <c r="E187" s="44"/>
     </row>
     <row r="188" spans="1:5" ht="26.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A188" s="166" t="s">
+      <c r="A188" s="162" t="s">
         <v>46</v>
       </c>
-      <c r="B188" s="171"/>
+      <c r="B188" s="163"/>
       <c r="C188" s="25">
         <f>ROUND((SUM(C182:C187)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D188" s="166" t="s">
-        <v>17</v>
-      </c>
-      <c r="E188" s="167"/>
+      <c r="D188" s="162" t="s">
+        <v>17</v>
+      </c>
+      <c r="E188" s="164"/>
     </row>
     <row r="189" spans="1:5" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A189" s="162" t="s">
-        <v>1</v>
-      </c>
-      <c r="B189" s="163"/>
+      <c r="A189" s="165" t="s">
+        <v>1</v>
+      </c>
+      <c r="B189" s="166"/>
       <c r="C189" s="62">
         <v>0</v>
       </c>
-      <c r="D189" s="162" t="s">
-        <v>17</v>
-      </c>
-      <c r="E189" s="165"/>
+      <c r="D189" s="165" t="s">
+        <v>17</v>
+      </c>
+      <c r="E189" s="167"/>
     </row>
     <row r="190" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A190" s="168"/>
@@ -12672,10 +12679,10 @@
       <c r="B192" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C192" s="164" t="s">
+      <c r="C192" s="171" t="s">
         <v>83</v>
       </c>
-      <c r="D192" s="164"/>
+      <c r="D192" s="171"/>
       <c r="E192" s="26" t="s">
         <v>86</v>
       </c>
@@ -12747,31 +12754,31 @@
       <c r="E198" s="44"/>
     </row>
     <row r="199" spans="1:5" ht="26.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A199" s="166" t="s">
+      <c r="A199" s="162" t="s">
         <v>46</v>
       </c>
-      <c r="B199" s="171"/>
+      <c r="B199" s="163"/>
       <c r="C199" s="25">
         <f>ROUND((SUM(C193:C198)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D199" s="166" t="s">
-        <v>17</v>
-      </c>
-      <c r="E199" s="167"/>
+      <c r="D199" s="162" t="s">
+        <v>17</v>
+      </c>
+      <c r="E199" s="164"/>
     </row>
     <row r="200" spans="1:5" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A200" s="162" t="s">
-        <v>1</v>
-      </c>
-      <c r="B200" s="163"/>
+      <c r="A200" s="165" t="s">
+        <v>1</v>
+      </c>
+      <c r="B200" s="166"/>
       <c r="C200" s="62">
         <v>0</v>
       </c>
-      <c r="D200" s="162" t="s">
-        <v>17</v>
-      </c>
-      <c r="E200" s="165"/>
+      <c r="D200" s="165" t="s">
+        <v>17</v>
+      </c>
+      <c r="E200" s="167"/>
     </row>
     <row r="201" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A201" s="168"/>
@@ -12799,10 +12806,10 @@
       <c r="B203" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C203" s="164" t="s">
+      <c r="C203" s="171" t="s">
         <v>83</v>
       </c>
-      <c r="D203" s="164"/>
+      <c r="D203" s="171"/>
       <c r="E203" s="26" t="s">
         <v>86</v>
       </c>
@@ -12874,31 +12881,31 @@
       <c r="E209" s="44"/>
     </row>
     <row r="210" spans="1:5" ht="26.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A210" s="166" t="s">
+      <c r="A210" s="162" t="s">
         <v>46</v>
       </c>
-      <c r="B210" s="171"/>
+      <c r="B210" s="163"/>
       <c r="C210" s="25">
         <f>ROUND((SUM(C204:C209)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D210" s="166" t="s">
-        <v>17</v>
-      </c>
-      <c r="E210" s="167"/>
+      <c r="D210" s="162" t="s">
+        <v>17</v>
+      </c>
+      <c r="E210" s="164"/>
     </row>
     <row r="211" spans="1:5" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A211" s="162" t="s">
-        <v>1</v>
-      </c>
-      <c r="B211" s="163"/>
+      <c r="A211" s="165" t="s">
+        <v>1</v>
+      </c>
+      <c r="B211" s="166"/>
       <c r="C211" s="62">
         <v>0</v>
       </c>
-      <c r="D211" s="162" t="s">
-        <v>17</v>
-      </c>
-      <c r="E211" s="165"/>
+      <c r="D211" s="165" t="s">
+        <v>17</v>
+      </c>
+      <c r="E211" s="167"/>
     </row>
     <row r="212" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A212" s="168"/>
@@ -12926,10 +12933,10 @@
       <c r="B214" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C214" s="164" t="s">
+      <c r="C214" s="171" t="s">
         <v>83</v>
       </c>
-      <c r="D214" s="164"/>
+      <c r="D214" s="171"/>
       <c r="E214" s="26" t="s">
         <v>86</v>
       </c>
@@ -13001,86 +13008,103 @@
       <c r="E220" s="44"/>
     </row>
     <row r="221" spans="1:5" ht="26.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A221" s="166" t="s">
+      <c r="A221" s="162" t="s">
         <v>46</v>
       </c>
-      <c r="B221" s="171"/>
+      <c r="B221" s="163"/>
       <c r="C221" s="25">
         <f>ROUND((SUM(C215:C220)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D221" s="166" t="s">
-        <v>17</v>
-      </c>
-      <c r="E221" s="167"/>
+      <c r="D221" s="162" t="s">
+        <v>17</v>
+      </c>
+      <c r="E221" s="164"/>
     </row>
     <row r="222" spans="1:5" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A222" s="162" t="s">
-        <v>1</v>
-      </c>
-      <c r="B222" s="163"/>
+      <c r="A222" s="165" t="s">
+        <v>1</v>
+      </c>
+      <c r="B222" s="166"/>
       <c r="C222" s="62">
         <v>0</v>
       </c>
-      <c r="D222" s="162" t="s">
-        <v>17</v>
-      </c>
-      <c r="E222" s="165"/>
+      <c r="D222" s="165" t="s">
+        <v>17</v>
+      </c>
+      <c r="E222" s="167"/>
     </row>
     <row r="223" spans="1:5" ht="13.5" thickTop="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="g3ZvYrwR03Dwo45rDtXXsAue3hZi3105AdEtMXHqQ4IoQiVEBud7K+JY0q7yvQH4wGLg6yPHKCt/bMn7k/VMfg==" saltValue="r7pz2F8ZFi0sdFhTPydVJQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" insertRows="0" deleteRows="0" selectLockedCells="1"/>
   <mergeCells count="141">
-    <mergeCell ref="A222:B222"/>
-    <mergeCell ref="D222:E222"/>
-    <mergeCell ref="A212:E212"/>
-    <mergeCell ref="A213:D213"/>
-    <mergeCell ref="C214:D214"/>
-    <mergeCell ref="A221:B221"/>
-    <mergeCell ref="D221:E221"/>
-    <mergeCell ref="C203:D203"/>
-    <mergeCell ref="A210:B210"/>
-    <mergeCell ref="D210:E210"/>
-    <mergeCell ref="A211:B211"/>
-    <mergeCell ref="D211:E211"/>
-    <mergeCell ref="A200:B200"/>
-    <mergeCell ref="D200:E200"/>
-    <mergeCell ref="A201:E201"/>
-    <mergeCell ref="A202:D202"/>
-    <mergeCell ref="A190:E190"/>
-    <mergeCell ref="A191:D191"/>
-    <mergeCell ref="C192:D192"/>
-    <mergeCell ref="A199:B199"/>
-    <mergeCell ref="D199:E199"/>
-    <mergeCell ref="C181:D181"/>
-    <mergeCell ref="A188:B188"/>
-    <mergeCell ref="D188:E188"/>
-    <mergeCell ref="A189:B189"/>
-    <mergeCell ref="D189:E189"/>
-    <mergeCell ref="A178:B178"/>
-    <mergeCell ref="D178:E178"/>
-    <mergeCell ref="A179:E179"/>
-    <mergeCell ref="A180:D180"/>
-    <mergeCell ref="A168:E168"/>
-    <mergeCell ref="A169:D169"/>
-    <mergeCell ref="C170:D170"/>
-    <mergeCell ref="A177:B177"/>
-    <mergeCell ref="D177:E177"/>
-    <mergeCell ref="A155:B155"/>
-    <mergeCell ref="D155:E155"/>
-    <mergeCell ref="A156:B156"/>
-    <mergeCell ref="D156:E156"/>
-    <mergeCell ref="A145:B145"/>
-    <mergeCell ref="D145:E145"/>
-    <mergeCell ref="A146:E146"/>
-    <mergeCell ref="A147:D147"/>
-    <mergeCell ref="A167:B167"/>
-    <mergeCell ref="D167:E167"/>
-    <mergeCell ref="A157:E157"/>
-    <mergeCell ref="A158:D158"/>
-    <mergeCell ref="C159:D159"/>
-    <mergeCell ref="A166:B166"/>
-    <mergeCell ref="D166:E166"/>
+    <mergeCell ref="A133:B133"/>
+    <mergeCell ref="A134:B134"/>
+    <mergeCell ref="D133:E133"/>
+    <mergeCell ref="D134:E134"/>
+    <mergeCell ref="A124:E124"/>
+    <mergeCell ref="D122:E122"/>
+    <mergeCell ref="D123:E123"/>
+    <mergeCell ref="C115:D115"/>
+    <mergeCell ref="A125:D125"/>
+    <mergeCell ref="C126:D126"/>
+    <mergeCell ref="A113:E113"/>
+    <mergeCell ref="D111:E111"/>
+    <mergeCell ref="D112:E112"/>
+    <mergeCell ref="A114:D114"/>
+    <mergeCell ref="A122:B122"/>
+    <mergeCell ref="A123:B123"/>
+    <mergeCell ref="A102:E102"/>
+    <mergeCell ref="D101:E101"/>
+    <mergeCell ref="A103:D103"/>
+    <mergeCell ref="C104:D104"/>
+    <mergeCell ref="A111:B111"/>
+    <mergeCell ref="A112:B112"/>
+    <mergeCell ref="A89:B89"/>
+    <mergeCell ref="A90:B90"/>
+    <mergeCell ref="D89:E89"/>
+    <mergeCell ref="A101:B101"/>
+    <mergeCell ref="A91:E91"/>
+    <mergeCell ref="A100:B100"/>
+    <mergeCell ref="D100:E100"/>
+    <mergeCell ref="A92:D92"/>
+    <mergeCell ref="C93:D93"/>
+    <mergeCell ref="D90:E90"/>
+    <mergeCell ref="D67:E67"/>
+    <mergeCell ref="A57:B57"/>
+    <mergeCell ref="D68:E68"/>
+    <mergeCell ref="A70:D70"/>
+    <mergeCell ref="A78:B78"/>
+    <mergeCell ref="A79:B79"/>
+    <mergeCell ref="A80:E80"/>
+    <mergeCell ref="D78:E78"/>
+    <mergeCell ref="D79:E79"/>
+    <mergeCell ref="C71:D71"/>
+    <mergeCell ref="A58:E58"/>
+    <mergeCell ref="A1:E2"/>
+    <mergeCell ref="A3:E3"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="A135:E135"/>
+    <mergeCell ref="A136:D136"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="A14:E14"/>
+    <mergeCell ref="A25:E25"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="A26:D26"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="A36:E36"/>
+    <mergeCell ref="A47:E47"/>
+    <mergeCell ref="A56:B56"/>
+    <mergeCell ref="D56:E56"/>
+    <mergeCell ref="A48:D48"/>
+    <mergeCell ref="C49:D49"/>
+    <mergeCell ref="D34:E34"/>
     <mergeCell ref="C137:D137"/>
     <mergeCell ref="A144:B144"/>
     <mergeCell ref="D144:E144"/>
@@ -13105,73 +13129,56 @@
     <mergeCell ref="A67:B67"/>
     <mergeCell ref="A68:B68"/>
     <mergeCell ref="A69:E69"/>
-    <mergeCell ref="A1:E2"/>
-    <mergeCell ref="A3:E3"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="A135:E135"/>
-    <mergeCell ref="A136:D136"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="A14:E14"/>
-    <mergeCell ref="A25:E25"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="A26:D26"/>
-    <mergeCell ref="A34:B34"/>
-    <mergeCell ref="A35:B35"/>
-    <mergeCell ref="A36:E36"/>
-    <mergeCell ref="A47:E47"/>
-    <mergeCell ref="A56:B56"/>
-    <mergeCell ref="D56:E56"/>
-    <mergeCell ref="A48:D48"/>
-    <mergeCell ref="C49:D49"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="D67:E67"/>
-    <mergeCell ref="A57:B57"/>
-    <mergeCell ref="D68:E68"/>
-    <mergeCell ref="A70:D70"/>
-    <mergeCell ref="A78:B78"/>
-    <mergeCell ref="A79:B79"/>
-    <mergeCell ref="A80:E80"/>
-    <mergeCell ref="D78:E78"/>
-    <mergeCell ref="D79:E79"/>
-    <mergeCell ref="C71:D71"/>
-    <mergeCell ref="A58:E58"/>
-    <mergeCell ref="A89:B89"/>
-    <mergeCell ref="A90:B90"/>
-    <mergeCell ref="D89:E89"/>
-    <mergeCell ref="A101:B101"/>
-    <mergeCell ref="A91:E91"/>
-    <mergeCell ref="A100:B100"/>
-    <mergeCell ref="D100:E100"/>
-    <mergeCell ref="A92:D92"/>
-    <mergeCell ref="C93:D93"/>
-    <mergeCell ref="D90:E90"/>
-    <mergeCell ref="A113:E113"/>
-    <mergeCell ref="D111:E111"/>
-    <mergeCell ref="D112:E112"/>
-    <mergeCell ref="A114:D114"/>
-    <mergeCell ref="A122:B122"/>
-    <mergeCell ref="A123:B123"/>
-    <mergeCell ref="A102:E102"/>
-    <mergeCell ref="D101:E101"/>
-    <mergeCell ref="A103:D103"/>
-    <mergeCell ref="C104:D104"/>
-    <mergeCell ref="A111:B111"/>
-    <mergeCell ref="A112:B112"/>
-    <mergeCell ref="A133:B133"/>
-    <mergeCell ref="A134:B134"/>
-    <mergeCell ref="D133:E133"/>
-    <mergeCell ref="D134:E134"/>
-    <mergeCell ref="A124:E124"/>
-    <mergeCell ref="D122:E122"/>
-    <mergeCell ref="D123:E123"/>
-    <mergeCell ref="C115:D115"/>
-    <mergeCell ref="A125:D125"/>
-    <mergeCell ref="C126:D126"/>
+    <mergeCell ref="A145:B145"/>
+    <mergeCell ref="D145:E145"/>
+    <mergeCell ref="A146:E146"/>
+    <mergeCell ref="A147:D147"/>
+    <mergeCell ref="A167:B167"/>
+    <mergeCell ref="D167:E167"/>
+    <mergeCell ref="A157:E157"/>
+    <mergeCell ref="A158:D158"/>
+    <mergeCell ref="C159:D159"/>
+    <mergeCell ref="A166:B166"/>
+    <mergeCell ref="D166:E166"/>
+    <mergeCell ref="A168:E168"/>
+    <mergeCell ref="A169:D169"/>
+    <mergeCell ref="C170:D170"/>
+    <mergeCell ref="A177:B177"/>
+    <mergeCell ref="D177:E177"/>
+    <mergeCell ref="A155:B155"/>
+    <mergeCell ref="D155:E155"/>
+    <mergeCell ref="A156:B156"/>
+    <mergeCell ref="D156:E156"/>
+    <mergeCell ref="C181:D181"/>
+    <mergeCell ref="A188:B188"/>
+    <mergeCell ref="D188:E188"/>
+    <mergeCell ref="A189:B189"/>
+    <mergeCell ref="D189:E189"/>
+    <mergeCell ref="A178:B178"/>
+    <mergeCell ref="D178:E178"/>
+    <mergeCell ref="A179:E179"/>
+    <mergeCell ref="A180:D180"/>
+    <mergeCell ref="A200:B200"/>
+    <mergeCell ref="D200:E200"/>
+    <mergeCell ref="A201:E201"/>
+    <mergeCell ref="A202:D202"/>
+    <mergeCell ref="A190:E190"/>
+    <mergeCell ref="A191:D191"/>
+    <mergeCell ref="C192:D192"/>
+    <mergeCell ref="A199:B199"/>
+    <mergeCell ref="D199:E199"/>
+    <mergeCell ref="A222:B222"/>
+    <mergeCell ref="D222:E222"/>
+    <mergeCell ref="A212:E212"/>
+    <mergeCell ref="A213:D213"/>
+    <mergeCell ref="C214:D214"/>
+    <mergeCell ref="A221:B221"/>
+    <mergeCell ref="D221:E221"/>
+    <mergeCell ref="C203:D203"/>
+    <mergeCell ref="A210:B210"/>
+    <mergeCell ref="D210:E210"/>
+    <mergeCell ref="A211:B211"/>
+    <mergeCell ref="D211:E211"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.4921259845" footer="0.4921259845"/>
@@ -13242,10 +13249,10 @@
       <c r="B5" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C5" s="164" t="s">
+      <c r="C5" s="171" t="s">
         <v>83</v>
       </c>
-      <c r="D5" s="164"/>
+      <c r="D5" s="171"/>
       <c r="E5" s="26" t="s">
         <v>86</v>
       </c>
@@ -13325,10 +13332,10 @@
         <f>ROUND((SUM(C6:C11)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D12" s="166" t="s">
-        <v>17</v>
-      </c>
-      <c r="E12" s="167"/>
+      <c r="D12" s="162" t="s">
+        <v>17</v>
+      </c>
+      <c r="E12" s="164"/>
     </row>
     <row r="13" spans="1:5" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="174" t="s">
@@ -13369,10 +13376,10 @@
       <c r="B16" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C16" s="164" t="s">
+      <c r="C16" s="171" t="s">
         <v>83</v>
       </c>
-      <c r="D16" s="164"/>
+      <c r="D16" s="171"/>
       <c r="E16" s="26" t="s">
         <v>86</v>
       </c>
@@ -13444,31 +13451,31 @@
       <c r="E22" s="44"/>
     </row>
     <row r="23" spans="1:5" ht="26.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="166" t="s">
+      <c r="A23" s="162" t="s">
         <v>46</v>
       </c>
-      <c r="B23" s="171"/>
+      <c r="B23" s="163"/>
       <c r="C23" s="25">
         <f>ROUND((SUM(C17:C22)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D23" s="166" t="s">
-        <v>17</v>
-      </c>
-      <c r="E23" s="167"/>
+      <c r="D23" s="162" t="s">
+        <v>17</v>
+      </c>
+      <c r="E23" s="164"/>
     </row>
     <row r="24" spans="1:5" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="162" t="s">
-        <v>1</v>
-      </c>
-      <c r="B24" s="163"/>
+      <c r="A24" s="165" t="s">
+        <v>1</v>
+      </c>
+      <c r="B24" s="166"/>
       <c r="C24" s="62">
         <v>0</v>
       </c>
-      <c r="D24" s="162" t="s">
-        <v>17</v>
-      </c>
-      <c r="E24" s="165"/>
+      <c r="D24" s="165" t="s">
+        <v>17</v>
+      </c>
+      <c r="E24" s="167"/>
     </row>
     <row r="25" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A25" s="168"/>
@@ -13496,10 +13503,10 @@
       <c r="B27" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C27" s="164" t="s">
+      <c r="C27" s="171" t="s">
         <v>83</v>
       </c>
-      <c r="D27" s="164"/>
+      <c r="D27" s="171"/>
       <c r="E27" s="26" t="s">
         <v>86</v>
       </c>
@@ -13571,31 +13578,31 @@
       <c r="E33" s="44"/>
     </row>
     <row r="34" spans="1:5" ht="26.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="166" t="s">
+      <c r="A34" s="162" t="s">
         <v>46</v>
       </c>
-      <c r="B34" s="171"/>
+      <c r="B34" s="163"/>
       <c r="C34" s="25">
         <f>ROUND((SUM(C28:C33)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D34" s="166" t="s">
-        <v>17</v>
-      </c>
-      <c r="E34" s="167"/>
+      <c r="D34" s="162" t="s">
+        <v>17</v>
+      </c>
+      <c r="E34" s="164"/>
     </row>
     <row r="35" spans="1:5" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="162" t="s">
-        <v>1</v>
-      </c>
-      <c r="B35" s="163"/>
+      <c r="A35" s="165" t="s">
+        <v>1</v>
+      </c>
+      <c r="B35" s="166"/>
       <c r="C35" s="62">
         <v>0</v>
       </c>
-      <c r="D35" s="162" t="s">
-        <v>17</v>
-      </c>
-      <c r="E35" s="165"/>
+      <c r="D35" s="165" t="s">
+        <v>17</v>
+      </c>
+      <c r="E35" s="167"/>
     </row>
     <row r="36" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A36" s="168"/>
@@ -13623,10 +13630,10 @@
       <c r="B38" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C38" s="164" t="s">
+      <c r="C38" s="171" t="s">
         <v>83</v>
       </c>
-      <c r="D38" s="164"/>
+      <c r="D38" s="171"/>
       <c r="E38" s="26" t="s">
         <v>86</v>
       </c>
@@ -13698,31 +13705,31 @@
       <c r="E44" s="44"/>
     </row>
     <row r="45" spans="1:5" ht="26.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="166" t="s">
+      <c r="A45" s="162" t="s">
         <v>46</v>
       </c>
-      <c r="B45" s="171"/>
+      <c r="B45" s="163"/>
       <c r="C45" s="25">
         <f>ROUND((SUM(C39:C44)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D45" s="166" t="s">
-        <v>17</v>
-      </c>
-      <c r="E45" s="167"/>
+      <c r="D45" s="162" t="s">
+        <v>17</v>
+      </c>
+      <c r="E45" s="164"/>
     </row>
     <row r="46" spans="1:5" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="162" t="s">
-        <v>1</v>
-      </c>
-      <c r="B46" s="163"/>
+      <c r="A46" s="165" t="s">
+        <v>1</v>
+      </c>
+      <c r="B46" s="166"/>
       <c r="C46" s="62">
         <v>0</v>
       </c>
-      <c r="D46" s="162" t="s">
-        <v>17</v>
-      </c>
-      <c r="E46" s="165"/>
+      <c r="D46" s="165" t="s">
+        <v>17</v>
+      </c>
+      <c r="E46" s="167"/>
     </row>
     <row r="47" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A47" s="168"/>
@@ -13750,10 +13757,10 @@
       <c r="B49" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C49" s="164" t="s">
+      <c r="C49" s="171" t="s">
         <v>83</v>
       </c>
-      <c r="D49" s="164"/>
+      <c r="D49" s="171"/>
       <c r="E49" s="26" t="s">
         <v>86</v>
       </c>
@@ -13825,31 +13832,31 @@
       <c r="E55" s="44"/>
     </row>
     <row r="56" spans="1:5" ht="26.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="166" t="s">
+      <c r="A56" s="162" t="s">
         <v>46</v>
       </c>
-      <c r="B56" s="171"/>
+      <c r="B56" s="163"/>
       <c r="C56" s="25">
         <f>ROUND((SUM(C50:C55)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D56" s="166" t="s">
-        <v>17</v>
-      </c>
-      <c r="E56" s="167"/>
+      <c r="D56" s="162" t="s">
+        <v>17</v>
+      </c>
+      <c r="E56" s="164"/>
     </row>
     <row r="57" spans="1:5" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="162" t="s">
-        <v>1</v>
-      </c>
-      <c r="B57" s="163"/>
+      <c r="A57" s="165" t="s">
+        <v>1</v>
+      </c>
+      <c r="B57" s="166"/>
       <c r="C57" s="62">
         <v>0</v>
       </c>
-      <c r="D57" s="162" t="s">
-        <v>17</v>
-      </c>
-      <c r="E57" s="165"/>
+      <c r="D57" s="165" t="s">
+        <v>17</v>
+      </c>
+      <c r="E57" s="167"/>
     </row>
     <row r="58" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A58" s="168"/>
@@ -13877,10 +13884,10 @@
       <c r="B60" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C60" s="164" t="s">
+      <c r="C60" s="171" t="s">
         <v>83</v>
       </c>
-      <c r="D60" s="164"/>
+      <c r="D60" s="171"/>
       <c r="E60" s="26" t="s">
         <v>86</v>
       </c>
@@ -13952,31 +13959,31 @@
       <c r="E66" s="44"/>
     </row>
     <row r="67" spans="1:5" ht="26.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="166" t="s">
+      <c r="A67" s="162" t="s">
         <v>46</v>
       </c>
-      <c r="B67" s="171"/>
+      <c r="B67" s="163"/>
       <c r="C67" s="25">
         <f>ROUND((SUM(C61:C66)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D67" s="166" t="s">
-        <v>17</v>
-      </c>
-      <c r="E67" s="167"/>
+      <c r="D67" s="162" t="s">
+        <v>17</v>
+      </c>
+      <c r="E67" s="164"/>
     </row>
     <row r="68" spans="1:5" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="162" t="s">
-        <v>1</v>
-      </c>
-      <c r="B68" s="163"/>
+      <c r="A68" s="165" t="s">
+        <v>1</v>
+      </c>
+      <c r="B68" s="166"/>
       <c r="C68" s="62">
         <v>0</v>
       </c>
-      <c r="D68" s="162" t="s">
-        <v>17</v>
-      </c>
-      <c r="E68" s="165"/>
+      <c r="D68" s="165" t="s">
+        <v>17</v>
+      </c>
+      <c r="E68" s="167"/>
     </row>
     <row r="69" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A69" s="168"/>
@@ -14004,10 +14011,10 @@
       <c r="B71" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C71" s="164" t="s">
+      <c r="C71" s="171" t="s">
         <v>83</v>
       </c>
-      <c r="D71" s="164"/>
+      <c r="D71" s="171"/>
       <c r="E71" s="26" t="s">
         <v>86</v>
       </c>
@@ -14079,31 +14086,31 @@
       <c r="E77" s="44"/>
     </row>
     <row r="78" spans="1:5" ht="26.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A78" s="166" t="s">
+      <c r="A78" s="162" t="s">
         <v>46</v>
       </c>
-      <c r="B78" s="171"/>
+      <c r="B78" s="163"/>
       <c r="C78" s="25">
         <f>ROUND((SUM(C72:C77)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D78" s="166" t="s">
-        <v>17</v>
-      </c>
-      <c r="E78" s="167"/>
+      <c r="D78" s="162" t="s">
+        <v>17</v>
+      </c>
+      <c r="E78" s="164"/>
     </row>
     <row r="79" spans="1:5" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="162" t="s">
-        <v>1</v>
-      </c>
-      <c r="B79" s="163"/>
+      <c r="A79" s="165" t="s">
+        <v>1</v>
+      </c>
+      <c r="B79" s="166"/>
       <c r="C79" s="62">
         <v>0</v>
       </c>
-      <c r="D79" s="162" t="s">
-        <v>17</v>
-      </c>
-      <c r="E79" s="165"/>
+      <c r="D79" s="165" t="s">
+        <v>17</v>
+      </c>
+      <c r="E79" s="167"/>
     </row>
     <row r="80" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A80" s="168"/>
@@ -14131,10 +14138,10 @@
       <c r="B82" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C82" s="164" t="s">
+      <c r="C82" s="171" t="s">
         <v>83</v>
       </c>
-      <c r="D82" s="164"/>
+      <c r="D82" s="171"/>
       <c r="E82" s="26" t="s">
         <v>86</v>
       </c>
@@ -14206,31 +14213,31 @@
       <c r="E88" s="44"/>
     </row>
     <row r="89" spans="1:5" ht="26.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A89" s="166" t="s">
+      <c r="A89" s="162" t="s">
         <v>46</v>
       </c>
-      <c r="B89" s="171"/>
+      <c r="B89" s="163"/>
       <c r="C89" s="25">
         <f>ROUND((SUM(C83:C88)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D89" s="166" t="s">
-        <v>17</v>
-      </c>
-      <c r="E89" s="167"/>
+      <c r="D89" s="162" t="s">
+        <v>17</v>
+      </c>
+      <c r="E89" s="164"/>
     </row>
     <row r="90" spans="1:5" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="162" t="s">
-        <v>1</v>
-      </c>
-      <c r="B90" s="163"/>
+      <c r="A90" s="165" t="s">
+        <v>1</v>
+      </c>
+      <c r="B90" s="166"/>
       <c r="C90" s="62">
         <v>0</v>
       </c>
-      <c r="D90" s="162" t="s">
-        <v>17</v>
-      </c>
-      <c r="E90" s="165"/>
+      <c r="D90" s="165" t="s">
+        <v>17</v>
+      </c>
+      <c r="E90" s="167"/>
     </row>
     <row r="91" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A91" s="168"/>
@@ -14258,10 +14265,10 @@
       <c r="B93" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C93" s="164" t="s">
+      <c r="C93" s="171" t="s">
         <v>83</v>
       </c>
-      <c r="D93" s="164"/>
+      <c r="D93" s="171"/>
       <c r="E93" s="26" t="s">
         <v>86</v>
       </c>
@@ -14333,31 +14340,31 @@
       <c r="E99" s="44"/>
     </row>
     <row r="100" spans="1:5" ht="26.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A100" s="166" t="s">
+      <c r="A100" s="162" t="s">
         <v>46</v>
       </c>
-      <c r="B100" s="171"/>
+      <c r="B100" s="163"/>
       <c r="C100" s="25">
         <f>ROUND((SUM(C94:C99)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D100" s="166" t="s">
-        <v>17</v>
-      </c>
-      <c r="E100" s="167"/>
+      <c r="D100" s="162" t="s">
+        <v>17</v>
+      </c>
+      <c r="E100" s="164"/>
     </row>
     <row r="101" spans="1:5" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A101" s="162" t="s">
-        <v>1</v>
-      </c>
-      <c r="B101" s="163"/>
+      <c r="A101" s="165" t="s">
+        <v>1</v>
+      </c>
+      <c r="B101" s="166"/>
       <c r="C101" s="62">
         <v>0</v>
       </c>
-      <c r="D101" s="162" t="s">
-        <v>17</v>
-      </c>
-      <c r="E101" s="165"/>
+      <c r="D101" s="165" t="s">
+        <v>17</v>
+      </c>
+      <c r="E101" s="167"/>
     </row>
     <row r="102" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A102" s="168"/>
@@ -14385,10 +14392,10 @@
       <c r="B104" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C104" s="164" t="s">
+      <c r="C104" s="171" t="s">
         <v>83</v>
       </c>
-      <c r="D104" s="164"/>
+      <c r="D104" s="171"/>
       <c r="E104" s="26" t="s">
         <v>86</v>
       </c>
@@ -14460,31 +14467,31 @@
       <c r="E110" s="44"/>
     </row>
     <row r="111" spans="1:5" ht="26.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A111" s="166" t="s">
+      <c r="A111" s="162" t="s">
         <v>46</v>
       </c>
-      <c r="B111" s="171"/>
+      <c r="B111" s="163"/>
       <c r="C111" s="25">
         <f>ROUND((SUM(C105:C110)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D111" s="166" t="s">
-        <v>17</v>
-      </c>
-      <c r="E111" s="167"/>
+      <c r="D111" s="162" t="s">
+        <v>17</v>
+      </c>
+      <c r="E111" s="164"/>
     </row>
     <row r="112" spans="1:5" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A112" s="162" t="s">
-        <v>1</v>
-      </c>
-      <c r="B112" s="163"/>
+      <c r="A112" s="165" t="s">
+        <v>1</v>
+      </c>
+      <c r="B112" s="166"/>
       <c r="C112" s="62">
         <v>0</v>
       </c>
-      <c r="D112" s="162" t="s">
-        <v>17</v>
-      </c>
-      <c r="E112" s="165"/>
+      <c r="D112" s="165" t="s">
+        <v>17</v>
+      </c>
+      <c r="E112" s="167"/>
     </row>
     <row r="113" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A113" s="168"/>
@@ -14512,10 +14519,10 @@
       <c r="B115" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C115" s="164" t="s">
+      <c r="C115" s="171" t="s">
         <v>83</v>
       </c>
-      <c r="D115" s="164"/>
+      <c r="D115" s="171"/>
       <c r="E115" s="26" t="s">
         <v>86</v>
       </c>
@@ -14587,31 +14594,31 @@
       <c r="E121" s="44"/>
     </row>
     <row r="122" spans="1:5" ht="26.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A122" s="166" t="s">
+      <c r="A122" s="162" t="s">
         <v>46</v>
       </c>
-      <c r="B122" s="171"/>
+      <c r="B122" s="163"/>
       <c r="C122" s="25">
         <f>ROUND((SUM(C116:C121)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D122" s="166" t="s">
-        <v>17</v>
-      </c>
-      <c r="E122" s="167"/>
+      <c r="D122" s="162" t="s">
+        <v>17</v>
+      </c>
+      <c r="E122" s="164"/>
     </row>
     <row r="123" spans="1:5" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A123" s="162" t="s">
-        <v>1</v>
-      </c>
-      <c r="B123" s="163"/>
+      <c r="A123" s="165" t="s">
+        <v>1</v>
+      </c>
+      <c r="B123" s="166"/>
       <c r="C123" s="62">
         <v>0</v>
       </c>
-      <c r="D123" s="162" t="s">
-        <v>17</v>
-      </c>
-      <c r="E123" s="165"/>
+      <c r="D123" s="165" t="s">
+        <v>17</v>
+      </c>
+      <c r="E123" s="167"/>
     </row>
     <row r="124" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A124" s="168"/>
@@ -14639,10 +14646,10 @@
       <c r="B126" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C126" s="164" t="s">
+      <c r="C126" s="171" t="s">
         <v>83</v>
       </c>
-      <c r="D126" s="164"/>
+      <c r="D126" s="171"/>
       <c r="E126" s="26" t="s">
         <v>86</v>
       </c>
@@ -14714,31 +14721,31 @@
       <c r="E132" s="44"/>
     </row>
     <row r="133" spans="1:5" ht="26.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A133" s="166" t="s">
+      <c r="A133" s="162" t="s">
         <v>46</v>
       </c>
-      <c r="B133" s="171"/>
+      <c r="B133" s="163"/>
       <c r="C133" s="25">
         <f>ROUND((SUM(C127:C132)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D133" s="166" t="s">
-        <v>17</v>
-      </c>
-      <c r="E133" s="167"/>
+      <c r="D133" s="162" t="s">
+        <v>17</v>
+      </c>
+      <c r="E133" s="164"/>
     </row>
     <row r="134" spans="1:5" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A134" s="162" t="s">
-        <v>1</v>
-      </c>
-      <c r="B134" s="163"/>
+      <c r="A134" s="165" t="s">
+        <v>1</v>
+      </c>
+      <c r="B134" s="166"/>
       <c r="C134" s="62">
         <v>0</v>
       </c>
-      <c r="D134" s="162" t="s">
-        <v>17</v>
-      </c>
-      <c r="E134" s="165"/>
+      <c r="D134" s="165" t="s">
+        <v>17</v>
+      </c>
+      <c r="E134" s="167"/>
     </row>
     <row r="135" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A135" s="168"/>
@@ -14766,10 +14773,10 @@
       <c r="B137" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C137" s="164" t="s">
+      <c r="C137" s="171" t="s">
         <v>83</v>
       </c>
-      <c r="D137" s="164"/>
+      <c r="D137" s="171"/>
       <c r="E137" s="26" t="s">
         <v>86</v>
       </c>
@@ -14841,31 +14848,31 @@
       <c r="E143" s="44"/>
     </row>
     <row r="144" spans="1:5" ht="26.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A144" s="166" t="s">
+      <c r="A144" s="162" t="s">
         <v>46</v>
       </c>
-      <c r="B144" s="171"/>
+      <c r="B144" s="163"/>
       <c r="C144" s="25">
         <f>ROUND((SUM(C138:C143)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D144" s="166" t="s">
-        <v>17</v>
-      </c>
-      <c r="E144" s="167"/>
+      <c r="D144" s="162" t="s">
+        <v>17</v>
+      </c>
+      <c r="E144" s="164"/>
     </row>
     <row r="145" spans="1:5" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A145" s="162" t="s">
-        <v>1</v>
-      </c>
-      <c r="B145" s="163"/>
+      <c r="A145" s="165" t="s">
+        <v>1</v>
+      </c>
+      <c r="B145" s="166"/>
       <c r="C145" s="62">
         <v>0</v>
       </c>
-      <c r="D145" s="162" t="s">
-        <v>17</v>
-      </c>
-      <c r="E145" s="165"/>
+      <c r="D145" s="165" t="s">
+        <v>17</v>
+      </c>
+      <c r="E145" s="167"/>
     </row>
     <row r="146" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A146" s="168"/>
@@ -14893,10 +14900,10 @@
       <c r="B148" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C148" s="164" t="s">
+      <c r="C148" s="171" t="s">
         <v>83</v>
       </c>
-      <c r="D148" s="164"/>
+      <c r="D148" s="171"/>
       <c r="E148" s="26" t="s">
         <v>86</v>
       </c>
@@ -14968,31 +14975,31 @@
       <c r="E154" s="44"/>
     </row>
     <row r="155" spans="1:5" ht="26.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A155" s="166" t="s">
+      <c r="A155" s="162" t="s">
         <v>46</v>
       </c>
-      <c r="B155" s="171"/>
+      <c r="B155" s="163"/>
       <c r="C155" s="25">
         <f>ROUND((SUM(C149:C154)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D155" s="166" t="s">
-        <v>17</v>
-      </c>
-      <c r="E155" s="167"/>
+      <c r="D155" s="162" t="s">
+        <v>17</v>
+      </c>
+      <c r="E155" s="164"/>
     </row>
     <row r="156" spans="1:5" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A156" s="162" t="s">
-        <v>1</v>
-      </c>
-      <c r="B156" s="163"/>
+      <c r="A156" s="165" t="s">
+        <v>1</v>
+      </c>
+      <c r="B156" s="166"/>
       <c r="C156" s="62">
         <v>0</v>
       </c>
-      <c r="D156" s="162" t="s">
-        <v>17</v>
-      </c>
-      <c r="E156" s="165"/>
+      <c r="D156" s="165" t="s">
+        <v>17</v>
+      </c>
+      <c r="E156" s="167"/>
     </row>
     <row r="157" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A157" s="168"/>
@@ -15020,10 +15027,10 @@
       <c r="B159" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C159" s="164" t="s">
+      <c r="C159" s="171" t="s">
         <v>83</v>
       </c>
-      <c r="D159" s="164"/>
+      <c r="D159" s="171"/>
       <c r="E159" s="26" t="s">
         <v>86</v>
       </c>
@@ -15095,31 +15102,31 @@
       <c r="E165" s="44"/>
     </row>
     <row r="166" spans="1:5" ht="26.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A166" s="166" t="s">
+      <c r="A166" s="162" t="s">
         <v>46</v>
       </c>
-      <c r="B166" s="171"/>
+      <c r="B166" s="163"/>
       <c r="C166" s="25">
         <f>ROUND((SUM(C160:C165)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D166" s="166" t="s">
-        <v>17</v>
-      </c>
-      <c r="E166" s="167"/>
+      <c r="D166" s="162" t="s">
+        <v>17</v>
+      </c>
+      <c r="E166" s="164"/>
     </row>
     <row r="167" spans="1:5" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A167" s="162" t="s">
-        <v>1</v>
-      </c>
-      <c r="B167" s="163"/>
+      <c r="A167" s="165" t="s">
+        <v>1</v>
+      </c>
+      <c r="B167" s="166"/>
       <c r="C167" s="62">
         <v>0</v>
       </c>
-      <c r="D167" s="162" t="s">
-        <v>17</v>
-      </c>
-      <c r="E167" s="165"/>
+      <c r="D167" s="165" t="s">
+        <v>17</v>
+      </c>
+      <c r="E167" s="167"/>
     </row>
     <row r="168" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A168" s="168"/>
@@ -15147,10 +15154,10 @@
       <c r="B170" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C170" s="164" t="s">
+      <c r="C170" s="171" t="s">
         <v>83</v>
       </c>
-      <c r="D170" s="164"/>
+      <c r="D170" s="171"/>
       <c r="E170" s="26" t="s">
         <v>86</v>
       </c>
@@ -15222,31 +15229,31 @@
       <c r="E176" s="44"/>
     </row>
     <row r="177" spans="1:5" ht="26.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A177" s="166" t="s">
+      <c r="A177" s="162" t="s">
         <v>46</v>
       </c>
-      <c r="B177" s="171"/>
+      <c r="B177" s="163"/>
       <c r="C177" s="25">
         <f>ROUND((SUM(C171:C176)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D177" s="166" t="s">
-        <v>17</v>
-      </c>
-      <c r="E177" s="167"/>
+      <c r="D177" s="162" t="s">
+        <v>17</v>
+      </c>
+      <c r="E177" s="164"/>
     </row>
     <row r="178" spans="1:5" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A178" s="162" t="s">
-        <v>1</v>
-      </c>
-      <c r="B178" s="163"/>
+      <c r="A178" s="165" t="s">
+        <v>1</v>
+      </c>
+      <c r="B178" s="166"/>
       <c r="C178" s="62">
         <v>0</v>
       </c>
-      <c r="D178" s="162" t="s">
-        <v>17</v>
-      </c>
-      <c r="E178" s="165"/>
+      <c r="D178" s="165" t="s">
+        <v>17</v>
+      </c>
+      <c r="E178" s="167"/>
     </row>
     <row r="179" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A179" s="168"/>
@@ -15274,10 +15281,10 @@
       <c r="B181" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C181" s="164" t="s">
+      <c r="C181" s="171" t="s">
         <v>83</v>
       </c>
-      <c r="D181" s="164"/>
+      <c r="D181" s="171"/>
       <c r="E181" s="26" t="s">
         <v>86</v>
       </c>
@@ -15349,31 +15356,31 @@
       <c r="E187" s="44"/>
     </row>
     <row r="188" spans="1:5" ht="26.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A188" s="166" t="s">
+      <c r="A188" s="162" t="s">
         <v>46</v>
       </c>
-      <c r="B188" s="171"/>
+      <c r="B188" s="163"/>
       <c r="C188" s="25">
         <f>ROUND((SUM(C182:C187)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D188" s="166" t="s">
-        <v>17</v>
-      </c>
-      <c r="E188" s="167"/>
+      <c r="D188" s="162" t="s">
+        <v>17</v>
+      </c>
+      <c r="E188" s="164"/>
     </row>
     <row r="189" spans="1:5" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A189" s="162" t="s">
-        <v>1</v>
-      </c>
-      <c r="B189" s="163"/>
+      <c r="A189" s="165" t="s">
+        <v>1</v>
+      </c>
+      <c r="B189" s="166"/>
       <c r="C189" s="62">
         <v>0</v>
       </c>
-      <c r="D189" s="162" t="s">
-        <v>17</v>
-      </c>
-      <c r="E189" s="165"/>
+      <c r="D189" s="165" t="s">
+        <v>17</v>
+      </c>
+      <c r="E189" s="167"/>
     </row>
     <row r="190" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A190" s="168"/>
@@ -15401,10 +15408,10 @@
       <c r="B192" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C192" s="164" t="s">
+      <c r="C192" s="171" t="s">
         <v>83</v>
       </c>
-      <c r="D192" s="164"/>
+      <c r="D192" s="171"/>
       <c r="E192" s="26" t="s">
         <v>86</v>
       </c>
@@ -15476,31 +15483,31 @@
       <c r="E198" s="44"/>
     </row>
     <row r="199" spans="1:5" ht="26.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A199" s="166" t="s">
+      <c r="A199" s="162" t="s">
         <v>46</v>
       </c>
-      <c r="B199" s="171"/>
+      <c r="B199" s="163"/>
       <c r="C199" s="25">
         <f>ROUND((SUM(C193:C198)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D199" s="166" t="s">
-        <v>17</v>
-      </c>
-      <c r="E199" s="167"/>
+      <c r="D199" s="162" t="s">
+        <v>17</v>
+      </c>
+      <c r="E199" s="164"/>
     </row>
     <row r="200" spans="1:5" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A200" s="162" t="s">
-        <v>1</v>
-      </c>
-      <c r="B200" s="163"/>
+      <c r="A200" s="165" t="s">
+        <v>1</v>
+      </c>
+      <c r="B200" s="166"/>
       <c r="C200" s="62">
         <v>0</v>
       </c>
-      <c r="D200" s="162" t="s">
-        <v>17</v>
-      </c>
-      <c r="E200" s="165"/>
+      <c r="D200" s="165" t="s">
+        <v>17</v>
+      </c>
+      <c r="E200" s="167"/>
     </row>
     <row r="201" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A201" s="168"/>
@@ -15528,10 +15535,10 @@
       <c r="B203" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C203" s="164" t="s">
+      <c r="C203" s="171" t="s">
         <v>83</v>
       </c>
-      <c r="D203" s="164"/>
+      <c r="D203" s="171"/>
       <c r="E203" s="26" t="s">
         <v>86</v>
       </c>
@@ -15603,31 +15610,31 @@
       <c r="E209" s="44"/>
     </row>
     <row r="210" spans="1:5" ht="26.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A210" s="166" t="s">
+      <c r="A210" s="162" t="s">
         <v>46</v>
       </c>
-      <c r="B210" s="171"/>
+      <c r="B210" s="163"/>
       <c r="C210" s="25">
         <f>ROUND((SUM(C204:C209)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D210" s="166" t="s">
-        <v>17</v>
-      </c>
-      <c r="E210" s="167"/>
+      <c r="D210" s="162" t="s">
+        <v>17</v>
+      </c>
+      <c r="E210" s="164"/>
     </row>
     <row r="211" spans="1:5" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A211" s="162" t="s">
-        <v>1</v>
-      </c>
-      <c r="B211" s="163"/>
+      <c r="A211" s="165" t="s">
+        <v>1</v>
+      </c>
+      <c r="B211" s="166"/>
       <c r="C211" s="62">
         <v>0</v>
       </c>
-      <c r="D211" s="162" t="s">
-        <v>17</v>
-      </c>
-      <c r="E211" s="165"/>
+      <c r="D211" s="165" t="s">
+        <v>17</v>
+      </c>
+      <c r="E211" s="167"/>
     </row>
     <row r="212" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A212" s="168"/>
@@ -15655,10 +15662,10 @@
       <c r="B214" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C214" s="164" t="s">
+      <c r="C214" s="171" t="s">
         <v>83</v>
       </c>
-      <c r="D214" s="164"/>
+      <c r="D214" s="171"/>
       <c r="E214" s="26" t="s">
         <v>86</v>
       </c>
@@ -15730,110 +15737,87 @@
       <c r="E220" s="44"/>
     </row>
     <row r="221" spans="1:5" ht="26.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A221" s="166" t="s">
+      <c r="A221" s="162" t="s">
         <v>46</v>
       </c>
-      <c r="B221" s="171"/>
+      <c r="B221" s="163"/>
       <c r="C221" s="25">
         <f>ROUND((SUM(C215:C220)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D221" s="166" t="s">
-        <v>17</v>
-      </c>
-      <c r="E221" s="167"/>
+      <c r="D221" s="162" t="s">
+        <v>17</v>
+      </c>
+      <c r="E221" s="164"/>
     </row>
     <row r="222" spans="1:5" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A222" s="162" t="s">
-        <v>1</v>
-      </c>
-      <c r="B222" s="163"/>
+      <c r="A222" s="165" t="s">
+        <v>1</v>
+      </c>
+      <c r="B222" s="166"/>
       <c r="C222" s="62">
         <v>0</v>
       </c>
-      <c r="D222" s="162" t="s">
-        <v>17</v>
-      </c>
-      <c r="E222" s="165"/>
+      <c r="D222" s="165" t="s">
+        <v>17</v>
+      </c>
+      <c r="E222" s="167"/>
     </row>
     <row r="223" spans="1:5" ht="13.5" thickTop="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="ShHLx6295kERz/sxE7+/vkTV4PStK5pLtBbY3qMZ7fOBmXtpitxoAJt/ez1hwpRN8ZXwHfDaRYIfCiDZt/YWAA==" saltValue="N+ySqIUy80dAlB/CGO0woQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" insertRows="0" deleteRows="0" selectLockedCells="1"/>
   <mergeCells count="141">
-    <mergeCell ref="A210:B210"/>
-    <mergeCell ref="D210:E210"/>
-    <mergeCell ref="A211:B211"/>
-    <mergeCell ref="D211:E211"/>
-    <mergeCell ref="A200:B200"/>
-    <mergeCell ref="D200:E200"/>
-    <mergeCell ref="A201:E201"/>
-    <mergeCell ref="A202:D202"/>
-    <mergeCell ref="A222:B222"/>
-    <mergeCell ref="D222:E222"/>
-    <mergeCell ref="A212:E212"/>
-    <mergeCell ref="A213:D213"/>
-    <mergeCell ref="C214:D214"/>
-    <mergeCell ref="A221:B221"/>
-    <mergeCell ref="D221:E221"/>
-    <mergeCell ref="C192:D192"/>
-    <mergeCell ref="A199:B199"/>
-    <mergeCell ref="D199:E199"/>
-    <mergeCell ref="C181:D181"/>
-    <mergeCell ref="A188:B188"/>
-    <mergeCell ref="D188:E188"/>
-    <mergeCell ref="A189:B189"/>
-    <mergeCell ref="D189:E189"/>
-    <mergeCell ref="C203:D203"/>
-    <mergeCell ref="A179:E179"/>
-    <mergeCell ref="A180:D180"/>
-    <mergeCell ref="A168:E168"/>
-    <mergeCell ref="A169:D169"/>
-    <mergeCell ref="C170:D170"/>
-    <mergeCell ref="A177:B177"/>
-    <mergeCell ref="D177:E177"/>
-    <mergeCell ref="A190:E190"/>
-    <mergeCell ref="A191:D191"/>
-    <mergeCell ref="A167:B167"/>
-    <mergeCell ref="D167:E167"/>
-    <mergeCell ref="A157:E157"/>
-    <mergeCell ref="A158:D158"/>
-    <mergeCell ref="C159:D159"/>
-    <mergeCell ref="A166:B166"/>
-    <mergeCell ref="D166:E166"/>
-    <mergeCell ref="A178:B178"/>
-    <mergeCell ref="D178:E178"/>
-    <mergeCell ref="C148:D148"/>
-    <mergeCell ref="A155:B155"/>
-    <mergeCell ref="D155:E155"/>
-    <mergeCell ref="A156:B156"/>
-    <mergeCell ref="D156:E156"/>
-    <mergeCell ref="A145:B145"/>
-    <mergeCell ref="D145:E145"/>
-    <mergeCell ref="A146:E146"/>
-    <mergeCell ref="A147:D147"/>
-    <mergeCell ref="A135:E135"/>
-    <mergeCell ref="A136:D136"/>
-    <mergeCell ref="C137:D137"/>
-    <mergeCell ref="A144:B144"/>
-    <mergeCell ref="D144:E144"/>
-    <mergeCell ref="A133:B133"/>
-    <mergeCell ref="A134:B134"/>
-    <mergeCell ref="D133:E133"/>
-    <mergeCell ref="D134:E134"/>
-    <mergeCell ref="C115:D115"/>
-    <mergeCell ref="A111:B111"/>
-    <mergeCell ref="A112:B112"/>
-    <mergeCell ref="A113:E113"/>
-    <mergeCell ref="D111:E111"/>
-    <mergeCell ref="D112:E112"/>
-    <mergeCell ref="A114:D114"/>
-    <mergeCell ref="A125:D125"/>
-    <mergeCell ref="C126:D126"/>
-    <mergeCell ref="A122:B122"/>
-    <mergeCell ref="A123:B123"/>
-    <mergeCell ref="A124:E124"/>
-    <mergeCell ref="D122:E122"/>
-    <mergeCell ref="D123:E123"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A1:E2"/>
+    <mergeCell ref="A3:E3"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="A14:E14"/>
+    <mergeCell ref="A25:E25"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A26:D26"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="A36:E36"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="D35:E35"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="A46:B46"/>
+    <mergeCell ref="D45:E45"/>
+    <mergeCell ref="D46:E46"/>
+    <mergeCell ref="A37:D37"/>
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="C60:D60"/>
+    <mergeCell ref="A47:E47"/>
+    <mergeCell ref="A56:B56"/>
+    <mergeCell ref="D56:E56"/>
+    <mergeCell ref="A48:D48"/>
+    <mergeCell ref="C49:D49"/>
+    <mergeCell ref="A57:B57"/>
+    <mergeCell ref="A58:E58"/>
+    <mergeCell ref="D57:E57"/>
+    <mergeCell ref="A59:D59"/>
+    <mergeCell ref="A67:B67"/>
+    <mergeCell ref="A68:B68"/>
+    <mergeCell ref="A69:E69"/>
+    <mergeCell ref="D67:E67"/>
+    <mergeCell ref="D68:E68"/>
+    <mergeCell ref="A70:D70"/>
+    <mergeCell ref="A78:B78"/>
+    <mergeCell ref="A79:B79"/>
+    <mergeCell ref="A80:E80"/>
+    <mergeCell ref="D78:E78"/>
+    <mergeCell ref="D79:E79"/>
+    <mergeCell ref="C71:D71"/>
     <mergeCell ref="A89:B89"/>
     <mergeCell ref="A90:B90"/>
     <mergeCell ref="D89:E89"/>
@@ -15850,57 +15834,80 @@
     <mergeCell ref="A102:E102"/>
     <mergeCell ref="D101:E101"/>
     <mergeCell ref="A103:D103"/>
-    <mergeCell ref="A67:B67"/>
-    <mergeCell ref="A68:B68"/>
-    <mergeCell ref="A69:E69"/>
-    <mergeCell ref="D67:E67"/>
-    <mergeCell ref="D68:E68"/>
-    <mergeCell ref="A70:D70"/>
-    <mergeCell ref="A78:B78"/>
-    <mergeCell ref="A79:B79"/>
-    <mergeCell ref="A80:E80"/>
-    <mergeCell ref="D78:E78"/>
-    <mergeCell ref="D79:E79"/>
-    <mergeCell ref="C71:D71"/>
-    <mergeCell ref="C60:D60"/>
-    <mergeCell ref="A47:E47"/>
-    <mergeCell ref="A56:B56"/>
-    <mergeCell ref="D56:E56"/>
-    <mergeCell ref="A48:D48"/>
-    <mergeCell ref="C49:D49"/>
-    <mergeCell ref="A57:B57"/>
-    <mergeCell ref="A58:E58"/>
-    <mergeCell ref="D57:E57"/>
-    <mergeCell ref="A59:D59"/>
-    <mergeCell ref="A36:E36"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="D35:E35"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="A45:B45"/>
-    <mergeCell ref="A46:B46"/>
-    <mergeCell ref="D45:E45"/>
-    <mergeCell ref="D46:E46"/>
-    <mergeCell ref="A37:D37"/>
-    <mergeCell ref="C38:D38"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="A14:E14"/>
-    <mergeCell ref="A25:E25"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="A26:D26"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="A34:B34"/>
-    <mergeCell ref="A35:B35"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A1:E2"/>
-    <mergeCell ref="A3:E3"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C115:D115"/>
+    <mergeCell ref="A111:B111"/>
+    <mergeCell ref="A112:B112"/>
+    <mergeCell ref="A113:E113"/>
+    <mergeCell ref="D111:E111"/>
+    <mergeCell ref="D112:E112"/>
+    <mergeCell ref="A114:D114"/>
+    <mergeCell ref="A125:D125"/>
+    <mergeCell ref="C126:D126"/>
+    <mergeCell ref="A122:B122"/>
+    <mergeCell ref="A123:B123"/>
+    <mergeCell ref="A124:E124"/>
+    <mergeCell ref="D122:E122"/>
+    <mergeCell ref="D123:E123"/>
+    <mergeCell ref="A135:E135"/>
+    <mergeCell ref="A136:D136"/>
+    <mergeCell ref="C137:D137"/>
+    <mergeCell ref="A144:B144"/>
+    <mergeCell ref="D144:E144"/>
+    <mergeCell ref="A133:B133"/>
+    <mergeCell ref="A134:B134"/>
+    <mergeCell ref="D133:E133"/>
+    <mergeCell ref="D134:E134"/>
+    <mergeCell ref="C148:D148"/>
+    <mergeCell ref="A155:B155"/>
+    <mergeCell ref="D155:E155"/>
+    <mergeCell ref="A156:B156"/>
+    <mergeCell ref="D156:E156"/>
+    <mergeCell ref="A145:B145"/>
+    <mergeCell ref="D145:E145"/>
+    <mergeCell ref="A146:E146"/>
+    <mergeCell ref="A147:D147"/>
+    <mergeCell ref="A167:B167"/>
+    <mergeCell ref="D167:E167"/>
+    <mergeCell ref="A157:E157"/>
+    <mergeCell ref="A158:D158"/>
+    <mergeCell ref="C159:D159"/>
+    <mergeCell ref="A166:B166"/>
+    <mergeCell ref="D166:E166"/>
+    <mergeCell ref="A178:B178"/>
+    <mergeCell ref="D178:E178"/>
+    <mergeCell ref="A179:E179"/>
+    <mergeCell ref="A180:D180"/>
+    <mergeCell ref="A168:E168"/>
+    <mergeCell ref="A169:D169"/>
+    <mergeCell ref="C170:D170"/>
+    <mergeCell ref="A177:B177"/>
+    <mergeCell ref="D177:E177"/>
+    <mergeCell ref="A190:E190"/>
+    <mergeCell ref="A191:D191"/>
+    <mergeCell ref="C192:D192"/>
+    <mergeCell ref="A199:B199"/>
+    <mergeCell ref="D199:E199"/>
+    <mergeCell ref="C181:D181"/>
+    <mergeCell ref="A188:B188"/>
+    <mergeCell ref="D188:E188"/>
+    <mergeCell ref="A189:B189"/>
+    <mergeCell ref="D189:E189"/>
+    <mergeCell ref="C203:D203"/>
+    <mergeCell ref="A210:B210"/>
+    <mergeCell ref="D210:E210"/>
+    <mergeCell ref="A211:B211"/>
+    <mergeCell ref="D211:E211"/>
+    <mergeCell ref="A200:B200"/>
+    <mergeCell ref="D200:E200"/>
+    <mergeCell ref="A201:E201"/>
+    <mergeCell ref="A202:D202"/>
+    <mergeCell ref="A222:B222"/>
+    <mergeCell ref="D222:E222"/>
+    <mergeCell ref="A212:E212"/>
+    <mergeCell ref="A213:D213"/>
+    <mergeCell ref="C214:D214"/>
+    <mergeCell ref="A221:B221"/>
+    <mergeCell ref="D221:E221"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.4921259845" footer="0.4921259845"/>
@@ -15971,10 +15978,10 @@
       <c r="B5" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C5" s="164" t="s">
+      <c r="C5" s="171" t="s">
         <v>83</v>
       </c>
-      <c r="D5" s="164"/>
+      <c r="D5" s="171"/>
       <c r="E5" s="26" t="s">
         <v>86</v>
       </c>
@@ -16054,10 +16061,10 @@
         <f>ROUND((SUM(C6:C11)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D12" s="166" t="s">
-        <v>17</v>
-      </c>
-      <c r="E12" s="167"/>
+      <c r="D12" s="162" t="s">
+        <v>17</v>
+      </c>
+      <c r="E12" s="164"/>
     </row>
     <row r="13" spans="1:5" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="174" t="s">
@@ -16098,10 +16105,10 @@
       <c r="B16" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C16" s="164" t="s">
+      <c r="C16" s="171" t="s">
         <v>83</v>
       </c>
-      <c r="D16" s="164"/>
+      <c r="D16" s="171"/>
       <c r="E16" s="26" t="s">
         <v>86</v>
       </c>
@@ -16173,31 +16180,31 @@
       <c r="E22" s="44"/>
     </row>
     <row r="23" spans="1:5" ht="26.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="166" t="s">
+      <c r="A23" s="162" t="s">
         <v>46</v>
       </c>
-      <c r="B23" s="171"/>
+      <c r="B23" s="163"/>
       <c r="C23" s="25">
         <f>ROUND((SUM(C17:C22)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D23" s="166" t="s">
-        <v>17</v>
-      </c>
-      <c r="E23" s="167"/>
+      <c r="D23" s="162" t="s">
+        <v>17</v>
+      </c>
+      <c r="E23" s="164"/>
     </row>
     <row r="24" spans="1:5" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="162" t="s">
-        <v>1</v>
-      </c>
-      <c r="B24" s="163"/>
+      <c r="A24" s="165" t="s">
+        <v>1</v>
+      </c>
+      <c r="B24" s="166"/>
       <c r="C24" s="62">
         <v>0</v>
       </c>
-      <c r="D24" s="162" t="s">
-        <v>17</v>
-      </c>
-      <c r="E24" s="165"/>
+      <c r="D24" s="165" t="s">
+        <v>17</v>
+      </c>
+      <c r="E24" s="167"/>
     </row>
     <row r="25" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A25" s="168"/>
@@ -16225,10 +16232,10 @@
       <c r="B27" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C27" s="164" t="s">
+      <c r="C27" s="171" t="s">
         <v>83</v>
       </c>
-      <c r="D27" s="164"/>
+      <c r="D27" s="171"/>
       <c r="E27" s="26" t="s">
         <v>86</v>
       </c>
@@ -16300,31 +16307,31 @@
       <c r="E33" s="44"/>
     </row>
     <row r="34" spans="1:5" ht="26.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="166" t="s">
+      <c r="A34" s="162" t="s">
         <v>46</v>
       </c>
-      <c r="B34" s="171"/>
+      <c r="B34" s="163"/>
       <c r="C34" s="25">
         <f>ROUND((SUM(C28:C33)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D34" s="166" t="s">
-        <v>17</v>
-      </c>
-      <c r="E34" s="167"/>
+      <c r="D34" s="162" t="s">
+        <v>17</v>
+      </c>
+      <c r="E34" s="164"/>
     </row>
     <row r="35" spans="1:5" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="162" t="s">
-        <v>1</v>
-      </c>
-      <c r="B35" s="163"/>
+      <c r="A35" s="165" t="s">
+        <v>1</v>
+      </c>
+      <c r="B35" s="166"/>
       <c r="C35" s="62">
         <v>0</v>
       </c>
-      <c r="D35" s="162" t="s">
-        <v>17</v>
-      </c>
-      <c r="E35" s="165"/>
+      <c r="D35" s="165" t="s">
+        <v>17</v>
+      </c>
+      <c r="E35" s="167"/>
     </row>
     <row r="36" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A36" s="168"/>
@@ -16352,10 +16359,10 @@
       <c r="B38" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C38" s="164" t="s">
+      <c r="C38" s="171" t="s">
         <v>83</v>
       </c>
-      <c r="D38" s="164"/>
+      <c r="D38" s="171"/>
       <c r="E38" s="26" t="s">
         <v>86</v>
       </c>
@@ -16427,31 +16434,31 @@
       <c r="E44" s="44"/>
     </row>
     <row r="45" spans="1:5" ht="26.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="166" t="s">
+      <c r="A45" s="162" t="s">
         <v>46</v>
       </c>
-      <c r="B45" s="171"/>
+      <c r="B45" s="163"/>
       <c r="C45" s="25">
         <f>ROUND((SUM(C39:C44)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D45" s="166" t="s">
-        <v>17</v>
-      </c>
-      <c r="E45" s="167"/>
+      <c r="D45" s="162" t="s">
+        <v>17</v>
+      </c>
+      <c r="E45" s="164"/>
     </row>
     <row r="46" spans="1:5" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="162" t="s">
-        <v>1</v>
-      </c>
-      <c r="B46" s="163"/>
+      <c r="A46" s="165" t="s">
+        <v>1</v>
+      </c>
+      <c r="B46" s="166"/>
       <c r="C46" s="62">
         <v>0</v>
       </c>
-      <c r="D46" s="162" t="s">
-        <v>17</v>
-      </c>
-      <c r="E46" s="165"/>
+      <c r="D46" s="165" t="s">
+        <v>17</v>
+      </c>
+      <c r="E46" s="167"/>
     </row>
     <row r="47" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A47" s="168"/>
@@ -16479,10 +16486,10 @@
       <c r="B49" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C49" s="164" t="s">
+      <c r="C49" s="171" t="s">
         <v>83</v>
       </c>
-      <c r="D49" s="164"/>
+      <c r="D49" s="171"/>
       <c r="E49" s="26" t="s">
         <v>86</v>
       </c>
@@ -16554,31 +16561,31 @@
       <c r="E55" s="44"/>
     </row>
     <row r="56" spans="1:5" ht="26.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="166" t="s">
+      <c r="A56" s="162" t="s">
         <v>46</v>
       </c>
-      <c r="B56" s="171"/>
+      <c r="B56" s="163"/>
       <c r="C56" s="25">
         <f>ROUND((SUM(C50:C55)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D56" s="166" t="s">
-        <v>17</v>
-      </c>
-      <c r="E56" s="167"/>
+      <c r="D56" s="162" t="s">
+        <v>17</v>
+      </c>
+      <c r="E56" s="164"/>
     </row>
     <row r="57" spans="1:5" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="162" t="s">
-        <v>1</v>
-      </c>
-      <c r="B57" s="163"/>
+      <c r="A57" s="165" t="s">
+        <v>1</v>
+      </c>
+      <c r="B57" s="166"/>
       <c r="C57" s="62">
         <v>0</v>
       </c>
-      <c r="D57" s="162" t="s">
-        <v>17</v>
-      </c>
-      <c r="E57" s="165"/>
+      <c r="D57" s="165" t="s">
+        <v>17</v>
+      </c>
+      <c r="E57" s="167"/>
     </row>
     <row r="58" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A58" s="168"/>
@@ -16606,10 +16613,10 @@
       <c r="B60" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C60" s="164" t="s">
+      <c r="C60" s="171" t="s">
         <v>83</v>
       </c>
-      <c r="D60" s="164"/>
+      <c r="D60" s="171"/>
       <c r="E60" s="26" t="s">
         <v>86</v>
       </c>
@@ -16681,31 +16688,31 @@
       <c r="E66" s="44"/>
     </row>
     <row r="67" spans="1:5" ht="26.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="166" t="s">
+      <c r="A67" s="162" t="s">
         <v>46</v>
       </c>
-      <c r="B67" s="171"/>
+      <c r="B67" s="163"/>
       <c r="C67" s="25">
         <f>ROUND((SUM(C61:C66)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D67" s="166" t="s">
-        <v>17</v>
-      </c>
-      <c r="E67" s="167"/>
+      <c r="D67" s="162" t="s">
+        <v>17</v>
+      </c>
+      <c r="E67" s="164"/>
     </row>
     <row r="68" spans="1:5" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="162" t="s">
-        <v>1</v>
-      </c>
-      <c r="B68" s="163"/>
+      <c r="A68" s="165" t="s">
+        <v>1</v>
+      </c>
+      <c r="B68" s="166"/>
       <c r="C68" s="62">
         <v>0</v>
       </c>
-      <c r="D68" s="162" t="s">
-        <v>17</v>
-      </c>
-      <c r="E68" s="165"/>
+      <c r="D68" s="165" t="s">
+        <v>17</v>
+      </c>
+      <c r="E68" s="167"/>
     </row>
     <row r="69" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A69" s="168"/>
@@ -16733,10 +16740,10 @@
       <c r="B71" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C71" s="164" t="s">
+      <c r="C71" s="171" t="s">
         <v>83</v>
       </c>
-      <c r="D71" s="164"/>
+      <c r="D71" s="171"/>
       <c r="E71" s="26" t="s">
         <v>86</v>
       </c>
@@ -16808,31 +16815,31 @@
       <c r="E77" s="44"/>
     </row>
     <row r="78" spans="1:5" ht="26.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A78" s="166" t="s">
+      <c r="A78" s="162" t="s">
         <v>46</v>
       </c>
-      <c r="B78" s="171"/>
+      <c r="B78" s="163"/>
       <c r="C78" s="25">
         <f>ROUND((SUM(C72:C77)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D78" s="166" t="s">
-        <v>17</v>
-      </c>
-      <c r="E78" s="167"/>
+      <c r="D78" s="162" t="s">
+        <v>17</v>
+      </c>
+      <c r="E78" s="164"/>
     </row>
     <row r="79" spans="1:5" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="162" t="s">
-        <v>1</v>
-      </c>
-      <c r="B79" s="163"/>
+      <c r="A79" s="165" t="s">
+        <v>1</v>
+      </c>
+      <c r="B79" s="166"/>
       <c r="C79" s="62">
         <v>0</v>
       </c>
-      <c r="D79" s="162" t="s">
-        <v>17</v>
-      </c>
-      <c r="E79" s="165"/>
+      <c r="D79" s="165" t="s">
+        <v>17</v>
+      </c>
+      <c r="E79" s="167"/>
     </row>
     <row r="80" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A80" s="168"/>
@@ -16860,10 +16867,10 @@
       <c r="B82" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C82" s="164" t="s">
+      <c r="C82" s="171" t="s">
         <v>83</v>
       </c>
-      <c r="D82" s="164"/>
+      <c r="D82" s="171"/>
       <c r="E82" s="26" t="s">
         <v>86</v>
       </c>
@@ -16935,31 +16942,31 @@
       <c r="E88" s="44"/>
     </row>
     <row r="89" spans="1:5" ht="26.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A89" s="166" t="s">
+      <c r="A89" s="162" t="s">
         <v>46</v>
       </c>
-      <c r="B89" s="171"/>
+      <c r="B89" s="163"/>
       <c r="C89" s="25">
         <f>ROUND((SUM(C83:C88)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D89" s="166" t="s">
-        <v>17</v>
-      </c>
-      <c r="E89" s="167"/>
+      <c r="D89" s="162" t="s">
+        <v>17</v>
+      </c>
+      <c r="E89" s="164"/>
     </row>
     <row r="90" spans="1:5" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="162" t="s">
-        <v>1</v>
-      </c>
-      <c r="B90" s="163"/>
+      <c r="A90" s="165" t="s">
+        <v>1</v>
+      </c>
+      <c r="B90" s="166"/>
       <c r="C90" s="62">
         <v>0</v>
       </c>
-      <c r="D90" s="162" t="s">
-        <v>17</v>
-      </c>
-      <c r="E90" s="165"/>
+      <c r="D90" s="165" t="s">
+        <v>17</v>
+      </c>
+      <c r="E90" s="167"/>
     </row>
     <row r="91" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A91" s="168"/>
@@ -16987,10 +16994,10 @@
       <c r="B93" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C93" s="164" t="s">
+      <c r="C93" s="171" t="s">
         <v>83</v>
       </c>
-      <c r="D93" s="164"/>
+      <c r="D93" s="171"/>
       <c r="E93" s="26" t="s">
         <v>86</v>
       </c>
@@ -17062,31 +17069,31 @@
       <c r="E99" s="44"/>
     </row>
     <row r="100" spans="1:5" ht="26.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A100" s="166" t="s">
+      <c r="A100" s="162" t="s">
         <v>46</v>
       </c>
-      <c r="B100" s="171"/>
+      <c r="B100" s="163"/>
       <c r="C100" s="25">
         <f>ROUND((SUM(C94:C99)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D100" s="166" t="s">
-        <v>17</v>
-      </c>
-      <c r="E100" s="167"/>
+      <c r="D100" s="162" t="s">
+        <v>17</v>
+      </c>
+      <c r="E100" s="164"/>
     </row>
     <row r="101" spans="1:5" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A101" s="162" t="s">
-        <v>1</v>
-      </c>
-      <c r="B101" s="163"/>
+      <c r="A101" s="165" t="s">
+        <v>1</v>
+      </c>
+      <c r="B101" s="166"/>
       <c r="C101" s="62">
         <v>0</v>
       </c>
-      <c r="D101" s="162" t="s">
-        <v>17</v>
-      </c>
-      <c r="E101" s="165"/>
+      <c r="D101" s="165" t="s">
+        <v>17</v>
+      </c>
+      <c r="E101" s="167"/>
     </row>
     <row r="102" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A102" s="168"/>
@@ -17114,10 +17121,10 @@
       <c r="B104" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C104" s="164" t="s">
+      <c r="C104" s="171" t="s">
         <v>83</v>
       </c>
-      <c r="D104" s="164"/>
+      <c r="D104" s="171"/>
       <c r="E104" s="26" t="s">
         <v>86</v>
       </c>
@@ -17189,31 +17196,31 @@
       <c r="E110" s="44"/>
     </row>
     <row r="111" spans="1:5" ht="26.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A111" s="166" t="s">
+      <c r="A111" s="162" t="s">
         <v>46</v>
       </c>
-      <c r="B111" s="171"/>
+      <c r="B111" s="163"/>
       <c r="C111" s="25">
         <f>ROUND((SUM(C105:C110)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D111" s="166" t="s">
-        <v>17</v>
-      </c>
-      <c r="E111" s="167"/>
+      <c r="D111" s="162" t="s">
+        <v>17</v>
+      </c>
+      <c r="E111" s="164"/>
     </row>
     <row r="112" spans="1:5" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A112" s="162" t="s">
-        <v>1</v>
-      </c>
-      <c r="B112" s="163"/>
+      <c r="A112" s="165" t="s">
+        <v>1</v>
+      </c>
+      <c r="B112" s="166"/>
       <c r="C112" s="62">
         <v>0</v>
       </c>
-      <c r="D112" s="162" t="s">
-        <v>17</v>
-      </c>
-      <c r="E112" s="165"/>
+      <c r="D112" s="165" t="s">
+        <v>17</v>
+      </c>
+      <c r="E112" s="167"/>
     </row>
     <row r="113" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A113" s="168"/>
@@ -17241,10 +17248,10 @@
       <c r="B115" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C115" s="164" t="s">
+      <c r="C115" s="171" t="s">
         <v>83</v>
       </c>
-      <c r="D115" s="164"/>
+      <c r="D115" s="171"/>
       <c r="E115" s="26" t="s">
         <v>86</v>
       </c>
@@ -17316,31 +17323,31 @@
       <c r="E121" s="44"/>
     </row>
     <row r="122" spans="1:5" ht="26.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A122" s="166" t="s">
+      <c r="A122" s="162" t="s">
         <v>46</v>
       </c>
-      <c r="B122" s="171"/>
+      <c r="B122" s="163"/>
       <c r="C122" s="25">
         <f>ROUND((SUM(C116:C121)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D122" s="166" t="s">
-        <v>17</v>
-      </c>
-      <c r="E122" s="167"/>
+      <c r="D122" s="162" t="s">
+        <v>17</v>
+      </c>
+      <c r="E122" s="164"/>
     </row>
     <row r="123" spans="1:5" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A123" s="162" t="s">
-        <v>1</v>
-      </c>
-      <c r="B123" s="163"/>
+      <c r="A123" s="165" t="s">
+        <v>1</v>
+      </c>
+      <c r="B123" s="166"/>
       <c r="C123" s="62">
         <v>0</v>
       </c>
-      <c r="D123" s="162" t="s">
-        <v>17</v>
-      </c>
-      <c r="E123" s="165"/>
+      <c r="D123" s="165" t="s">
+        <v>17</v>
+      </c>
+      <c r="E123" s="167"/>
     </row>
     <row r="124" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A124" s="168"/>
@@ -17368,10 +17375,10 @@
       <c r="B126" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C126" s="164" t="s">
+      <c r="C126" s="171" t="s">
         <v>83</v>
       </c>
-      <c r="D126" s="164"/>
+      <c r="D126" s="171"/>
       <c r="E126" s="26" t="s">
         <v>86</v>
       </c>
@@ -17443,31 +17450,31 @@
       <c r="E132" s="44"/>
     </row>
     <row r="133" spans="1:5" ht="26.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A133" s="166" t="s">
+      <c r="A133" s="162" t="s">
         <v>46</v>
       </c>
-      <c r="B133" s="171"/>
+      <c r="B133" s="163"/>
       <c r="C133" s="25">
         <f>ROUND((SUM(C127:C132)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D133" s="166" t="s">
-        <v>17</v>
-      </c>
-      <c r="E133" s="167"/>
+      <c r="D133" s="162" t="s">
+        <v>17</v>
+      </c>
+      <c r="E133" s="164"/>
     </row>
     <row r="134" spans="1:5" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A134" s="162" t="s">
-        <v>1</v>
-      </c>
-      <c r="B134" s="163"/>
+      <c r="A134" s="165" t="s">
+        <v>1</v>
+      </c>
+      <c r="B134" s="166"/>
       <c r="C134" s="59">
         <v>0</v>
       </c>
-      <c r="D134" s="162" t="s">
-        <v>17</v>
-      </c>
-      <c r="E134" s="165"/>
+      <c r="D134" s="165" t="s">
+        <v>17</v>
+      </c>
+      <c r="E134" s="167"/>
     </row>
     <row r="135" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A135" s="168"/>
@@ -17495,10 +17502,10 @@
       <c r="B137" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C137" s="164" t="s">
+      <c r="C137" s="171" t="s">
         <v>83</v>
       </c>
-      <c r="D137" s="164"/>
+      <c r="D137" s="171"/>
       <c r="E137" s="26" t="s">
         <v>86</v>
       </c>
@@ -17570,31 +17577,31 @@
       <c r="E143" s="44"/>
     </row>
     <row r="144" spans="1:5" ht="26.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A144" s="166" t="s">
+      <c r="A144" s="162" t="s">
         <v>46</v>
       </c>
-      <c r="B144" s="171"/>
+      <c r="B144" s="163"/>
       <c r="C144" s="25">
         <f>ROUND((SUM(C138:C143)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D144" s="166" t="s">
-        <v>17</v>
-      </c>
-      <c r="E144" s="167"/>
+      <c r="D144" s="162" t="s">
+        <v>17</v>
+      </c>
+      <c r="E144" s="164"/>
     </row>
     <row r="145" spans="1:5" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A145" s="162" t="s">
-        <v>1</v>
-      </c>
-      <c r="B145" s="163"/>
+      <c r="A145" s="165" t="s">
+        <v>1</v>
+      </c>
+      <c r="B145" s="166"/>
       <c r="C145" s="62">
         <v>0</v>
       </c>
-      <c r="D145" s="162" t="s">
-        <v>17</v>
-      </c>
-      <c r="E145" s="165"/>
+      <c r="D145" s="165" t="s">
+        <v>17</v>
+      </c>
+      <c r="E145" s="167"/>
     </row>
     <row r="146" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A146" s="168"/>
@@ -17622,10 +17629,10 @@
       <c r="B148" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C148" s="164" t="s">
+      <c r="C148" s="171" t="s">
         <v>83</v>
       </c>
-      <c r="D148" s="164"/>
+      <c r="D148" s="171"/>
       <c r="E148" s="26" t="s">
         <v>86</v>
       </c>
@@ -17697,31 +17704,31 @@
       <c r="E154" s="44"/>
     </row>
     <row r="155" spans="1:5" ht="26.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A155" s="166" t="s">
+      <c r="A155" s="162" t="s">
         <v>46</v>
       </c>
-      <c r="B155" s="171"/>
+      <c r="B155" s="163"/>
       <c r="C155" s="25">
         <f>ROUND((SUM(C149:C154)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D155" s="166" t="s">
-        <v>17</v>
-      </c>
-      <c r="E155" s="167"/>
+      <c r="D155" s="162" t="s">
+        <v>17</v>
+      </c>
+      <c r="E155" s="164"/>
     </row>
     <row r="156" spans="1:5" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A156" s="162" t="s">
-        <v>1</v>
-      </c>
-      <c r="B156" s="163"/>
+      <c r="A156" s="165" t="s">
+        <v>1</v>
+      </c>
+      <c r="B156" s="166"/>
       <c r="C156" s="62">
         <v>0</v>
       </c>
-      <c r="D156" s="162" t="s">
-        <v>17</v>
-      </c>
-      <c r="E156" s="165"/>
+      <c r="D156" s="165" t="s">
+        <v>17</v>
+      </c>
+      <c r="E156" s="167"/>
     </row>
     <row r="157" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A157" s="168"/>
@@ -17749,10 +17756,10 @@
       <c r="B159" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C159" s="164" t="s">
+      <c r="C159" s="171" t="s">
         <v>83</v>
       </c>
-      <c r="D159" s="164"/>
+      <c r="D159" s="171"/>
       <c r="E159" s="26" t="s">
         <v>86</v>
       </c>
@@ -17824,31 +17831,31 @@
       <c r="E165" s="44"/>
     </row>
     <row r="166" spans="1:5" ht="26.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A166" s="166" t="s">
+      <c r="A166" s="162" t="s">
         <v>46</v>
       </c>
-      <c r="B166" s="171"/>
+      <c r="B166" s="163"/>
       <c r="C166" s="25">
         <f>ROUND((SUM(C160:C165)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D166" s="166" t="s">
-        <v>17</v>
-      </c>
-      <c r="E166" s="167"/>
+      <c r="D166" s="162" t="s">
+        <v>17</v>
+      </c>
+      <c r="E166" s="164"/>
     </row>
     <row r="167" spans="1:5" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A167" s="162" t="s">
-        <v>1</v>
-      </c>
-      <c r="B167" s="163"/>
+      <c r="A167" s="165" t="s">
+        <v>1</v>
+      </c>
+      <c r="B167" s="166"/>
       <c r="C167" s="62">
         <v>0</v>
       </c>
-      <c r="D167" s="162" t="s">
-        <v>17</v>
-      </c>
-      <c r="E167" s="165"/>
+      <c r="D167" s="165" t="s">
+        <v>17</v>
+      </c>
+      <c r="E167" s="167"/>
     </row>
     <row r="168" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A168" s="168"/>
@@ -17876,10 +17883,10 @@
       <c r="B170" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C170" s="164" t="s">
+      <c r="C170" s="171" t="s">
         <v>83</v>
       </c>
-      <c r="D170" s="164"/>
+      <c r="D170" s="171"/>
       <c r="E170" s="26" t="s">
         <v>86</v>
       </c>
@@ -17951,31 +17958,31 @@
       <c r="E176" s="44"/>
     </row>
     <row r="177" spans="1:5" ht="26.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A177" s="166" t="s">
+      <c r="A177" s="162" t="s">
         <v>46</v>
       </c>
-      <c r="B177" s="171"/>
+      <c r="B177" s="163"/>
       <c r="C177" s="25">
         <f>ROUND((SUM(C171:C176)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D177" s="166" t="s">
-        <v>17</v>
-      </c>
-      <c r="E177" s="167"/>
+      <c r="D177" s="162" t="s">
+        <v>17</v>
+      </c>
+      <c r="E177" s="164"/>
     </row>
     <row r="178" spans="1:5" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A178" s="162" t="s">
-        <v>1</v>
-      </c>
-      <c r="B178" s="163"/>
+      <c r="A178" s="165" t="s">
+        <v>1</v>
+      </c>
+      <c r="B178" s="166"/>
       <c r="C178" s="62">
         <v>0</v>
       </c>
-      <c r="D178" s="162" t="s">
-        <v>17</v>
-      </c>
-      <c r="E178" s="165"/>
+      <c r="D178" s="165" t="s">
+        <v>17</v>
+      </c>
+      <c r="E178" s="167"/>
     </row>
     <row r="179" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A179" s="168"/>
@@ -18003,10 +18010,10 @@
       <c r="B181" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C181" s="164" t="s">
+      <c r="C181" s="171" t="s">
         <v>83</v>
       </c>
-      <c r="D181" s="164"/>
+      <c r="D181" s="171"/>
       <c r="E181" s="26" t="s">
         <v>86</v>
       </c>
@@ -18078,31 +18085,31 @@
       <c r="E187" s="44"/>
     </row>
     <row r="188" spans="1:5" ht="26.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A188" s="166" t="s">
+      <c r="A188" s="162" t="s">
         <v>46</v>
       </c>
-      <c r="B188" s="171"/>
+      <c r="B188" s="163"/>
       <c r="C188" s="25">
         <f>ROUND((SUM(C182:C187)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D188" s="166" t="s">
-        <v>17</v>
-      </c>
-      <c r="E188" s="167"/>
+      <c r="D188" s="162" t="s">
+        <v>17</v>
+      </c>
+      <c r="E188" s="164"/>
     </row>
     <row r="189" spans="1:5" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A189" s="162" t="s">
-        <v>1</v>
-      </c>
-      <c r="B189" s="163"/>
+      <c r="A189" s="165" t="s">
+        <v>1</v>
+      </c>
+      <c r="B189" s="166"/>
       <c r="C189" s="62">
         <v>0</v>
       </c>
-      <c r="D189" s="162" t="s">
-        <v>17</v>
-      </c>
-      <c r="E189" s="165"/>
+      <c r="D189" s="165" t="s">
+        <v>17</v>
+      </c>
+      <c r="E189" s="167"/>
     </row>
     <row r="190" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A190" s="168"/>
@@ -18130,10 +18137,10 @@
       <c r="B192" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C192" s="164" t="s">
+      <c r="C192" s="171" t="s">
         <v>83</v>
       </c>
-      <c r="D192" s="164"/>
+      <c r="D192" s="171"/>
       <c r="E192" s="26" t="s">
         <v>86</v>
       </c>
@@ -18205,31 +18212,31 @@
       <c r="E198" s="44"/>
     </row>
     <row r="199" spans="1:5" ht="26.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A199" s="166" t="s">
+      <c r="A199" s="162" t="s">
         <v>46</v>
       </c>
-      <c r="B199" s="171"/>
+      <c r="B199" s="163"/>
       <c r="C199" s="25">
         <f>ROUND((SUM(C193:C198)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D199" s="166" t="s">
-        <v>17</v>
-      </c>
-      <c r="E199" s="167"/>
+      <c r="D199" s="162" t="s">
+        <v>17</v>
+      </c>
+      <c r="E199" s="164"/>
     </row>
     <row r="200" spans="1:5" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A200" s="162" t="s">
-        <v>1</v>
-      </c>
-      <c r="B200" s="163"/>
+      <c r="A200" s="165" t="s">
+        <v>1</v>
+      </c>
+      <c r="B200" s="166"/>
       <c r="C200" s="62">
         <v>0</v>
       </c>
-      <c r="D200" s="162" t="s">
-        <v>17</v>
-      </c>
-      <c r="E200" s="165"/>
+      <c r="D200" s="165" t="s">
+        <v>17</v>
+      </c>
+      <c r="E200" s="167"/>
     </row>
     <row r="201" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A201" s="168"/>
@@ -18257,10 +18264,10 @@
       <c r="B203" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C203" s="164" t="s">
+      <c r="C203" s="171" t="s">
         <v>83</v>
       </c>
-      <c r="D203" s="164"/>
+      <c r="D203" s="171"/>
       <c r="E203" s="26" t="s">
         <v>86</v>
       </c>
@@ -18332,31 +18339,31 @@
       <c r="E209" s="44"/>
     </row>
     <row r="210" spans="1:5" ht="26.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A210" s="166" t="s">
+      <c r="A210" s="162" t="s">
         <v>46</v>
       </c>
-      <c r="B210" s="171"/>
+      <c r="B210" s="163"/>
       <c r="C210" s="25">
         <f>ROUND((SUM(C204:C209)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D210" s="166" t="s">
-        <v>17</v>
-      </c>
-      <c r="E210" s="167"/>
+      <c r="D210" s="162" t="s">
+        <v>17</v>
+      </c>
+      <c r="E210" s="164"/>
     </row>
     <row r="211" spans="1:5" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A211" s="162" t="s">
-        <v>1</v>
-      </c>
-      <c r="B211" s="163"/>
+      <c r="A211" s="165" t="s">
+        <v>1</v>
+      </c>
+      <c r="B211" s="166"/>
       <c r="C211" s="62">
         <v>0</v>
       </c>
-      <c r="D211" s="162" t="s">
-        <v>17</v>
-      </c>
-      <c r="E211" s="165"/>
+      <c r="D211" s="165" t="s">
+        <v>17</v>
+      </c>
+      <c r="E211" s="167"/>
     </row>
     <row r="212" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A212" s="168"/>
@@ -18384,10 +18391,10 @@
       <c r="B214" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C214" s="164" t="s">
+      <c r="C214" s="171" t="s">
         <v>83</v>
       </c>
-      <c r="D214" s="164"/>
+      <c r="D214" s="171"/>
       <c r="E214" s="26" t="s">
         <v>86</v>
       </c>
@@ -18459,86 +18466,103 @@
       <c r="E220" s="44"/>
     </row>
     <row r="221" spans="1:5" ht="26.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A221" s="166" t="s">
+      <c r="A221" s="162" t="s">
         <v>46</v>
       </c>
-      <c r="B221" s="171"/>
+      <c r="B221" s="163"/>
       <c r="C221" s="25">
         <f>ROUND((SUM(C215:C220)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="D221" s="166" t="s">
-        <v>17</v>
-      </c>
-      <c r="E221" s="167"/>
+      <c r="D221" s="162" t="s">
+        <v>17</v>
+      </c>
+      <c r="E221" s="164"/>
     </row>
     <row r="222" spans="1:5" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A222" s="162" t="s">
-        <v>1</v>
-      </c>
-      <c r="B222" s="163"/>
+      <c r="A222" s="165" t="s">
+        <v>1</v>
+      </c>
+      <c r="B222" s="166"/>
       <c r="C222" s="62">
         <v>0</v>
       </c>
-      <c r="D222" s="162" t="s">
-        <v>17</v>
-      </c>
-      <c r="E222" s="165"/>
+      <c r="D222" s="165" t="s">
+        <v>17</v>
+      </c>
+      <c r="E222" s="167"/>
     </row>
     <row r="223" spans="1:5" ht="13.5" thickTop="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="qkHEiaAjF8gwOa3is30uCpyaYrrLA+M9G6ZVowWb4z7MZMFsoOteeI9rBjKK3opYj1tR9STPTqA8B88ITlzyHw==" saltValue="QgNv+41ImpTcqDKX4J8u4Q==" spinCount="100000" sheet="1" objects="1" scenarios="1" insertRows="0" deleteRows="0" selectLockedCells="1"/>
   <mergeCells count="141">
-    <mergeCell ref="A222:B222"/>
-    <mergeCell ref="D222:E222"/>
-    <mergeCell ref="A212:E212"/>
-    <mergeCell ref="A213:D213"/>
-    <mergeCell ref="C214:D214"/>
-    <mergeCell ref="A221:B221"/>
-    <mergeCell ref="D221:E221"/>
-    <mergeCell ref="C203:D203"/>
-    <mergeCell ref="A210:B210"/>
-    <mergeCell ref="D210:E210"/>
-    <mergeCell ref="A211:B211"/>
-    <mergeCell ref="D211:E211"/>
-    <mergeCell ref="A200:B200"/>
-    <mergeCell ref="D200:E200"/>
-    <mergeCell ref="A201:E201"/>
-    <mergeCell ref="A202:D202"/>
-    <mergeCell ref="A190:E190"/>
-    <mergeCell ref="A191:D191"/>
-    <mergeCell ref="C192:D192"/>
-    <mergeCell ref="A199:B199"/>
-    <mergeCell ref="D199:E199"/>
-    <mergeCell ref="C181:D181"/>
-    <mergeCell ref="A188:B188"/>
-    <mergeCell ref="D188:E188"/>
-    <mergeCell ref="A189:B189"/>
-    <mergeCell ref="D189:E189"/>
-    <mergeCell ref="A178:B178"/>
-    <mergeCell ref="D178:E178"/>
-    <mergeCell ref="A179:E179"/>
-    <mergeCell ref="A180:D180"/>
-    <mergeCell ref="A168:E168"/>
-    <mergeCell ref="A169:D169"/>
-    <mergeCell ref="C170:D170"/>
-    <mergeCell ref="A177:B177"/>
-    <mergeCell ref="D177:E177"/>
-    <mergeCell ref="A155:B155"/>
-    <mergeCell ref="D155:E155"/>
-    <mergeCell ref="A156:B156"/>
-    <mergeCell ref="D156:E156"/>
-    <mergeCell ref="A145:B145"/>
-    <mergeCell ref="D145:E145"/>
-    <mergeCell ref="A146:E146"/>
-    <mergeCell ref="A147:D147"/>
-    <mergeCell ref="A167:B167"/>
-    <mergeCell ref="D167:E167"/>
-    <mergeCell ref="A157:E157"/>
-    <mergeCell ref="A158:D158"/>
-    <mergeCell ref="C159:D159"/>
-    <mergeCell ref="A166:B166"/>
-    <mergeCell ref="D166:E166"/>
+    <mergeCell ref="A133:B133"/>
+    <mergeCell ref="A134:B134"/>
+    <mergeCell ref="D133:E133"/>
+    <mergeCell ref="D134:E134"/>
+    <mergeCell ref="A124:E124"/>
+    <mergeCell ref="D122:E122"/>
+    <mergeCell ref="D123:E123"/>
+    <mergeCell ref="C115:D115"/>
+    <mergeCell ref="A125:D125"/>
+    <mergeCell ref="C126:D126"/>
+    <mergeCell ref="A113:E113"/>
+    <mergeCell ref="D111:E111"/>
+    <mergeCell ref="D112:E112"/>
+    <mergeCell ref="A114:D114"/>
+    <mergeCell ref="A122:B122"/>
+    <mergeCell ref="A123:B123"/>
+    <mergeCell ref="A102:E102"/>
+    <mergeCell ref="D101:E101"/>
+    <mergeCell ref="A103:D103"/>
+    <mergeCell ref="C104:D104"/>
+    <mergeCell ref="A111:B111"/>
+    <mergeCell ref="A112:B112"/>
+    <mergeCell ref="A89:B89"/>
+    <mergeCell ref="A90:B90"/>
+    <mergeCell ref="D89:E89"/>
+    <mergeCell ref="A101:B101"/>
+    <mergeCell ref="A91:E91"/>
+    <mergeCell ref="A100:B100"/>
+    <mergeCell ref="D100:E100"/>
+    <mergeCell ref="A92:D92"/>
+    <mergeCell ref="C93:D93"/>
+    <mergeCell ref="D90:E90"/>
+    <mergeCell ref="D67:E67"/>
+    <mergeCell ref="A57:B57"/>
+    <mergeCell ref="D68:E68"/>
+    <mergeCell ref="A70:D70"/>
+    <mergeCell ref="A78:B78"/>
+    <mergeCell ref="A79:B79"/>
+    <mergeCell ref="A80:E80"/>
+    <mergeCell ref="D78:E78"/>
+    <mergeCell ref="D79:E79"/>
+    <mergeCell ref="C71:D71"/>
+    <mergeCell ref="A58:E58"/>
+    <mergeCell ref="A1:E2"/>
+    <mergeCell ref="A3:E3"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="A135:E135"/>
+    <mergeCell ref="A136:D136"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="A14:E14"/>
+    <mergeCell ref="A25:E25"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="A26:D26"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="A36:E36"/>
+    <mergeCell ref="A47:E47"/>
+    <mergeCell ref="A56:B56"/>
+    <mergeCell ref="D56:E56"/>
+    <mergeCell ref="A48:D48"/>
+    <mergeCell ref="C49:D49"/>
+    <mergeCell ref="D34:E34"/>
     <mergeCell ref="C137:D137"/>
     <mergeCell ref="A144:B144"/>
     <mergeCell ref="D144:E144"/>
@@ -18563,73 +18587,56 @@
     <mergeCell ref="A67:B67"/>
     <mergeCell ref="A68:B68"/>
     <mergeCell ref="A69:E69"/>
-    <mergeCell ref="A1:E2"/>
-    <mergeCell ref="A3:E3"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="A135:E135"/>
-    <mergeCell ref="A136:D136"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="A14:E14"/>
-    <mergeCell ref="A25:E25"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="A26:D26"/>
-    <mergeCell ref="A34:B34"/>
-    <mergeCell ref="A35:B35"/>
-    <mergeCell ref="A36:E36"/>
-    <mergeCell ref="A47:E47"/>
-    <mergeCell ref="A56:B56"/>
-    <mergeCell ref="D56:E56"/>
-    <mergeCell ref="A48:D48"/>
-    <mergeCell ref="C49:D49"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="D67:E67"/>
-    <mergeCell ref="A57:B57"/>
-    <mergeCell ref="D68:E68"/>
-    <mergeCell ref="A70:D70"/>
-    <mergeCell ref="A78:B78"/>
-    <mergeCell ref="A79:B79"/>
-    <mergeCell ref="A80:E80"/>
-    <mergeCell ref="D78:E78"/>
-    <mergeCell ref="D79:E79"/>
-    <mergeCell ref="C71:D71"/>
-    <mergeCell ref="A58:E58"/>
-    <mergeCell ref="A89:B89"/>
-    <mergeCell ref="A90:B90"/>
-    <mergeCell ref="D89:E89"/>
-    <mergeCell ref="A101:B101"/>
-    <mergeCell ref="A91:E91"/>
-    <mergeCell ref="A100:B100"/>
-    <mergeCell ref="D100:E100"/>
-    <mergeCell ref="A92:D92"/>
-    <mergeCell ref="C93:D93"/>
-    <mergeCell ref="D90:E90"/>
-    <mergeCell ref="A113:E113"/>
-    <mergeCell ref="D111:E111"/>
-    <mergeCell ref="D112:E112"/>
-    <mergeCell ref="A114:D114"/>
-    <mergeCell ref="A122:B122"/>
-    <mergeCell ref="A123:B123"/>
-    <mergeCell ref="A102:E102"/>
-    <mergeCell ref="D101:E101"/>
-    <mergeCell ref="A103:D103"/>
-    <mergeCell ref="C104:D104"/>
-    <mergeCell ref="A111:B111"/>
-    <mergeCell ref="A112:B112"/>
-    <mergeCell ref="A133:B133"/>
-    <mergeCell ref="A134:B134"/>
-    <mergeCell ref="D133:E133"/>
-    <mergeCell ref="D134:E134"/>
-    <mergeCell ref="A124:E124"/>
-    <mergeCell ref="D122:E122"/>
-    <mergeCell ref="D123:E123"/>
-    <mergeCell ref="C115:D115"/>
-    <mergeCell ref="A125:D125"/>
-    <mergeCell ref="C126:D126"/>
+    <mergeCell ref="A145:B145"/>
+    <mergeCell ref="D145:E145"/>
+    <mergeCell ref="A146:E146"/>
+    <mergeCell ref="A147:D147"/>
+    <mergeCell ref="A167:B167"/>
+    <mergeCell ref="D167:E167"/>
+    <mergeCell ref="A157:E157"/>
+    <mergeCell ref="A158:D158"/>
+    <mergeCell ref="C159:D159"/>
+    <mergeCell ref="A166:B166"/>
+    <mergeCell ref="D166:E166"/>
+    <mergeCell ref="A168:E168"/>
+    <mergeCell ref="A169:D169"/>
+    <mergeCell ref="C170:D170"/>
+    <mergeCell ref="A177:B177"/>
+    <mergeCell ref="D177:E177"/>
+    <mergeCell ref="A155:B155"/>
+    <mergeCell ref="D155:E155"/>
+    <mergeCell ref="A156:B156"/>
+    <mergeCell ref="D156:E156"/>
+    <mergeCell ref="C181:D181"/>
+    <mergeCell ref="A188:B188"/>
+    <mergeCell ref="D188:E188"/>
+    <mergeCell ref="A189:B189"/>
+    <mergeCell ref="D189:E189"/>
+    <mergeCell ref="A178:B178"/>
+    <mergeCell ref="D178:E178"/>
+    <mergeCell ref="A179:E179"/>
+    <mergeCell ref="A180:D180"/>
+    <mergeCell ref="A200:B200"/>
+    <mergeCell ref="D200:E200"/>
+    <mergeCell ref="A201:E201"/>
+    <mergeCell ref="A202:D202"/>
+    <mergeCell ref="A190:E190"/>
+    <mergeCell ref="A191:D191"/>
+    <mergeCell ref="C192:D192"/>
+    <mergeCell ref="A199:B199"/>
+    <mergeCell ref="D199:E199"/>
+    <mergeCell ref="A222:B222"/>
+    <mergeCell ref="D222:E222"/>
+    <mergeCell ref="A212:E212"/>
+    <mergeCell ref="A213:D213"/>
+    <mergeCell ref="C214:D214"/>
+    <mergeCell ref="A221:B221"/>
+    <mergeCell ref="D221:E221"/>
+    <mergeCell ref="C203:D203"/>
+    <mergeCell ref="A210:B210"/>
+    <mergeCell ref="D210:E210"/>
+    <mergeCell ref="A211:B211"/>
+    <mergeCell ref="D211:E211"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.4921259845" footer="0.4921259845"/>
